--- a/src/main/resources/excel/form2307b.xlsx
+++ b/src/main/resources/excel/form2307b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\git\magic\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\git\jchs-pos\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FE31C4-08E6-4A37-8ED9-7418D2AAF944}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C178F-AD92-49EF-AE1F-96E26FE84E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2977,7 +2980,7 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> 001</a:t>
+            <a:t> 000</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5273,22 +5276,13 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-PH" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>160 HEROES DEL 96 ST BRGY 73</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-PH" sz="1100" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> DIST 8 CALAANAN WEST CALOOCAN CITY</a:t>
+            <a:t>BLK 29 LOT10 EL CAMINO RD, LVDSN PEREZ, MEYCAUAYAN BULACAN</a:t>
           </a:r>
           <a:endParaRPr lang="en-PH" sz="1200">
             <a:effectLst/>
@@ -9380,11 +9374,14 @@
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:effectLst/>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3020</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9658,8 +9655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/excel/form2307b.xlsx
+++ b/src/main/resources/excel/form2307b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\git\jchs-pos\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C178F-AD92-49EF-AE1F-96E26FE84E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2496B37-9F6A-4322-ABB3-C5B1E8648B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -2164,6 +2164,504 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2173,6 +2671,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2206,15 +2743,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2226,534 +2754,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9655,8 +9655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -9669,136 +9669,136 @@
   <sheetData>
     <row r="1" spans="1:40" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="243"/>
-      <c r="Q2" s="243"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="243"/>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="243"/>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="243"/>
-      <c r="AF2" s="243"/>
-      <c r="AG2" s="243"/>
-      <c r="AH2" s="243"/>
-      <c r="AI2" s="243"/>
-      <c r="AJ2" s="243"/>
-      <c r="AK2" s="243"/>
-      <c r="AL2" s="243"/>
-      <c r="AM2" s="243"/>
-      <c r="AN2" s="243"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="237"/>
+      <c r="AD2" s="237"/>
+      <c r="AE2" s="237"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="237"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="237"/>
+      <c r="AJ2" s="237"/>
+      <c r="AK2" s="237"/>
+      <c r="AL2" s="237"/>
+      <c r="AM2" s="237"/>
+      <c r="AN2" s="237"/>
     </row>
     <row r="3" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="243"/>
-      <c r="AE3" s="243"/>
-      <c r="AF3" s="243"/>
-      <c r="AG3" s="243"/>
-      <c r="AH3" s="243"/>
-      <c r="AI3" s="243"/>
-      <c r="AJ3" s="243"/>
-      <c r="AK3" s="243"/>
-      <c r="AL3" s="243"/>
-      <c r="AM3" s="243"/>
-      <c r="AN3" s="243"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="237"/>
+      <c r="AD3" s="237"/>
+      <c r="AE3" s="237"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="237"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="237"/>
+      <c r="AJ3" s="237"/>
+      <c r="AK3" s="237"/>
+      <c r="AL3" s="237"/>
+      <c r="AM3" s="237"/>
+      <c r="AN3" s="237"/>
     </row>
     <row r="4" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="244" t="s">
+      <c r="A4" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="244"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="244"/>
-      <c r="O4" s="244"/>
-      <c r="P4" s="244"/>
-      <c r="Q4" s="244"/>
-      <c r="R4" s="244"/>
-      <c r="S4" s="244"/>
-      <c r="T4" s="244"/>
-      <c r="U4" s="244"/>
-      <c r="V4" s="244"/>
-      <c r="W4" s="244"/>
-      <c r="X4" s="244"/>
-      <c r="Y4" s="244"/>
-      <c r="Z4" s="244"/>
-      <c r="AA4" s="244"/>
-      <c r="AB4" s="244"/>
-      <c r="AC4" s="244"/>
-      <c r="AD4" s="244"/>
-      <c r="AE4" s="244"/>
-      <c r="AF4" s="244"/>
-      <c r="AG4" s="244"/>
-      <c r="AH4" s="244"/>
-      <c r="AI4" s="244"/>
-      <c r="AJ4" s="244"/>
-      <c r="AK4" s="244"/>
-      <c r="AL4" s="244"/>
-      <c r="AM4" s="244"/>
-      <c r="AN4" s="244"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="238"/>
+      <c r="U4" s="238"/>
+      <c r="V4" s="238"/>
+      <c r="W4" s="238"/>
+      <c r="X4" s="238"/>
+      <c r="Y4" s="238"/>
+      <c r="Z4" s="238"/>
+      <c r="AA4" s="238"/>
+      <c r="AB4" s="238"/>
+      <c r="AC4" s="238"/>
+      <c r="AD4" s="238"/>
+      <c r="AE4" s="238"/>
+      <c r="AF4" s="238"/>
+      <c r="AG4" s="238"/>
+      <c r="AH4" s="238"/>
+      <c r="AI4" s="238"/>
+      <c r="AJ4" s="238"/>
+      <c r="AK4" s="238"/>
+      <c r="AL4" s="238"/>
+      <c r="AM4" s="238"/>
+      <c r="AN4" s="238"/>
     </row>
     <row r="5" spans="1:40" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -9812,25 +9812,25 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="236" t="s">
+      <c r="L5" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="236"/>
-      <c r="N5" s="236"/>
-      <c r="O5" s="236"/>
-      <c r="P5" s="236"/>
-      <c r="Q5" s="236"/>
-      <c r="R5" s="236"/>
-      <c r="S5" s="236"/>
-      <c r="T5" s="236"/>
-      <c r="U5" s="236"/>
-      <c r="V5" s="236"/>
-      <c r="W5" s="236"/>
-      <c r="X5" s="236"/>
-      <c r="Y5" s="236"/>
-      <c r="Z5" s="236"/>
-      <c r="AA5" s="236"/>
-      <c r="AB5" s="236"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="233"/>
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="233"/>
+      <c r="W5" s="233"/>
+      <c r="X5" s="233"/>
+      <c r="Y5" s="233"/>
+      <c r="Z5" s="233"/>
+      <c r="AA5" s="233"/>
+      <c r="AB5" s="233"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="1"/>
@@ -9856,23 +9856,23 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="237"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
-      <c r="Q6" s="237"/>
-      <c r="R6" s="237"/>
-      <c r="S6" s="237"/>
-      <c r="T6" s="237"/>
-      <c r="U6" s="237"/>
-      <c r="V6" s="237"/>
-      <c r="W6" s="237"/>
-      <c r="X6" s="237"/>
-      <c r="Y6" s="237"/>
-      <c r="Z6" s="237"/>
-      <c r="AA6" s="237"/>
-      <c r="AB6" s="237"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="234"/>
+      <c r="P6" s="234"/>
+      <c r="Q6" s="234"/>
+      <c r="R6" s="234"/>
+      <c r="S6" s="234"/>
+      <c r="T6" s="234"/>
+      <c r="U6" s="234"/>
+      <c r="V6" s="234"/>
+      <c r="W6" s="234"/>
+      <c r="X6" s="234"/>
+      <c r="Y6" s="234"/>
+      <c r="Z6" s="234"/>
+      <c r="AA6" s="234"/>
+      <c r="AB6" s="234"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="4"/>
@@ -9898,23 +9898,23 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
-      <c r="O7" s="237"/>
-      <c r="P7" s="237"/>
-      <c r="Q7" s="237"/>
-      <c r="R7" s="237"/>
-      <c r="S7" s="237"/>
-      <c r="T7" s="237"/>
-      <c r="U7" s="237"/>
-      <c r="V7" s="237"/>
-      <c r="W7" s="237"/>
-      <c r="X7" s="237"/>
-      <c r="Y7" s="237"/>
-      <c r="Z7" s="237"/>
-      <c r="AA7" s="237"/>
-      <c r="AB7" s="237"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="234"/>
+      <c r="P7" s="234"/>
+      <c r="Q7" s="234"/>
+      <c r="R7" s="234"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="234"/>
+      <c r="V7" s="234"/>
+      <c r="W7" s="234"/>
+      <c r="X7" s="234"/>
+      <c r="Y7" s="234"/>
+      <c r="Z7" s="234"/>
+      <c r="AA7" s="234"/>
+      <c r="AB7" s="234"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="4"/>
@@ -9940,23 +9940,23 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="237"/>
-      <c r="O8" s="237"/>
-      <c r="P8" s="237"/>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="237"/>
-      <c r="S8" s="237"/>
-      <c r="T8" s="237"/>
-      <c r="U8" s="237"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="237"/>
-      <c r="X8" s="237"/>
-      <c r="Y8" s="237"/>
-      <c r="Z8" s="237"/>
-      <c r="AA8" s="237"/>
-      <c r="AB8" s="237"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="234"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="234"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="234"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="234"/>
+      <c r="X8" s="234"/>
+      <c r="Y8" s="234"/>
+      <c r="Z8" s="234"/>
+      <c r="AA8" s="234"/>
+      <c r="AB8" s="234"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="4"/>
@@ -9982,23 +9982,23 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="238"/>
-      <c r="O9" s="238"/>
-      <c r="P9" s="238"/>
-      <c r="Q9" s="238"/>
-      <c r="R9" s="238"/>
-      <c r="S9" s="238"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="238"/>
-      <c r="W9" s="238"/>
-      <c r="X9" s="238"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="235"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="235"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="235"/>
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="235"/>
+      <c r="AB9" s="235"/>
       <c r="AC9" s="33"/>
       <c r="AD9" s="20"/>
       <c r="AE9" s="43"/>
@@ -10057,21 +10057,21 @@
       <c r="AN10" s="22"/>
     </row>
     <row r="11" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="241">
+      <c r="A11" s="200">
         <v>1</v>
       </c>
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="208"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="255" t="s">
+      <c r="H11" s="210" t="s">
         <v>317</v>
       </c>
-      <c r="I11" s="255"/>
+      <c r="I11" s="210"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
@@ -10080,20 +10080,20 @@
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
-      <c r="R11" s="257" t="s">
+      <c r="R11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="257"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="257"/>
+      <c r="S11" s="212"/>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
-      <c r="Y11" s="239" t="s">
+      <c r="Y11" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="Z11" s="239"/>
-      <c r="AA11" s="239"/>
+      <c r="Z11" s="208"/>
+      <c r="AA11" s="208"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="34"/>
@@ -10101,25 +10101,25 @@
       <c r="AF11" s="34"/>
       <c r="AG11" s="34"/>
       <c r="AH11" s="34"/>
-      <c r="AI11" s="251" t="s">
+      <c r="AI11" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AJ11" s="251"/>
-      <c r="AK11" s="251"/>
-      <c r="AL11" s="251"/>
-      <c r="AM11" s="251"/>
-      <c r="AN11" s="252"/>
+      <c r="AJ11" s="204"/>
+      <c r="AK11" s="204"/>
+      <c r="AL11" s="204"/>
+      <c r="AM11" s="204"/>
+      <c r="AN11" s="205"/>
     </row>
     <row r="12" spans="1:40" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="242"/>
-      <c r="B12" s="240"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="240"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10128,16 +10128,16 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
-      <c r="R12" s="258"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="213"/>
+      <c r="T12" s="213"/>
+      <c r="U12" s="213"/>
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
-      <c r="Y12" s="240"/>
-      <c r="Z12" s="240"/>
-      <c r="AA12" s="240"/>
+      <c r="Y12" s="209"/>
+      <c r="Z12" s="209"/>
+      <c r="AA12" s="209"/>
       <c r="AB12" s="29"/>
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
@@ -10145,75 +10145,75 @@
       <c r="AF12" s="29"/>
       <c r="AG12" s="29"/>
       <c r="AH12" s="29"/>
-      <c r="AI12" s="253"/>
-      <c r="AJ12" s="253"/>
-      <c r="AK12" s="253"/>
-      <c r="AL12" s="253"/>
-      <c r="AM12" s="253"/>
-      <c r="AN12" s="254"/>
+      <c r="AI12" s="206"/>
+      <c r="AJ12" s="206"/>
+      <c r="AK12" s="206"/>
+      <c r="AL12" s="206"/>
+      <c r="AM12" s="206"/>
+      <c r="AN12" s="207"/>
     </row>
     <row r="13" spans="1:40" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="248" t="s">
+      <c r="A13" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="249"/>
-      <c r="N13" s="249"/>
-      <c r="O13" s="249"/>
-      <c r="P13" s="249"/>
-      <c r="Q13" s="249"/>
-      <c r="R13" s="249"/>
-      <c r="S13" s="249"/>
-      <c r="T13" s="249"/>
-      <c r="U13" s="249"/>
-      <c r="V13" s="249"/>
-      <c r="W13" s="249"/>
-      <c r="X13" s="249"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="249"/>
-      <c r="AC13" s="249"/>
-      <c r="AD13" s="249"/>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="249"/>
-      <c r="AG13" s="249"/>
-      <c r="AH13" s="249"/>
-      <c r="AI13" s="249"/>
-      <c r="AJ13" s="249"/>
-      <c r="AK13" s="249"/>
-      <c r="AL13" s="249"/>
-      <c r="AM13" s="249"/>
-      <c r="AN13" s="250"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="139"/>
+      <c r="AN13" s="140"/>
     </row>
     <row r="14" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="241">
+      <c r="A14" s="200">
         <v>2</v>
       </c>
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
@@ -10243,19 +10243,19 @@
       <c r="AN14" s="35"/>
     </row>
     <row r="15" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
-      <c r="B15" s="247"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="247"/>
+      <c r="A15" s="201"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -10679,67 +10679,67 @@
       <c r="AN24" s="16"/>
     </row>
     <row r="25" spans="1:40" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="248" t="s">
+      <c r="A25" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="249"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="249"/>
-      <c r="M25" s="249"/>
-      <c r="N25" s="249"/>
-      <c r="O25" s="249"/>
-      <c r="P25" s="249"/>
-      <c r="Q25" s="249"/>
-      <c r="R25" s="249"/>
-      <c r="S25" s="249"/>
-      <c r="T25" s="249"/>
-      <c r="U25" s="249"/>
-      <c r="V25" s="249"/>
-      <c r="W25" s="249"/>
-      <c r="X25" s="249"/>
-      <c r="Y25" s="249"/>
-      <c r="Z25" s="249"/>
-      <c r="AA25" s="249"/>
-      <c r="AB25" s="249"/>
-      <c r="AC25" s="249"/>
-      <c r="AD25" s="249"/>
-      <c r="AE25" s="249"/>
-      <c r="AF25" s="249"/>
-      <c r="AG25" s="249"/>
-      <c r="AH25" s="249"/>
-      <c r="AI25" s="249"/>
-      <c r="AJ25" s="249"/>
-      <c r="AK25" s="249"/>
-      <c r="AL25" s="249"/>
-      <c r="AM25" s="249"/>
-      <c r="AN25" s="250"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="139"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="139"/>
+      <c r="AI25" s="139"/>
+      <c r="AJ25" s="139"/>
+      <c r="AK25" s="139"/>
+      <c r="AL25" s="139"/>
+      <c r="AM25" s="139"/>
+      <c r="AN25" s="140"/>
     </row>
     <row r="26" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="241">
+      <c r="A26" s="200">
         <v>6</v>
       </c>
-      <c r="B26" s="246" t="s">
+      <c r="B26" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="246"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="246"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="246"/>
-      <c r="M26" s="246"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="202"/>
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -10769,19 +10769,19 @@
       <c r="AN26" s="35"/>
     </row>
     <row r="27" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="245"/>
-      <c r="B27" s="247"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="247"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="203"/>
+      <c r="M27" s="203"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -11075,675 +11075,675 @@
       <c r="AN33" s="30"/>
     </row>
     <row r="34" spans="1:40" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="259" t="s">
+      <c r="A34" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="260"/>
-      <c r="C34" s="260"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="260"/>
-      <c r="F34" s="260"/>
-      <c r="G34" s="260"/>
-      <c r="H34" s="260"/>
-      <c r="I34" s="260"/>
-      <c r="J34" s="260"/>
-      <c r="K34" s="260"/>
-      <c r="L34" s="260"/>
-      <c r="M34" s="260"/>
-      <c r="N34" s="260"/>
-      <c r="O34" s="260"/>
-      <c r="P34" s="260"/>
-      <c r="Q34" s="260"/>
-      <c r="R34" s="260"/>
-      <c r="S34" s="260"/>
-      <c r="T34" s="260"/>
-      <c r="U34" s="260"/>
-      <c r="V34" s="260"/>
-      <c r="W34" s="260"/>
-      <c r="X34" s="260"/>
-      <c r="Y34" s="260"/>
-      <c r="Z34" s="260"/>
-      <c r="AA34" s="260"/>
-      <c r="AB34" s="260"/>
-      <c r="AC34" s="260"/>
-      <c r="AD34" s="260"/>
-      <c r="AE34" s="260"/>
-      <c r="AF34" s="260"/>
-      <c r="AG34" s="260"/>
-      <c r="AH34" s="260"/>
-      <c r="AI34" s="260"/>
-      <c r="AJ34" s="260"/>
-      <c r="AK34" s="260"/>
-      <c r="AL34" s="260"/>
-      <c r="AM34" s="260"/>
-      <c r="AN34" s="261"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="215"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="215"/>
+      <c r="P34" s="215"/>
+      <c r="Q34" s="215"/>
+      <c r="R34" s="215"/>
+      <c r="S34" s="215"/>
+      <c r="T34" s="215"/>
+      <c r="U34" s="215"/>
+      <c r="V34" s="215"/>
+      <c r="W34" s="215"/>
+      <c r="X34" s="215"/>
+      <c r="Y34" s="215"/>
+      <c r="Z34" s="215"/>
+      <c r="AA34" s="215"/>
+      <c r="AB34" s="215"/>
+      <c r="AC34" s="215"/>
+      <c r="AD34" s="215"/>
+      <c r="AE34" s="215"/>
+      <c r="AF34" s="215"/>
+      <c r="AG34" s="215"/>
+      <c r="AH34" s="215"/>
+      <c r="AI34" s="215"/>
+      <c r="AJ34" s="215"/>
+      <c r="AK34" s="215"/>
+      <c r="AL34" s="215"/>
+      <c r="AM34" s="215"/>
+      <c r="AN34" s="216"/>
     </row>
     <row r="35" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="224" t="s">
+      <c r="A35" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="262"/>
-      <c r="C35" s="262"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="262"/>
-      <c r="G35" s="262"/>
-      <c r="H35" s="262"/>
-      <c r="I35" s="262"/>
-      <c r="J35" s="262"/>
-      <c r="K35" s="270"/>
-      <c r="L35" s="231" t="s">
+      <c r="B35" s="218"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="225"/>
+      <c r="L35" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="262"/>
-      <c r="N35" s="270"/>
-      <c r="O35" s="275" t="s">
+      <c r="M35" s="218"/>
+      <c r="N35" s="225"/>
+      <c r="O35" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="276"/>
-      <c r="Q35" s="276"/>
-      <c r="R35" s="276"/>
-      <c r="S35" s="276"/>
-      <c r="T35" s="276"/>
-      <c r="U35" s="276"/>
-      <c r="V35" s="276"/>
-      <c r="W35" s="276"/>
-      <c r="X35" s="276"/>
-      <c r="Y35" s="276"/>
-      <c r="Z35" s="276"/>
-      <c r="AA35" s="276"/>
-      <c r="AB35" s="276"/>
-      <c r="AC35" s="276"/>
-      <c r="AD35" s="276"/>
-      <c r="AE35" s="276"/>
-      <c r="AF35" s="276"/>
-      <c r="AG35" s="276"/>
-      <c r="AH35" s="277"/>
-      <c r="AI35" s="231" t="s">
+      <c r="P35" s="230"/>
+      <c r="Q35" s="230"/>
+      <c r="R35" s="230"/>
+      <c r="S35" s="230"/>
+      <c r="T35" s="230"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="230"/>
+      <c r="Y35" s="230"/>
+      <c r="Z35" s="230"/>
+      <c r="AA35" s="230"/>
+      <c r="AB35" s="230"/>
+      <c r="AC35" s="230"/>
+      <c r="AD35" s="230"/>
+      <c r="AE35" s="230"/>
+      <c r="AF35" s="230"/>
+      <c r="AG35" s="230"/>
+      <c r="AH35" s="231"/>
+      <c r="AI35" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="AJ35" s="262"/>
-      <c r="AK35" s="262"/>
-      <c r="AL35" s="262"/>
-      <c r="AM35" s="262"/>
-      <c r="AN35" s="263"/>
+      <c r="AJ35" s="218"/>
+      <c r="AK35" s="218"/>
+      <c r="AL35" s="218"/>
+      <c r="AM35" s="218"/>
+      <c r="AN35" s="219"/>
     </row>
     <row r="36" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="273"/>
-      <c r="B36" s="265"/>
-      <c r="C36" s="265"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="265"/>
-      <c r="F36" s="265"/>
-      <c r="G36" s="265"/>
-      <c r="H36" s="265"/>
-      <c r="I36" s="265"/>
-      <c r="J36" s="265"/>
-      <c r="K36" s="271"/>
-      <c r="L36" s="264"/>
-      <c r="M36" s="265"/>
-      <c r="N36" s="271"/>
-      <c r="O36" s="278" t="s">
+      <c r="A36" s="228"/>
+      <c r="B36" s="221"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="221"/>
+      <c r="I36" s="221"/>
+      <c r="J36" s="221"/>
+      <c r="K36" s="226"/>
+      <c r="L36" s="220"/>
+      <c r="M36" s="221"/>
+      <c r="N36" s="226"/>
+      <c r="O36" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="P36" s="279"/>
-      <c r="Q36" s="279"/>
-      <c r="R36" s="279"/>
-      <c r="S36" s="280"/>
-      <c r="T36" s="278" t="s">
+      <c r="P36" s="191"/>
+      <c r="Q36" s="191"/>
+      <c r="R36" s="191"/>
+      <c r="S36" s="192"/>
+      <c r="T36" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="U36" s="279"/>
-      <c r="V36" s="279"/>
-      <c r="W36" s="279"/>
-      <c r="X36" s="280"/>
-      <c r="Y36" s="278" t="s">
+      <c r="U36" s="191"/>
+      <c r="V36" s="191"/>
+      <c r="W36" s="191"/>
+      <c r="X36" s="192"/>
+      <c r="Y36" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="Z36" s="279"/>
-      <c r="AA36" s="279"/>
-      <c r="AB36" s="279"/>
-      <c r="AC36" s="280"/>
-      <c r="AD36" s="278" t="s">
+      <c r="Z36" s="191"/>
+      <c r="AA36" s="191"/>
+      <c r="AB36" s="191"/>
+      <c r="AC36" s="192"/>
+      <c r="AD36" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="AE36" s="279"/>
-      <c r="AF36" s="279"/>
-      <c r="AG36" s="279"/>
-      <c r="AH36" s="280"/>
-      <c r="AI36" s="264"/>
-      <c r="AJ36" s="265"/>
-      <c r="AK36" s="265"/>
-      <c r="AL36" s="265"/>
-      <c r="AM36" s="265"/>
-      <c r="AN36" s="266"/>
+      <c r="AE36" s="191"/>
+      <c r="AF36" s="191"/>
+      <c r="AG36" s="191"/>
+      <c r="AH36" s="192"/>
+      <c r="AI36" s="220"/>
+      <c r="AJ36" s="221"/>
+      <c r="AK36" s="221"/>
+      <c r="AL36" s="221"/>
+      <c r="AM36" s="221"/>
+      <c r="AN36" s="222"/>
     </row>
     <row r="37" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="274"/>
-      <c r="B37" s="268"/>
-      <c r="C37" s="268"/>
-      <c r="D37" s="268"/>
-      <c r="E37" s="268"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="268"/>
-      <c r="H37" s="268"/>
-      <c r="I37" s="268"/>
-      <c r="J37" s="268"/>
-      <c r="K37" s="272"/>
-      <c r="L37" s="267"/>
-      <c r="M37" s="268"/>
-      <c r="N37" s="272"/>
-      <c r="O37" s="267"/>
-      <c r="P37" s="268"/>
-      <c r="Q37" s="268"/>
-      <c r="R37" s="268"/>
-      <c r="S37" s="272"/>
-      <c r="T37" s="267"/>
-      <c r="U37" s="268"/>
-      <c r="V37" s="268"/>
-      <c r="W37" s="268"/>
-      <c r="X37" s="272"/>
-      <c r="Y37" s="267"/>
-      <c r="Z37" s="268"/>
-      <c r="AA37" s="268"/>
-      <c r="AB37" s="268"/>
-      <c r="AC37" s="272"/>
-      <c r="AD37" s="267"/>
-      <c r="AE37" s="268"/>
-      <c r="AF37" s="268"/>
-      <c r="AG37" s="268"/>
-      <c r="AH37" s="272"/>
-      <c r="AI37" s="267"/>
-      <c r="AJ37" s="268"/>
-      <c r="AK37" s="268"/>
-      <c r="AL37" s="268"/>
-      <c r="AM37" s="268"/>
-      <c r="AN37" s="269"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="223"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="195"/>
+      <c r="O37" s="223"/>
+      <c r="P37" s="194"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="195"/>
+      <c r="T37" s="223"/>
+      <c r="U37" s="194"/>
+      <c r="V37" s="194"/>
+      <c r="W37" s="194"/>
+      <c r="X37" s="195"/>
+      <c r="Y37" s="223"/>
+      <c r="Z37" s="194"/>
+      <c r="AA37" s="194"/>
+      <c r="AB37" s="194"/>
+      <c r="AC37" s="195"/>
+      <c r="AD37" s="223"/>
+      <c r="AE37" s="194"/>
+      <c r="AF37" s="194"/>
+      <c r="AG37" s="194"/>
+      <c r="AH37" s="195"/>
+      <c r="AI37" s="223"/>
+      <c r="AJ37" s="194"/>
+      <c r="AK37" s="194"/>
+      <c r="AL37" s="194"/>
+      <c r="AM37" s="194"/>
+      <c r="AN37" s="224"/>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="292"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="293"/>
-      <c r="G38" s="293"/>
-      <c r="H38" s="293"/>
-      <c r="I38" s="293"/>
-      <c r="J38" s="293"/>
-      <c r="K38" s="294"/>
-      <c r="L38" s="288"/>
-      <c r="M38" s="289"/>
-      <c r="N38" s="290"/>
-      <c r="O38" s="281"/>
-      <c r="P38" s="282"/>
-      <c r="Q38" s="282"/>
-      <c r="R38" s="282"/>
-      <c r="S38" s="283"/>
-      <c r="T38" s="281"/>
-      <c r="U38" s="282"/>
-      <c r="V38" s="282"/>
-      <c r="W38" s="282"/>
-      <c r="X38" s="283"/>
-      <c r="Y38" s="281"/>
-      <c r="Z38" s="282"/>
-      <c r="AA38" s="282"/>
-      <c r="AB38" s="282"/>
-      <c r="AC38" s="283"/>
-      <c r="AD38" s="281">
+      <c r="A38" s="187"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="182"/>
+      <c r="O38" s="196"/>
+      <c r="P38" s="197"/>
+      <c r="Q38" s="197"/>
+      <c r="R38" s="197"/>
+      <c r="S38" s="198"/>
+      <c r="T38" s="196"/>
+      <c r="U38" s="197"/>
+      <c r="V38" s="197"/>
+      <c r="W38" s="197"/>
+      <c r="X38" s="198"/>
+      <c r="Y38" s="196"/>
+      <c r="Z38" s="197"/>
+      <c r="AA38" s="197"/>
+      <c r="AB38" s="197"/>
+      <c r="AC38" s="198"/>
+      <c r="AD38" s="196">
         <f>SUM(O38:Y38)</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="282"/>
-      <c r="AF38" s="282"/>
-      <c r="AG38" s="282"/>
-      <c r="AH38" s="283"/>
-      <c r="AI38" s="281">
+      <c r="AE38" s="197"/>
+      <c r="AF38" s="197"/>
+      <c r="AG38" s="197"/>
+      <c r="AH38" s="198"/>
+      <c r="AI38" s="196">
         <f>AD38*0.01</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="282"/>
-      <c r="AK38" s="282"/>
-      <c r="AL38" s="282"/>
-      <c r="AM38" s="282"/>
-      <c r="AN38" s="284"/>
+      <c r="AJ38" s="197"/>
+      <c r="AK38" s="197"/>
+      <c r="AL38" s="197"/>
+      <c r="AM38" s="197"/>
+      <c r="AN38" s="199"/>
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="292"/>
-      <c r="B39" s="293"/>
-      <c r="C39" s="293"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="293"/>
-      <c r="F39" s="293"/>
-      <c r="G39" s="293"/>
-      <c r="H39" s="293"/>
-      <c r="I39" s="293"/>
-      <c r="J39" s="293"/>
-      <c r="K39" s="294"/>
-      <c r="L39" s="288"/>
-      <c r="M39" s="289"/>
-      <c r="N39" s="290"/>
-      <c r="O39" s="288"/>
-      <c r="P39" s="289"/>
-      <c r="Q39" s="289"/>
-      <c r="R39" s="289"/>
-      <c r="S39" s="290"/>
-      <c r="T39" s="288"/>
-      <c r="U39" s="289"/>
-      <c r="V39" s="289"/>
-      <c r="W39" s="289"/>
-      <c r="X39" s="290"/>
-      <c r="Y39" s="288"/>
-      <c r="Z39" s="289"/>
-      <c r="AA39" s="289"/>
-      <c r="AB39" s="289"/>
-      <c r="AC39" s="290"/>
-      <c r="AD39" s="288"/>
-      <c r="AE39" s="289"/>
-      <c r="AF39" s="289"/>
-      <c r="AG39" s="289"/>
-      <c r="AH39" s="290"/>
-      <c r="AI39" s="288"/>
-      <c r="AJ39" s="289"/>
-      <c r="AK39" s="289"/>
-      <c r="AL39" s="289"/>
-      <c r="AM39" s="289"/>
-      <c r="AN39" s="291"/>
+      <c r="A39" s="187"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="189"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="182"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
+      <c r="X39" s="182"/>
+      <c r="Y39" s="180"/>
+      <c r="Z39" s="181"/>
+      <c r="AA39" s="181"/>
+      <c r="AB39" s="181"/>
+      <c r="AC39" s="182"/>
+      <c r="AD39" s="180"/>
+      <c r="AE39" s="181"/>
+      <c r="AF39" s="181"/>
+      <c r="AG39" s="181"/>
+      <c r="AH39" s="182"/>
+      <c r="AI39" s="180"/>
+      <c r="AJ39" s="181"/>
+      <c r="AK39" s="181"/>
+      <c r="AL39" s="181"/>
+      <c r="AM39" s="181"/>
+      <c r="AN39" s="183"/>
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="292"/>
-      <c r="B40" s="293"/>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="293"/>
-      <c r="F40" s="293"/>
-      <c r="G40" s="293"/>
-      <c r="H40" s="293"/>
-      <c r="I40" s="293"/>
-      <c r="J40" s="293"/>
-      <c r="K40" s="294"/>
-      <c r="L40" s="288"/>
-      <c r="M40" s="289"/>
-      <c r="N40" s="290"/>
-      <c r="O40" s="288"/>
-      <c r="P40" s="289"/>
-      <c r="Q40" s="289"/>
-      <c r="R40" s="289"/>
-      <c r="S40" s="290"/>
-      <c r="T40" s="288"/>
-      <c r="U40" s="289"/>
-      <c r="V40" s="289"/>
-      <c r="W40" s="289"/>
-      <c r="X40" s="290"/>
-      <c r="Y40" s="288"/>
-      <c r="Z40" s="289"/>
-      <c r="AA40" s="289"/>
-      <c r="AB40" s="289"/>
-      <c r="AC40" s="290"/>
-      <c r="AD40" s="288"/>
-      <c r="AE40" s="289"/>
-      <c r="AF40" s="289"/>
-      <c r="AG40" s="289"/>
-      <c r="AH40" s="290"/>
-      <c r="AI40" s="288"/>
-      <c r="AJ40" s="289"/>
-      <c r="AK40" s="289"/>
-      <c r="AL40" s="289"/>
-      <c r="AM40" s="289"/>
-      <c r="AN40" s="291"/>
+      <c r="A40" s="187"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="189"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="181"/>
+      <c r="N40" s="182"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="181"/>
+      <c r="S40" s="182"/>
+      <c r="T40" s="180"/>
+      <c r="U40" s="181"/>
+      <c r="V40" s="181"/>
+      <c r="W40" s="181"/>
+      <c r="X40" s="182"/>
+      <c r="Y40" s="180"/>
+      <c r="Z40" s="181"/>
+      <c r="AA40" s="181"/>
+      <c r="AB40" s="181"/>
+      <c r="AC40" s="182"/>
+      <c r="AD40" s="180"/>
+      <c r="AE40" s="181"/>
+      <c r="AF40" s="181"/>
+      <c r="AG40" s="181"/>
+      <c r="AH40" s="182"/>
+      <c r="AI40" s="180"/>
+      <c r="AJ40" s="181"/>
+      <c r="AK40" s="181"/>
+      <c r="AL40" s="181"/>
+      <c r="AM40" s="181"/>
+      <c r="AN40" s="183"/>
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="292"/>
-      <c r="B41" s="293"/>
-      <c r="C41" s="293"/>
-      <c r="D41" s="293"/>
-      <c r="E41" s="293"/>
-      <c r="F41" s="293"/>
-      <c r="G41" s="293"/>
-      <c r="H41" s="293"/>
-      <c r="I41" s="293"/>
-      <c r="J41" s="293"/>
-      <c r="K41" s="294"/>
-      <c r="L41" s="288"/>
-      <c r="M41" s="289"/>
-      <c r="N41" s="290"/>
-      <c r="O41" s="288"/>
-      <c r="P41" s="289"/>
-      <c r="Q41" s="289"/>
-      <c r="R41" s="289"/>
-      <c r="S41" s="290"/>
-      <c r="T41" s="288"/>
-      <c r="U41" s="289"/>
-      <c r="V41" s="289"/>
-      <c r="W41" s="289"/>
-      <c r="X41" s="290"/>
-      <c r="Y41" s="288"/>
-      <c r="Z41" s="289"/>
-      <c r="AA41" s="289"/>
-      <c r="AB41" s="289"/>
-      <c r="AC41" s="290"/>
-      <c r="AD41" s="288"/>
-      <c r="AE41" s="289"/>
-      <c r="AF41" s="289"/>
-      <c r="AG41" s="289"/>
-      <c r="AH41" s="290"/>
-      <c r="AI41" s="288"/>
-      <c r="AJ41" s="289"/>
-      <c r="AK41" s="289"/>
-      <c r="AL41" s="289"/>
-      <c r="AM41" s="289"/>
-      <c r="AN41" s="291"/>
+      <c r="A41" s="187"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="181"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
+      <c r="S41" s="182"/>
+      <c r="T41" s="180"/>
+      <c r="U41" s="181"/>
+      <c r="V41" s="181"/>
+      <c r="W41" s="181"/>
+      <c r="X41" s="182"/>
+      <c r="Y41" s="180"/>
+      <c r="Z41" s="181"/>
+      <c r="AA41" s="181"/>
+      <c r="AB41" s="181"/>
+      <c r="AC41" s="182"/>
+      <c r="AD41" s="180"/>
+      <c r="AE41" s="181"/>
+      <c r="AF41" s="181"/>
+      <c r="AG41" s="181"/>
+      <c r="AH41" s="182"/>
+      <c r="AI41" s="180"/>
+      <c r="AJ41" s="181"/>
+      <c r="AK41" s="181"/>
+      <c r="AL41" s="181"/>
+      <c r="AM41" s="181"/>
+      <c r="AN41" s="183"/>
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="292"/>
-      <c r="B42" s="293"/>
-      <c r="C42" s="293"/>
-      <c r="D42" s="293"/>
-      <c r="E42" s="293"/>
-      <c r="F42" s="293"/>
-      <c r="G42" s="293"/>
-      <c r="H42" s="293"/>
-      <c r="I42" s="293"/>
-      <c r="J42" s="293"/>
-      <c r="K42" s="294"/>
-      <c r="L42" s="288"/>
-      <c r="M42" s="289"/>
-      <c r="N42" s="290"/>
-      <c r="O42" s="288"/>
-      <c r="P42" s="289"/>
-      <c r="Q42" s="289"/>
-      <c r="R42" s="289"/>
-      <c r="S42" s="290"/>
-      <c r="T42" s="288"/>
-      <c r="U42" s="289"/>
-      <c r="V42" s="289"/>
-      <c r="W42" s="289"/>
-      <c r="X42" s="290"/>
-      <c r="Y42" s="288"/>
-      <c r="Z42" s="289"/>
-      <c r="AA42" s="289"/>
-      <c r="AB42" s="289"/>
-      <c r="AC42" s="290"/>
-      <c r="AD42" s="288"/>
-      <c r="AE42" s="289"/>
-      <c r="AF42" s="289"/>
-      <c r="AG42" s="289"/>
-      <c r="AH42" s="290"/>
-      <c r="AI42" s="288"/>
-      <c r="AJ42" s="289"/>
-      <c r="AK42" s="289"/>
-      <c r="AL42" s="289"/>
-      <c r="AM42" s="289"/>
-      <c r="AN42" s="291"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="188"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="181"/>
+      <c r="N42" s="182"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="181"/>
+      <c r="Q42" s="181"/>
+      <c r="R42" s="181"/>
+      <c r="S42" s="182"/>
+      <c r="T42" s="180"/>
+      <c r="U42" s="181"/>
+      <c r="V42" s="181"/>
+      <c r="W42" s="181"/>
+      <c r="X42" s="182"/>
+      <c r="Y42" s="180"/>
+      <c r="Z42" s="181"/>
+      <c r="AA42" s="181"/>
+      <c r="AB42" s="181"/>
+      <c r="AC42" s="182"/>
+      <c r="AD42" s="180"/>
+      <c r="AE42" s="181"/>
+      <c r="AF42" s="181"/>
+      <c r="AG42" s="181"/>
+      <c r="AH42" s="182"/>
+      <c r="AI42" s="180"/>
+      <c r="AJ42" s="181"/>
+      <c r="AK42" s="181"/>
+      <c r="AL42" s="181"/>
+      <c r="AM42" s="181"/>
+      <c r="AN42" s="183"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="292"/>
-      <c r="B43" s="293"/>
-      <c r="C43" s="293"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="293"/>
-      <c r="F43" s="293"/>
-      <c r="G43" s="293"/>
-      <c r="H43" s="293"/>
-      <c r="I43" s="293"/>
-      <c r="J43" s="293"/>
-      <c r="K43" s="294"/>
-      <c r="L43" s="288"/>
-      <c r="M43" s="289"/>
-      <c r="N43" s="290"/>
-      <c r="O43" s="288"/>
-      <c r="P43" s="289"/>
-      <c r="Q43" s="289"/>
-      <c r="R43" s="289"/>
-      <c r="S43" s="290"/>
-      <c r="T43" s="288"/>
-      <c r="U43" s="289"/>
-      <c r="V43" s="289"/>
-      <c r="W43" s="289"/>
-      <c r="X43" s="290"/>
-      <c r="Y43" s="288"/>
-      <c r="Z43" s="289"/>
-      <c r="AA43" s="289"/>
-      <c r="AB43" s="289"/>
-      <c r="AC43" s="290"/>
-      <c r="AD43" s="288"/>
-      <c r="AE43" s="289"/>
-      <c r="AF43" s="289"/>
-      <c r="AG43" s="289"/>
-      <c r="AH43" s="290"/>
-      <c r="AI43" s="288"/>
-      <c r="AJ43" s="289"/>
-      <c r="AK43" s="289"/>
-      <c r="AL43" s="289"/>
-      <c r="AM43" s="289"/>
-      <c r="AN43" s="291"/>
+      <c r="A43" s="187"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="188"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="181"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="181"/>
+      <c r="Q43" s="181"/>
+      <c r="R43" s="181"/>
+      <c r="S43" s="182"/>
+      <c r="T43" s="180"/>
+      <c r="U43" s="181"/>
+      <c r="V43" s="181"/>
+      <c r="W43" s="181"/>
+      <c r="X43" s="182"/>
+      <c r="Y43" s="180"/>
+      <c r="Z43" s="181"/>
+      <c r="AA43" s="181"/>
+      <c r="AB43" s="181"/>
+      <c r="AC43" s="182"/>
+      <c r="AD43" s="180"/>
+      <c r="AE43" s="181"/>
+      <c r="AF43" s="181"/>
+      <c r="AG43" s="181"/>
+      <c r="AH43" s="182"/>
+      <c r="AI43" s="180"/>
+      <c r="AJ43" s="181"/>
+      <c r="AK43" s="181"/>
+      <c r="AL43" s="181"/>
+      <c r="AM43" s="181"/>
+      <c r="AN43" s="183"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="292"/>
-      <c r="B44" s="293"/>
-      <c r="C44" s="293"/>
-      <c r="D44" s="293"/>
-      <c r="E44" s="293"/>
-      <c r="F44" s="293"/>
-      <c r="G44" s="293"/>
-      <c r="H44" s="293"/>
-      <c r="I44" s="293"/>
-      <c r="J44" s="293"/>
-      <c r="K44" s="294"/>
-      <c r="L44" s="288"/>
-      <c r="M44" s="289"/>
-      <c r="N44" s="290"/>
-      <c r="O44" s="288"/>
-      <c r="P44" s="289"/>
-      <c r="Q44" s="289"/>
-      <c r="R44" s="289"/>
-      <c r="S44" s="290"/>
-      <c r="T44" s="288"/>
-      <c r="U44" s="289"/>
-      <c r="V44" s="289"/>
-      <c r="W44" s="289"/>
-      <c r="X44" s="290"/>
-      <c r="Y44" s="288"/>
-      <c r="Z44" s="289"/>
-      <c r="AA44" s="289"/>
-      <c r="AB44" s="289"/>
-      <c r="AC44" s="290"/>
-      <c r="AD44" s="288"/>
-      <c r="AE44" s="289"/>
-      <c r="AF44" s="289"/>
-      <c r="AG44" s="289"/>
-      <c r="AH44" s="290"/>
-      <c r="AI44" s="288"/>
-      <c r="AJ44" s="289"/>
-      <c r="AK44" s="289"/>
-      <c r="AL44" s="289"/>
-      <c r="AM44" s="289"/>
-      <c r="AN44" s="291"/>
+      <c r="A44" s="187"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="189"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="181"/>
+      <c r="N44" s="182"/>
+      <c r="O44" s="180"/>
+      <c r="P44" s="181"/>
+      <c r="Q44" s="181"/>
+      <c r="R44" s="181"/>
+      <c r="S44" s="182"/>
+      <c r="T44" s="180"/>
+      <c r="U44" s="181"/>
+      <c r="V44" s="181"/>
+      <c r="W44" s="181"/>
+      <c r="X44" s="182"/>
+      <c r="Y44" s="180"/>
+      <c r="Z44" s="181"/>
+      <c r="AA44" s="181"/>
+      <c r="AB44" s="181"/>
+      <c r="AC44" s="182"/>
+      <c r="AD44" s="180"/>
+      <c r="AE44" s="181"/>
+      <c r="AF44" s="181"/>
+      <c r="AG44" s="181"/>
+      <c r="AH44" s="182"/>
+      <c r="AI44" s="180"/>
+      <c r="AJ44" s="181"/>
+      <c r="AK44" s="181"/>
+      <c r="AL44" s="181"/>
+      <c r="AM44" s="181"/>
+      <c r="AN44" s="183"/>
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="292"/>
-      <c r="B45" s="293"/>
-      <c r="C45" s="293"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="293"/>
-      <c r="F45" s="293"/>
-      <c r="G45" s="293"/>
-      <c r="H45" s="293"/>
-      <c r="I45" s="293"/>
-      <c r="J45" s="293"/>
-      <c r="K45" s="294"/>
-      <c r="L45" s="288"/>
-      <c r="M45" s="289"/>
-      <c r="N45" s="290"/>
-      <c r="O45" s="288"/>
-      <c r="P45" s="289"/>
-      <c r="Q45" s="289"/>
-      <c r="R45" s="289"/>
-      <c r="S45" s="290"/>
-      <c r="T45" s="288"/>
-      <c r="U45" s="289"/>
-      <c r="V45" s="289"/>
-      <c r="W45" s="289"/>
-      <c r="X45" s="290"/>
-      <c r="Y45" s="288"/>
-      <c r="Z45" s="289"/>
-      <c r="AA45" s="289"/>
-      <c r="AB45" s="289"/>
-      <c r="AC45" s="290"/>
-      <c r="AD45" s="288"/>
-      <c r="AE45" s="289"/>
-      <c r="AF45" s="289"/>
-      <c r="AG45" s="289"/>
-      <c r="AH45" s="290"/>
-      <c r="AI45" s="288"/>
-      <c r="AJ45" s="289"/>
-      <c r="AK45" s="289"/>
-      <c r="AL45" s="289"/>
-      <c r="AM45" s="289"/>
-      <c r="AN45" s="291"/>
+      <c r="A45" s="187"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="188"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="188"/>
+      <c r="K45" s="189"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="181"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="181"/>
+      <c r="Q45" s="181"/>
+      <c r="R45" s="181"/>
+      <c r="S45" s="182"/>
+      <c r="T45" s="180"/>
+      <c r="U45" s="181"/>
+      <c r="V45" s="181"/>
+      <c r="W45" s="181"/>
+      <c r="X45" s="182"/>
+      <c r="Y45" s="180"/>
+      <c r="Z45" s="181"/>
+      <c r="AA45" s="181"/>
+      <c r="AB45" s="181"/>
+      <c r="AC45" s="182"/>
+      <c r="AD45" s="180"/>
+      <c r="AE45" s="181"/>
+      <c r="AF45" s="181"/>
+      <c r="AG45" s="181"/>
+      <c r="AH45" s="182"/>
+      <c r="AI45" s="180"/>
+      <c r="AJ45" s="181"/>
+      <c r="AK45" s="181"/>
+      <c r="AL45" s="181"/>
+      <c r="AM45" s="181"/>
+      <c r="AN45" s="183"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="292"/>
-      <c r="B46" s="293"/>
-      <c r="C46" s="293"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="293"/>
-      <c r="F46" s="293"/>
-      <c r="G46" s="293"/>
-      <c r="H46" s="293"/>
-      <c r="I46" s="293"/>
-      <c r="J46" s="293"/>
-      <c r="K46" s="294"/>
-      <c r="L46" s="288"/>
-      <c r="M46" s="289"/>
-      <c r="N46" s="290"/>
-      <c r="O46" s="288"/>
-      <c r="P46" s="289"/>
-      <c r="Q46" s="289"/>
-      <c r="R46" s="289"/>
-      <c r="S46" s="290"/>
-      <c r="T46" s="288"/>
-      <c r="U46" s="289"/>
-      <c r="V46" s="289"/>
-      <c r="W46" s="289"/>
-      <c r="X46" s="290"/>
-      <c r="Y46" s="288"/>
-      <c r="Z46" s="289"/>
-      <c r="AA46" s="289"/>
-      <c r="AB46" s="289"/>
-      <c r="AC46" s="290"/>
-      <c r="AD46" s="288"/>
-      <c r="AE46" s="289"/>
-      <c r="AF46" s="289"/>
-      <c r="AG46" s="289"/>
-      <c r="AH46" s="290"/>
-      <c r="AI46" s="288"/>
-      <c r="AJ46" s="289"/>
-      <c r="AK46" s="289"/>
-      <c r="AL46" s="289"/>
-      <c r="AM46" s="289"/>
-      <c r="AN46" s="291"/>
+      <c r="A46" s="187"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="188"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="188"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="189"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="181"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="180"/>
+      <c r="P46" s="181"/>
+      <c r="Q46" s="181"/>
+      <c r="R46" s="181"/>
+      <c r="S46" s="182"/>
+      <c r="T46" s="180"/>
+      <c r="U46" s="181"/>
+      <c r="V46" s="181"/>
+      <c r="W46" s="181"/>
+      <c r="X46" s="182"/>
+      <c r="Y46" s="180"/>
+      <c r="Z46" s="181"/>
+      <c r="AA46" s="181"/>
+      <c r="AB46" s="181"/>
+      <c r="AC46" s="182"/>
+      <c r="AD46" s="180"/>
+      <c r="AE46" s="181"/>
+      <c r="AF46" s="181"/>
+      <c r="AG46" s="181"/>
+      <c r="AH46" s="182"/>
+      <c r="AI46" s="180"/>
+      <c r="AJ46" s="181"/>
+      <c r="AK46" s="181"/>
+      <c r="AL46" s="181"/>
+      <c r="AM46" s="181"/>
+      <c r="AN46" s="183"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="292"/>
-      <c r="B47" s="293"/>
-      <c r="C47" s="293"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="293"/>
-      <c r="F47" s="293"/>
-      <c r="G47" s="293"/>
-      <c r="H47" s="293"/>
-      <c r="I47" s="293"/>
-      <c r="J47" s="293"/>
-      <c r="K47" s="294"/>
-      <c r="L47" s="288"/>
-      <c r="M47" s="289"/>
-      <c r="N47" s="290"/>
-      <c r="O47" s="288"/>
-      <c r="P47" s="289"/>
-      <c r="Q47" s="289"/>
-      <c r="R47" s="289"/>
-      <c r="S47" s="290"/>
-      <c r="T47" s="288"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="289"/>
-      <c r="W47" s="289"/>
-      <c r="X47" s="290"/>
-      <c r="Y47" s="288"/>
-      <c r="Z47" s="289"/>
-      <c r="AA47" s="289"/>
-      <c r="AB47" s="289"/>
-      <c r="AC47" s="290"/>
-      <c r="AD47" s="288"/>
-      <c r="AE47" s="289"/>
-      <c r="AF47" s="289"/>
-      <c r="AG47" s="289"/>
-      <c r="AH47" s="290"/>
-      <c r="AI47" s="288"/>
-      <c r="AJ47" s="289"/>
-      <c r="AK47" s="289"/>
-      <c r="AL47" s="289"/>
-      <c r="AM47" s="289"/>
-      <c r="AN47" s="291"/>
+      <c r="A47" s="187"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
+      <c r="I47" s="188"/>
+      <c r="J47" s="188"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="181"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="180"/>
+      <c r="P47" s="181"/>
+      <c r="Q47" s="181"/>
+      <c r="R47" s="181"/>
+      <c r="S47" s="182"/>
+      <c r="T47" s="180"/>
+      <c r="U47" s="181"/>
+      <c r="V47" s="181"/>
+      <c r="W47" s="181"/>
+      <c r="X47" s="182"/>
+      <c r="Y47" s="180"/>
+      <c r="Z47" s="181"/>
+      <c r="AA47" s="181"/>
+      <c r="AB47" s="181"/>
+      <c r="AC47" s="182"/>
+      <c r="AD47" s="180"/>
+      <c r="AE47" s="181"/>
+      <c r="AF47" s="181"/>
+      <c r="AG47" s="181"/>
+      <c r="AH47" s="182"/>
+      <c r="AI47" s="180"/>
+      <c r="AJ47" s="181"/>
+      <c r="AK47" s="181"/>
+      <c r="AL47" s="181"/>
+      <c r="AM47" s="181"/>
+      <c r="AN47" s="183"/>
     </row>
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="285" t="s">
+      <c r="A48" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="286"/>
-      <c r="C48" s="286"/>
-      <c r="D48" s="286"/>
-      <c r="E48" s="286"/>
-      <c r="F48" s="286"/>
-      <c r="G48" s="286"/>
-      <c r="H48" s="286"/>
-      <c r="I48" s="286"/>
-      <c r="J48" s="286"/>
-      <c r="K48" s="287"/>
-      <c r="L48" s="288"/>
-      <c r="M48" s="289"/>
-      <c r="N48" s="290"/>
-      <c r="O48" s="288"/>
-      <c r="P48" s="289"/>
-      <c r="Q48" s="289"/>
-      <c r="R48" s="289"/>
-      <c r="S48" s="290"/>
-      <c r="T48" s="288"/>
-      <c r="U48" s="289"/>
-      <c r="V48" s="289"/>
-      <c r="W48" s="289"/>
-      <c r="X48" s="290"/>
-      <c r="Y48" s="288"/>
-      <c r="Z48" s="289"/>
-      <c r="AA48" s="289"/>
-      <c r="AB48" s="289"/>
-      <c r="AC48" s="290"/>
-      <c r="AD48" s="288"/>
-      <c r="AE48" s="289"/>
-      <c r="AF48" s="289"/>
-      <c r="AG48" s="289"/>
-      <c r="AH48" s="290"/>
-      <c r="AI48" s="288"/>
-      <c r="AJ48" s="289"/>
-      <c r="AK48" s="289"/>
-      <c r="AL48" s="289"/>
-      <c r="AM48" s="289"/>
-      <c r="AN48" s="291"/>
+      <c r="B48" s="185"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="185"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="185"/>
+      <c r="K48" s="186"/>
+      <c r="L48" s="180"/>
+      <c r="M48" s="181"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="180"/>
+      <c r="P48" s="181"/>
+      <c r="Q48" s="181"/>
+      <c r="R48" s="181"/>
+      <c r="S48" s="182"/>
+      <c r="T48" s="180"/>
+      <c r="U48" s="181"/>
+      <c r="V48" s="181"/>
+      <c r="W48" s="181"/>
+      <c r="X48" s="182"/>
+      <c r="Y48" s="180"/>
+      <c r="Z48" s="181"/>
+      <c r="AA48" s="181"/>
+      <c r="AB48" s="181"/>
+      <c r="AC48" s="182"/>
+      <c r="AD48" s="180"/>
+      <c r="AE48" s="181"/>
+      <c r="AF48" s="181"/>
+      <c r="AG48" s="181"/>
+      <c r="AH48" s="182"/>
+      <c r="AI48" s="180"/>
+      <c r="AJ48" s="181"/>
+      <c r="AK48" s="181"/>
+      <c r="AL48" s="181"/>
+      <c r="AM48" s="181"/>
+      <c r="AN48" s="183"/>
     </row>
     <row r="49" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="295" t="s">
+      <c r="A49" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="279"/>
-      <c r="C49" s="279"/>
-      <c r="D49" s="279"/>
-      <c r="E49" s="279"/>
-      <c r="F49" s="279"/>
-      <c r="G49" s="279"/>
-      <c r="H49" s="279"/>
-      <c r="I49" s="279"/>
-      <c r="J49" s="279"/>
-      <c r="K49" s="280"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="192"/>
       <c r="L49" s="24"/>
       <c r="M49" s="26"/>
       <c r="N49" s="39"/>
@@ -11775,17 +11775,17 @@
       <c r="AN49" s="27"/>
     </row>
     <row r="50" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="274"/>
-      <c r="B50" s="268"/>
-      <c r="C50" s="268"/>
-      <c r="D50" s="268"/>
-      <c r="E50" s="268"/>
-      <c r="F50" s="268"/>
-      <c r="G50" s="268"/>
-      <c r="H50" s="268"/>
-      <c r="I50" s="268"/>
-      <c r="J50" s="268"/>
-      <c r="K50" s="272"/>
+      <c r="A50" s="193"/>
+      <c r="B50" s="194"/>
+      <c r="C50" s="194"/>
+      <c r="D50" s="194"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="195"/>
       <c r="L50" s="25"/>
       <c r="M50" s="17"/>
       <c r="N50" s="38"/>
@@ -11817,740 +11817,740 @@
       <c r="AN50" s="18"/>
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="292"/>
-      <c r="B51" s="293"/>
-      <c r="C51" s="293"/>
-      <c r="D51" s="293"/>
-      <c r="E51" s="293"/>
-      <c r="F51" s="293"/>
-      <c r="G51" s="293"/>
-      <c r="H51" s="293"/>
-      <c r="I51" s="293"/>
-      <c r="J51" s="293"/>
-      <c r="K51" s="294"/>
-      <c r="L51" s="288"/>
-      <c r="M51" s="289"/>
-      <c r="N51" s="290"/>
-      <c r="O51" s="288"/>
-      <c r="P51" s="289"/>
-      <c r="Q51" s="289"/>
-      <c r="R51" s="289"/>
-      <c r="S51" s="290"/>
-      <c r="T51" s="288"/>
-      <c r="U51" s="289"/>
-      <c r="V51" s="289"/>
-      <c r="W51" s="289"/>
-      <c r="X51" s="290"/>
-      <c r="Y51" s="288"/>
-      <c r="Z51" s="289"/>
-      <c r="AA51" s="289"/>
-      <c r="AB51" s="289"/>
-      <c r="AC51" s="290"/>
-      <c r="AD51" s="288"/>
-      <c r="AE51" s="289"/>
-      <c r="AF51" s="289"/>
-      <c r="AG51" s="289"/>
-      <c r="AH51" s="290"/>
-      <c r="AI51" s="288"/>
-      <c r="AJ51" s="289"/>
-      <c r="AK51" s="289"/>
-      <c r="AL51" s="289"/>
-      <c r="AM51" s="289"/>
-      <c r="AN51" s="291"/>
+      <c r="A51" s="187"/>
+      <c r="B51" s="188"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="189"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="181"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="180"/>
+      <c r="P51" s="181"/>
+      <c r="Q51" s="181"/>
+      <c r="R51" s="181"/>
+      <c r="S51" s="182"/>
+      <c r="T51" s="180"/>
+      <c r="U51" s="181"/>
+      <c r="V51" s="181"/>
+      <c r="W51" s="181"/>
+      <c r="X51" s="182"/>
+      <c r="Y51" s="180"/>
+      <c r="Z51" s="181"/>
+      <c r="AA51" s="181"/>
+      <c r="AB51" s="181"/>
+      <c r="AC51" s="182"/>
+      <c r="AD51" s="180"/>
+      <c r="AE51" s="181"/>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="181"/>
+      <c r="AH51" s="182"/>
+      <c r="AI51" s="180"/>
+      <c r="AJ51" s="181"/>
+      <c r="AK51" s="181"/>
+      <c r="AL51" s="181"/>
+      <c r="AM51" s="181"/>
+      <c r="AN51" s="183"/>
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="292"/>
-      <c r="B52" s="293"/>
-      <c r="C52" s="293"/>
-      <c r="D52" s="293"/>
-      <c r="E52" s="293"/>
-      <c r="F52" s="293"/>
-      <c r="G52" s="293"/>
-      <c r="H52" s="293"/>
-      <c r="I52" s="293"/>
-      <c r="J52" s="293"/>
-      <c r="K52" s="294"/>
-      <c r="L52" s="288"/>
-      <c r="M52" s="289"/>
-      <c r="N52" s="290"/>
-      <c r="O52" s="288"/>
-      <c r="P52" s="289"/>
-      <c r="Q52" s="289"/>
-      <c r="R52" s="289"/>
-      <c r="S52" s="290"/>
-      <c r="T52" s="288"/>
-      <c r="U52" s="289"/>
-      <c r="V52" s="289"/>
-      <c r="W52" s="289"/>
-      <c r="X52" s="290"/>
-      <c r="Y52" s="288"/>
-      <c r="Z52" s="289"/>
-      <c r="AA52" s="289"/>
-      <c r="AB52" s="289"/>
-      <c r="AC52" s="290"/>
-      <c r="AD52" s="288"/>
-      <c r="AE52" s="289"/>
-      <c r="AF52" s="289"/>
-      <c r="AG52" s="289"/>
-      <c r="AH52" s="290"/>
-      <c r="AI52" s="288"/>
-      <c r="AJ52" s="289"/>
-      <c r="AK52" s="289"/>
-      <c r="AL52" s="289"/>
-      <c r="AM52" s="289"/>
-      <c r="AN52" s="291"/>
+      <c r="A52" s="187"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="188"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="181"/>
+      <c r="N52" s="182"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="181"/>
+      <c r="Q52" s="181"/>
+      <c r="R52" s="181"/>
+      <c r="S52" s="182"/>
+      <c r="T52" s="180"/>
+      <c r="U52" s="181"/>
+      <c r="V52" s="181"/>
+      <c r="W52" s="181"/>
+      <c r="X52" s="182"/>
+      <c r="Y52" s="180"/>
+      <c r="Z52" s="181"/>
+      <c r="AA52" s="181"/>
+      <c r="AB52" s="181"/>
+      <c r="AC52" s="182"/>
+      <c r="AD52" s="180"/>
+      <c r="AE52" s="181"/>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="181"/>
+      <c r="AH52" s="182"/>
+      <c r="AI52" s="180"/>
+      <c r="AJ52" s="181"/>
+      <c r="AK52" s="181"/>
+      <c r="AL52" s="181"/>
+      <c r="AM52" s="181"/>
+      <c r="AN52" s="183"/>
     </row>
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="292"/>
-      <c r="B53" s="293"/>
-      <c r="C53" s="293"/>
-      <c r="D53" s="293"/>
-      <c r="E53" s="293"/>
-      <c r="F53" s="293"/>
-      <c r="G53" s="293"/>
-      <c r="H53" s="293"/>
-      <c r="I53" s="293"/>
-      <c r="J53" s="293"/>
-      <c r="K53" s="294"/>
-      <c r="L53" s="288"/>
-      <c r="M53" s="289"/>
-      <c r="N53" s="290"/>
-      <c r="O53" s="288"/>
-      <c r="P53" s="289"/>
-      <c r="Q53" s="289"/>
-      <c r="R53" s="289"/>
-      <c r="S53" s="290"/>
-      <c r="T53" s="288"/>
-      <c r="U53" s="289"/>
-      <c r="V53" s="289"/>
-      <c r="W53" s="289"/>
-      <c r="X53" s="290"/>
-      <c r="Y53" s="288"/>
-      <c r="Z53" s="289"/>
-      <c r="AA53" s="289"/>
-      <c r="AB53" s="289"/>
-      <c r="AC53" s="290"/>
-      <c r="AD53" s="288"/>
-      <c r="AE53" s="289"/>
-      <c r="AF53" s="289"/>
-      <c r="AG53" s="289"/>
-      <c r="AH53" s="290"/>
-      <c r="AI53" s="288"/>
-      <c r="AJ53" s="289"/>
-      <c r="AK53" s="289"/>
-      <c r="AL53" s="289"/>
-      <c r="AM53" s="289"/>
-      <c r="AN53" s="291"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="188"/>
+      <c r="K53" s="189"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="181"/>
+      <c r="N53" s="182"/>
+      <c r="O53" s="180"/>
+      <c r="P53" s="181"/>
+      <c r="Q53" s="181"/>
+      <c r="R53" s="181"/>
+      <c r="S53" s="182"/>
+      <c r="T53" s="180"/>
+      <c r="U53" s="181"/>
+      <c r="V53" s="181"/>
+      <c r="W53" s="181"/>
+      <c r="X53" s="182"/>
+      <c r="Y53" s="180"/>
+      <c r="Z53" s="181"/>
+      <c r="AA53" s="181"/>
+      <c r="AB53" s="181"/>
+      <c r="AC53" s="182"/>
+      <c r="AD53" s="180"/>
+      <c r="AE53" s="181"/>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="181"/>
+      <c r="AH53" s="182"/>
+      <c r="AI53" s="180"/>
+      <c r="AJ53" s="181"/>
+      <c r="AK53" s="181"/>
+      <c r="AL53" s="181"/>
+      <c r="AM53" s="181"/>
+      <c r="AN53" s="183"/>
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="292"/>
-      <c r="B54" s="293"/>
-      <c r="C54" s="293"/>
-      <c r="D54" s="293"/>
-      <c r="E54" s="293"/>
-      <c r="F54" s="293"/>
-      <c r="G54" s="293"/>
-      <c r="H54" s="293"/>
-      <c r="I54" s="293"/>
-      <c r="J54" s="293"/>
-      <c r="K54" s="294"/>
-      <c r="L54" s="288"/>
-      <c r="M54" s="289"/>
-      <c r="N54" s="290"/>
-      <c r="O54" s="288"/>
-      <c r="P54" s="289"/>
-      <c r="Q54" s="289"/>
-      <c r="R54" s="289"/>
-      <c r="S54" s="290"/>
-      <c r="T54" s="288"/>
-      <c r="U54" s="289"/>
-      <c r="V54" s="289"/>
-      <c r="W54" s="289"/>
-      <c r="X54" s="290"/>
-      <c r="Y54" s="288"/>
-      <c r="Z54" s="289"/>
-      <c r="AA54" s="289"/>
-      <c r="AB54" s="289"/>
-      <c r="AC54" s="290"/>
-      <c r="AD54" s="288"/>
-      <c r="AE54" s="289"/>
-      <c r="AF54" s="289"/>
-      <c r="AG54" s="289"/>
-      <c r="AH54" s="290"/>
-      <c r="AI54" s="288"/>
-      <c r="AJ54" s="289"/>
-      <c r="AK54" s="289"/>
-      <c r="AL54" s="289"/>
-      <c r="AM54" s="289"/>
-      <c r="AN54" s="291"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="188"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="188"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="188"/>
+      <c r="H54" s="188"/>
+      <c r="I54" s="188"/>
+      <c r="J54" s="188"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="181"/>
+      <c r="N54" s="182"/>
+      <c r="O54" s="180"/>
+      <c r="P54" s="181"/>
+      <c r="Q54" s="181"/>
+      <c r="R54" s="181"/>
+      <c r="S54" s="182"/>
+      <c r="T54" s="180"/>
+      <c r="U54" s="181"/>
+      <c r="V54" s="181"/>
+      <c r="W54" s="181"/>
+      <c r="X54" s="182"/>
+      <c r="Y54" s="180"/>
+      <c r="Z54" s="181"/>
+      <c r="AA54" s="181"/>
+      <c r="AB54" s="181"/>
+      <c r="AC54" s="182"/>
+      <c r="AD54" s="180"/>
+      <c r="AE54" s="181"/>
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="181"/>
+      <c r="AH54" s="182"/>
+      <c r="AI54" s="180"/>
+      <c r="AJ54" s="181"/>
+      <c r="AK54" s="181"/>
+      <c r="AL54" s="181"/>
+      <c r="AM54" s="181"/>
+      <c r="AN54" s="183"/>
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="292"/>
-      <c r="B55" s="293"/>
-      <c r="C55" s="293"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="293"/>
-      <c r="G55" s="293"/>
-      <c r="H55" s="293"/>
-      <c r="I55" s="293"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="294"/>
-      <c r="L55" s="288"/>
-      <c r="M55" s="289"/>
-      <c r="N55" s="290"/>
-      <c r="O55" s="288"/>
-      <c r="P55" s="289"/>
-      <c r="Q55" s="289"/>
-      <c r="R55" s="289"/>
-      <c r="S55" s="290"/>
-      <c r="T55" s="288"/>
-      <c r="U55" s="289"/>
-      <c r="V55" s="289"/>
-      <c r="W55" s="289"/>
-      <c r="X55" s="290"/>
-      <c r="Y55" s="288"/>
-      <c r="Z55" s="289"/>
-      <c r="AA55" s="289"/>
-      <c r="AB55" s="289"/>
-      <c r="AC55" s="290"/>
-      <c r="AD55" s="288"/>
-      <c r="AE55" s="289"/>
-      <c r="AF55" s="289"/>
-      <c r="AG55" s="289"/>
-      <c r="AH55" s="290"/>
-      <c r="AI55" s="288"/>
-      <c r="AJ55" s="289"/>
-      <c r="AK55" s="289"/>
-      <c r="AL55" s="289"/>
-      <c r="AM55" s="289"/>
-      <c r="AN55" s="291"/>
+      <c r="A55" s="187"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="188"/>
+      <c r="E55" s="188"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
+      <c r="I55" s="188"/>
+      <c r="J55" s="188"/>
+      <c r="K55" s="189"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="181"/>
+      <c r="N55" s="182"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="181"/>
+      <c r="Q55" s="181"/>
+      <c r="R55" s="181"/>
+      <c r="S55" s="182"/>
+      <c r="T55" s="180"/>
+      <c r="U55" s="181"/>
+      <c r="V55" s="181"/>
+      <c r="W55" s="181"/>
+      <c r="X55" s="182"/>
+      <c r="Y55" s="180"/>
+      <c r="Z55" s="181"/>
+      <c r="AA55" s="181"/>
+      <c r="AB55" s="181"/>
+      <c r="AC55" s="182"/>
+      <c r="AD55" s="180"/>
+      <c r="AE55" s="181"/>
+      <c r="AF55" s="181"/>
+      <c r="AG55" s="181"/>
+      <c r="AH55" s="182"/>
+      <c r="AI55" s="180"/>
+      <c r="AJ55" s="181"/>
+      <c r="AK55" s="181"/>
+      <c r="AL55" s="181"/>
+      <c r="AM55" s="181"/>
+      <c r="AN55" s="183"/>
     </row>
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="292"/>
-      <c r="B56" s="293"/>
-      <c r="C56" s="293"/>
-      <c r="D56" s="293"/>
-      <c r="E56" s="293"/>
-      <c r="F56" s="293"/>
-      <c r="G56" s="293"/>
-      <c r="H56" s="293"/>
-      <c r="I56" s="293"/>
-      <c r="J56" s="293"/>
-      <c r="K56" s="294"/>
-      <c r="L56" s="288"/>
-      <c r="M56" s="289"/>
-      <c r="N56" s="290"/>
-      <c r="O56" s="288"/>
-      <c r="P56" s="289"/>
-      <c r="Q56" s="289"/>
-      <c r="R56" s="289"/>
-      <c r="S56" s="290"/>
-      <c r="T56" s="288"/>
-      <c r="U56" s="289"/>
-      <c r="V56" s="289"/>
-      <c r="W56" s="289"/>
-      <c r="X56" s="290"/>
-      <c r="Y56" s="288"/>
-      <c r="Z56" s="289"/>
-      <c r="AA56" s="289"/>
-      <c r="AB56" s="289"/>
-      <c r="AC56" s="290"/>
-      <c r="AD56" s="288"/>
-      <c r="AE56" s="289"/>
-      <c r="AF56" s="289"/>
-      <c r="AG56" s="289"/>
-      <c r="AH56" s="290"/>
-      <c r="AI56" s="288"/>
-      <c r="AJ56" s="289"/>
-      <c r="AK56" s="289"/>
-      <c r="AL56" s="289"/>
-      <c r="AM56" s="289"/>
-      <c r="AN56" s="291"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="188"/>
+      <c r="J56" s="188"/>
+      <c r="K56" s="189"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="181"/>
+      <c r="N56" s="182"/>
+      <c r="O56" s="180"/>
+      <c r="P56" s="181"/>
+      <c r="Q56" s="181"/>
+      <c r="R56" s="181"/>
+      <c r="S56" s="182"/>
+      <c r="T56" s="180"/>
+      <c r="U56" s="181"/>
+      <c r="V56" s="181"/>
+      <c r="W56" s="181"/>
+      <c r="X56" s="182"/>
+      <c r="Y56" s="180"/>
+      <c r="Z56" s="181"/>
+      <c r="AA56" s="181"/>
+      <c r="AB56" s="181"/>
+      <c r="AC56" s="182"/>
+      <c r="AD56" s="180"/>
+      <c r="AE56" s="181"/>
+      <c r="AF56" s="181"/>
+      <c r="AG56" s="181"/>
+      <c r="AH56" s="182"/>
+      <c r="AI56" s="180"/>
+      <c r="AJ56" s="181"/>
+      <c r="AK56" s="181"/>
+      <c r="AL56" s="181"/>
+      <c r="AM56" s="181"/>
+      <c r="AN56" s="183"/>
     </row>
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="292"/>
-      <c r="B57" s="293"/>
-      <c r="C57" s="293"/>
-      <c r="D57" s="293"/>
-      <c r="E57" s="293"/>
-      <c r="F57" s="293"/>
-      <c r="G57" s="293"/>
-      <c r="H57" s="293"/>
-      <c r="I57" s="293"/>
-      <c r="J57" s="293"/>
-      <c r="K57" s="294"/>
-      <c r="L57" s="288"/>
-      <c r="M57" s="289"/>
-      <c r="N57" s="290"/>
-      <c r="O57" s="288"/>
-      <c r="P57" s="289"/>
-      <c r="Q57" s="289"/>
-      <c r="R57" s="289"/>
-      <c r="S57" s="290"/>
-      <c r="T57" s="288"/>
-      <c r="U57" s="289"/>
-      <c r="V57" s="289"/>
-      <c r="W57" s="289"/>
-      <c r="X57" s="290"/>
-      <c r="Y57" s="288"/>
-      <c r="Z57" s="289"/>
-      <c r="AA57" s="289"/>
-      <c r="AB57" s="289"/>
-      <c r="AC57" s="290"/>
-      <c r="AD57" s="288"/>
-      <c r="AE57" s="289"/>
-      <c r="AF57" s="289"/>
-      <c r="AG57" s="289"/>
-      <c r="AH57" s="290"/>
-      <c r="AI57" s="288"/>
-      <c r="AJ57" s="289"/>
-      <c r="AK57" s="289"/>
-      <c r="AL57" s="289"/>
-      <c r="AM57" s="289"/>
-      <c r="AN57" s="291"/>
+      <c r="A57" s="187"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
+      <c r="K57" s="189"/>
+      <c r="L57" s="180"/>
+      <c r="M57" s="181"/>
+      <c r="N57" s="182"/>
+      <c r="O57" s="180"/>
+      <c r="P57" s="181"/>
+      <c r="Q57" s="181"/>
+      <c r="R57" s="181"/>
+      <c r="S57" s="182"/>
+      <c r="T57" s="180"/>
+      <c r="U57" s="181"/>
+      <c r="V57" s="181"/>
+      <c r="W57" s="181"/>
+      <c r="X57" s="182"/>
+      <c r="Y57" s="180"/>
+      <c r="Z57" s="181"/>
+      <c r="AA57" s="181"/>
+      <c r="AB57" s="181"/>
+      <c r="AC57" s="182"/>
+      <c r="AD57" s="180"/>
+      <c r="AE57" s="181"/>
+      <c r="AF57" s="181"/>
+      <c r="AG57" s="181"/>
+      <c r="AH57" s="182"/>
+      <c r="AI57" s="180"/>
+      <c r="AJ57" s="181"/>
+      <c r="AK57" s="181"/>
+      <c r="AL57" s="181"/>
+      <c r="AM57" s="181"/>
+      <c r="AN57" s="183"/>
     </row>
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="292"/>
-      <c r="B58" s="293"/>
-      <c r="C58" s="293"/>
-      <c r="D58" s="293"/>
-      <c r="E58" s="293"/>
-      <c r="F58" s="293"/>
-      <c r="G58" s="293"/>
-      <c r="H58" s="293"/>
-      <c r="I58" s="293"/>
-      <c r="J58" s="293"/>
-      <c r="K58" s="294"/>
-      <c r="L58" s="288"/>
-      <c r="M58" s="289"/>
-      <c r="N58" s="290"/>
-      <c r="O58" s="288"/>
-      <c r="P58" s="289"/>
-      <c r="Q58" s="289"/>
-      <c r="R58" s="289"/>
-      <c r="S58" s="290"/>
-      <c r="T58" s="288"/>
-      <c r="U58" s="289"/>
-      <c r="V58" s="289"/>
-      <c r="W58" s="289"/>
-      <c r="X58" s="290"/>
-      <c r="Y58" s="288"/>
-      <c r="Z58" s="289"/>
-      <c r="AA58" s="289"/>
-      <c r="AB58" s="289"/>
-      <c r="AC58" s="290"/>
-      <c r="AD58" s="288"/>
-      <c r="AE58" s="289"/>
-      <c r="AF58" s="289"/>
-      <c r="AG58" s="289"/>
-      <c r="AH58" s="290"/>
-      <c r="AI58" s="288"/>
-      <c r="AJ58" s="289"/>
-      <c r="AK58" s="289"/>
-      <c r="AL58" s="289"/>
-      <c r="AM58" s="289"/>
-      <c r="AN58" s="291"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="188"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="188"/>
+      <c r="E58" s="188"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="188"/>
+      <c r="H58" s="188"/>
+      <c r="I58" s="188"/>
+      <c r="J58" s="188"/>
+      <c r="K58" s="189"/>
+      <c r="L58" s="180"/>
+      <c r="M58" s="181"/>
+      <c r="N58" s="182"/>
+      <c r="O58" s="180"/>
+      <c r="P58" s="181"/>
+      <c r="Q58" s="181"/>
+      <c r="R58" s="181"/>
+      <c r="S58" s="182"/>
+      <c r="T58" s="180"/>
+      <c r="U58" s="181"/>
+      <c r="V58" s="181"/>
+      <c r="W58" s="181"/>
+      <c r="X58" s="182"/>
+      <c r="Y58" s="180"/>
+      <c r="Z58" s="181"/>
+      <c r="AA58" s="181"/>
+      <c r="AB58" s="181"/>
+      <c r="AC58" s="182"/>
+      <c r="AD58" s="180"/>
+      <c r="AE58" s="181"/>
+      <c r="AF58" s="181"/>
+      <c r="AG58" s="181"/>
+      <c r="AH58" s="182"/>
+      <c r="AI58" s="180"/>
+      <c r="AJ58" s="181"/>
+      <c r="AK58" s="181"/>
+      <c r="AL58" s="181"/>
+      <c r="AM58" s="181"/>
+      <c r="AN58" s="183"/>
     </row>
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="292"/>
-      <c r="B59" s="293"/>
-      <c r="C59" s="293"/>
-      <c r="D59" s="293"/>
-      <c r="E59" s="293"/>
-      <c r="F59" s="293"/>
-      <c r="G59" s="293"/>
-      <c r="H59" s="293"/>
-      <c r="I59" s="293"/>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294"/>
-      <c r="L59" s="288"/>
-      <c r="M59" s="289"/>
-      <c r="N59" s="290"/>
-      <c r="O59" s="288"/>
-      <c r="P59" s="289"/>
-      <c r="Q59" s="289"/>
-      <c r="R59" s="289"/>
-      <c r="S59" s="290"/>
-      <c r="T59" s="288"/>
-      <c r="U59" s="289"/>
-      <c r="V59" s="289"/>
-      <c r="W59" s="289"/>
-      <c r="X59" s="290"/>
-      <c r="Y59" s="288"/>
-      <c r="Z59" s="289"/>
-      <c r="AA59" s="289"/>
-      <c r="AB59" s="289"/>
-      <c r="AC59" s="290"/>
-      <c r="AD59" s="288"/>
-      <c r="AE59" s="289"/>
-      <c r="AF59" s="289"/>
-      <c r="AG59" s="289"/>
-      <c r="AH59" s="290"/>
-      <c r="AI59" s="288"/>
-      <c r="AJ59" s="289"/>
-      <c r="AK59" s="289"/>
-      <c r="AL59" s="289"/>
-      <c r="AM59" s="289"/>
-      <c r="AN59" s="291"/>
+      <c r="A59" s="187"/>
+      <c r="B59" s="188"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="188"/>
+      <c r="E59" s="188"/>
+      <c r="F59" s="188"/>
+      <c r="G59" s="188"/>
+      <c r="H59" s="188"/>
+      <c r="I59" s="188"/>
+      <c r="J59" s="188"/>
+      <c r="K59" s="189"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="181"/>
+      <c r="N59" s="182"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="181"/>
+      <c r="Q59" s="181"/>
+      <c r="R59" s="181"/>
+      <c r="S59" s="182"/>
+      <c r="T59" s="180"/>
+      <c r="U59" s="181"/>
+      <c r="V59" s="181"/>
+      <c r="W59" s="181"/>
+      <c r="X59" s="182"/>
+      <c r="Y59" s="180"/>
+      <c r="Z59" s="181"/>
+      <c r="AA59" s="181"/>
+      <c r="AB59" s="181"/>
+      <c r="AC59" s="182"/>
+      <c r="AD59" s="180"/>
+      <c r="AE59" s="181"/>
+      <c r="AF59" s="181"/>
+      <c r="AG59" s="181"/>
+      <c r="AH59" s="182"/>
+      <c r="AI59" s="180"/>
+      <c r="AJ59" s="181"/>
+      <c r="AK59" s="181"/>
+      <c r="AL59" s="181"/>
+      <c r="AM59" s="181"/>
+      <c r="AN59" s="183"/>
     </row>
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="292"/>
-      <c r="B60" s="293"/>
-      <c r="C60" s="293"/>
-      <c r="D60" s="293"/>
-      <c r="E60" s="293"/>
-      <c r="F60" s="293"/>
-      <c r="G60" s="293"/>
-      <c r="H60" s="293"/>
-      <c r="I60" s="293"/>
-      <c r="J60" s="293"/>
-      <c r="K60" s="294"/>
-      <c r="L60" s="288"/>
-      <c r="M60" s="289"/>
-      <c r="N60" s="290"/>
-      <c r="O60" s="288"/>
-      <c r="P60" s="289"/>
-      <c r="Q60" s="289"/>
-      <c r="R60" s="289"/>
-      <c r="S60" s="290"/>
-      <c r="T60" s="288"/>
-      <c r="U60" s="289"/>
-      <c r="V60" s="289"/>
-      <c r="W60" s="289"/>
-      <c r="X60" s="290"/>
-      <c r="Y60" s="288"/>
-      <c r="Z60" s="289"/>
-      <c r="AA60" s="289"/>
-      <c r="AB60" s="289"/>
-      <c r="AC60" s="290"/>
-      <c r="AD60" s="288"/>
-      <c r="AE60" s="289"/>
-      <c r="AF60" s="289"/>
-      <c r="AG60" s="289"/>
-      <c r="AH60" s="290"/>
-      <c r="AI60" s="288"/>
-      <c r="AJ60" s="289"/>
-      <c r="AK60" s="289"/>
-      <c r="AL60" s="289"/>
-      <c r="AM60" s="289"/>
-      <c r="AN60" s="291"/>
+      <c r="A60" s="187"/>
+      <c r="B60" s="188"/>
+      <c r="C60" s="188"/>
+      <c r="D60" s="188"/>
+      <c r="E60" s="188"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
+      <c r="H60" s="188"/>
+      <c r="I60" s="188"/>
+      <c r="J60" s="188"/>
+      <c r="K60" s="189"/>
+      <c r="L60" s="180"/>
+      <c r="M60" s="181"/>
+      <c r="N60" s="182"/>
+      <c r="O60" s="180"/>
+      <c r="P60" s="181"/>
+      <c r="Q60" s="181"/>
+      <c r="R60" s="181"/>
+      <c r="S60" s="182"/>
+      <c r="T60" s="180"/>
+      <c r="U60" s="181"/>
+      <c r="V60" s="181"/>
+      <c r="W60" s="181"/>
+      <c r="X60" s="182"/>
+      <c r="Y60" s="180"/>
+      <c r="Z60" s="181"/>
+      <c r="AA60" s="181"/>
+      <c r="AB60" s="181"/>
+      <c r="AC60" s="182"/>
+      <c r="AD60" s="180"/>
+      <c r="AE60" s="181"/>
+      <c r="AF60" s="181"/>
+      <c r="AG60" s="181"/>
+      <c r="AH60" s="182"/>
+      <c r="AI60" s="180"/>
+      <c r="AJ60" s="181"/>
+      <c r="AK60" s="181"/>
+      <c r="AL60" s="181"/>
+      <c r="AM60" s="181"/>
+      <c r="AN60" s="183"/>
     </row>
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="285" t="s">
+      <c r="A61" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="286"/>
-      <c r="C61" s="286"/>
-      <c r="D61" s="286"/>
-      <c r="E61" s="286"/>
-      <c r="F61" s="286"/>
-      <c r="G61" s="286"/>
-      <c r="H61" s="286"/>
-      <c r="I61" s="286"/>
-      <c r="J61" s="286"/>
-      <c r="K61" s="287"/>
-      <c r="L61" s="288"/>
-      <c r="M61" s="289"/>
-      <c r="N61" s="290"/>
-      <c r="O61" s="288"/>
-      <c r="P61" s="289"/>
-      <c r="Q61" s="289"/>
-      <c r="R61" s="289"/>
-      <c r="S61" s="290"/>
-      <c r="T61" s="288"/>
-      <c r="U61" s="289"/>
-      <c r="V61" s="289"/>
-      <c r="W61" s="289"/>
-      <c r="X61" s="290"/>
-      <c r="Y61" s="288"/>
-      <c r="Z61" s="289"/>
-      <c r="AA61" s="289"/>
-      <c r="AB61" s="289"/>
-      <c r="AC61" s="290"/>
-      <c r="AD61" s="288"/>
-      <c r="AE61" s="289"/>
-      <c r="AF61" s="289"/>
-      <c r="AG61" s="289"/>
-      <c r="AH61" s="290"/>
-      <c r="AI61" s="288"/>
-      <c r="AJ61" s="289"/>
-      <c r="AK61" s="289"/>
-      <c r="AL61" s="289"/>
-      <c r="AM61" s="289"/>
-      <c r="AN61" s="291"/>
+      <c r="B61" s="185"/>
+      <c r="C61" s="185"/>
+      <c r="D61" s="185"/>
+      <c r="E61" s="185"/>
+      <c r="F61" s="185"/>
+      <c r="G61" s="185"/>
+      <c r="H61" s="185"/>
+      <c r="I61" s="185"/>
+      <c r="J61" s="185"/>
+      <c r="K61" s="186"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="181"/>
+      <c r="N61" s="182"/>
+      <c r="O61" s="180"/>
+      <c r="P61" s="181"/>
+      <c r="Q61" s="181"/>
+      <c r="R61" s="181"/>
+      <c r="S61" s="182"/>
+      <c r="T61" s="180"/>
+      <c r="U61" s="181"/>
+      <c r="V61" s="181"/>
+      <c r="W61" s="181"/>
+      <c r="X61" s="182"/>
+      <c r="Y61" s="180"/>
+      <c r="Z61" s="181"/>
+      <c r="AA61" s="181"/>
+      <c r="AB61" s="181"/>
+      <c r="AC61" s="182"/>
+      <c r="AD61" s="180"/>
+      <c r="AE61" s="181"/>
+      <c r="AF61" s="181"/>
+      <c r="AG61" s="181"/>
+      <c r="AH61" s="182"/>
+      <c r="AI61" s="180"/>
+      <c r="AJ61" s="181"/>
+      <c r="AK61" s="181"/>
+      <c r="AL61" s="181"/>
+      <c r="AM61" s="181"/>
+      <c r="AN61" s="183"/>
     </row>
     <row r="62" spans="1:40" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="304" t="s">
+      <c r="A62" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="B62" s="305"/>
-      <c r="C62" s="305"/>
-      <c r="D62" s="305"/>
-      <c r="E62" s="305"/>
-      <c r="F62" s="305"/>
-      <c r="G62" s="305"/>
-      <c r="H62" s="305"/>
-      <c r="I62" s="305"/>
-      <c r="J62" s="305"/>
-      <c r="K62" s="305"/>
-      <c r="L62" s="305"/>
-      <c r="M62" s="305"/>
-      <c r="N62" s="305"/>
-      <c r="O62" s="305"/>
-      <c r="P62" s="305"/>
-      <c r="Q62" s="305"/>
-      <c r="R62" s="305"/>
-      <c r="S62" s="305"/>
-      <c r="T62" s="305"/>
-      <c r="U62" s="305"/>
-      <c r="V62" s="305"/>
-      <c r="W62" s="305"/>
-      <c r="X62" s="305"/>
-      <c r="Y62" s="305"/>
-      <c r="Z62" s="305"/>
-      <c r="AA62" s="305"/>
-      <c r="AB62" s="305"/>
-      <c r="AC62" s="305"/>
-      <c r="AD62" s="305"/>
-      <c r="AE62" s="305"/>
-      <c r="AF62" s="305"/>
-      <c r="AG62" s="305"/>
-      <c r="AH62" s="305"/>
-      <c r="AI62" s="305"/>
-      <c r="AJ62" s="305"/>
-      <c r="AK62" s="305"/>
-      <c r="AL62" s="305"/>
-      <c r="AM62" s="305"/>
-      <c r="AN62" s="306"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="169"/>
+      <c r="Q62" s="169"/>
+      <c r="R62" s="169"/>
+      <c r="S62" s="169"/>
+      <c r="T62" s="169"/>
+      <c r="U62" s="169"/>
+      <c r="V62" s="169"/>
+      <c r="W62" s="169"/>
+      <c r="X62" s="169"/>
+      <c r="Y62" s="169"/>
+      <c r="Z62" s="169"/>
+      <c r="AA62" s="169"/>
+      <c r="AB62" s="169"/>
+      <c r="AC62" s="169"/>
+      <c r="AD62" s="169"/>
+      <c r="AE62" s="169"/>
+      <c r="AF62" s="169"/>
+      <c r="AG62" s="169"/>
+      <c r="AH62" s="169"/>
+      <c r="AI62" s="169"/>
+      <c r="AJ62" s="169"/>
+      <c r="AK62" s="169"/>
+      <c r="AL62" s="169"/>
+      <c r="AM62" s="169"/>
+      <c r="AN62" s="170"/>
     </row>
     <row r="63" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="307" t="s">
+      <c r="A63" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="B63" s="308"/>
-      <c r="C63" s="308"/>
-      <c r="D63" s="308"/>
-      <c r="E63" s="308"/>
-      <c r="F63" s="308"/>
-      <c r="G63" s="308"/>
-      <c r="H63" s="308"/>
-      <c r="I63" s="308"/>
-      <c r="J63" s="308"/>
-      <c r="K63" s="308"/>
-      <c r="L63" s="308"/>
-      <c r="M63" s="308"/>
-      <c r="N63" s="308"/>
-      <c r="O63" s="308"/>
-      <c r="P63" s="308"/>
-      <c r="Q63" s="308"/>
-      <c r="R63" s="308"/>
-      <c r="S63" s="308"/>
-      <c r="T63" s="308"/>
-      <c r="U63" s="308"/>
-      <c r="V63" s="308"/>
-      <c r="W63" s="308"/>
-      <c r="X63" s="308"/>
-      <c r="Y63" s="308"/>
-      <c r="Z63" s="308"/>
-      <c r="AA63" s="308"/>
-      <c r="AB63" s="308"/>
-      <c r="AC63" s="308"/>
-      <c r="AD63" s="308"/>
-      <c r="AE63" s="308"/>
-      <c r="AF63" s="308"/>
-      <c r="AG63" s="308"/>
-      <c r="AH63" s="308"/>
-      <c r="AI63" s="308"/>
-      <c r="AJ63" s="308"/>
-      <c r="AK63" s="308"/>
-      <c r="AL63" s="308"/>
-      <c r="AM63" s="308"/>
-      <c r="AN63" s="309"/>
+      <c r="B63" s="172"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="172"/>
+      <c r="K63" s="172"/>
+      <c r="L63" s="172"/>
+      <c r="M63" s="172"/>
+      <c r="N63" s="172"/>
+      <c r="O63" s="172"/>
+      <c r="P63" s="172"/>
+      <c r="Q63" s="172"/>
+      <c r="R63" s="172"/>
+      <c r="S63" s="172"/>
+      <c r="T63" s="172"/>
+      <c r="U63" s="172"/>
+      <c r="V63" s="172"/>
+      <c r="W63" s="172"/>
+      <c r="X63" s="172"/>
+      <c r="Y63" s="172"/>
+      <c r="Z63" s="172"/>
+      <c r="AA63" s="172"/>
+      <c r="AB63" s="172"/>
+      <c r="AC63" s="172"/>
+      <c r="AD63" s="172"/>
+      <c r="AE63" s="172"/>
+      <c r="AF63" s="172"/>
+      <c r="AG63" s="172"/>
+      <c r="AH63" s="172"/>
+      <c r="AI63" s="172"/>
+      <c r="AJ63" s="172"/>
+      <c r="AK63" s="172"/>
+      <c r="AL63" s="172"/>
+      <c r="AM63" s="172"/>
+      <c r="AN63" s="173"/>
     </row>
     <row r="64" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="310"/>
-      <c r="B64" s="311"/>
-      <c r="C64" s="311"/>
-      <c r="D64" s="311"/>
-      <c r="E64" s="311"/>
-      <c r="F64" s="311"/>
-      <c r="G64" s="311"/>
-      <c r="H64" s="311"/>
-      <c r="I64" s="311"/>
-      <c r="J64" s="311"/>
-      <c r="K64" s="311"/>
-      <c r="L64" s="311"/>
-      <c r="M64" s="311"/>
-      <c r="N64" s="311"/>
-      <c r="O64" s="311"/>
-      <c r="P64" s="311"/>
-      <c r="Q64" s="311"/>
-      <c r="R64" s="311"/>
-      <c r="S64" s="311"/>
-      <c r="T64" s="311"/>
-      <c r="U64" s="311"/>
-      <c r="V64" s="311"/>
-      <c r="W64" s="311"/>
-      <c r="X64" s="311"/>
-      <c r="Y64" s="311"/>
-      <c r="Z64" s="311"/>
-      <c r="AA64" s="311"/>
-      <c r="AB64" s="311"/>
-      <c r="AC64" s="311"/>
-      <c r="AD64" s="311"/>
-      <c r="AE64" s="311"/>
-      <c r="AF64" s="311"/>
-      <c r="AG64" s="311"/>
-      <c r="AH64" s="311"/>
-      <c r="AI64" s="311"/>
-      <c r="AJ64" s="311"/>
-      <c r="AK64" s="311"/>
-      <c r="AL64" s="311"/>
-      <c r="AM64" s="311"/>
-      <c r="AN64" s="312"/>
+      <c r="A64" s="174"/>
+      <c r="B64" s="175"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="175"/>
+      <c r="G64" s="175"/>
+      <c r="H64" s="175"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="175"/>
+      <c r="K64" s="175"/>
+      <c r="L64" s="175"/>
+      <c r="M64" s="175"/>
+      <c r="N64" s="175"/>
+      <c r="O64" s="175"/>
+      <c r="P64" s="175"/>
+      <c r="Q64" s="175"/>
+      <c r="R64" s="175"/>
+      <c r="S64" s="175"/>
+      <c r="T64" s="175"/>
+      <c r="U64" s="175"/>
+      <c r="V64" s="175"/>
+      <c r="W64" s="175"/>
+      <c r="X64" s="175"/>
+      <c r="Y64" s="175"/>
+      <c r="Z64" s="175"/>
+      <c r="AA64" s="175"/>
+      <c r="AB64" s="175"/>
+      <c r="AC64" s="175"/>
+      <c r="AD64" s="175"/>
+      <c r="AE64" s="175"/>
+      <c r="AF64" s="175"/>
+      <c r="AG64" s="175"/>
+      <c r="AH64" s="175"/>
+      <c r="AI64" s="175"/>
+      <c r="AJ64" s="175"/>
+      <c r="AK64" s="175"/>
+      <c r="AL64" s="175"/>
+      <c r="AM64" s="175"/>
+      <c r="AN64" s="176"/>
     </row>
     <row r="65" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="313"/>
-      <c r="B65" s="314"/>
-      <c r="C65" s="314"/>
-      <c r="D65" s="314"/>
-      <c r="E65" s="314"/>
-      <c r="F65" s="314"/>
-      <c r="G65" s="314"/>
-      <c r="H65" s="314"/>
-      <c r="I65" s="314"/>
-      <c r="J65" s="314"/>
-      <c r="K65" s="314"/>
-      <c r="L65" s="314"/>
-      <c r="M65" s="314"/>
-      <c r="N65" s="314"/>
-      <c r="O65" s="314"/>
-      <c r="P65" s="314"/>
-      <c r="Q65" s="314"/>
-      <c r="R65" s="314"/>
-      <c r="S65" s="314"/>
-      <c r="T65" s="314"/>
-      <c r="U65" s="314"/>
-      <c r="V65" s="314"/>
-      <c r="W65" s="314"/>
-      <c r="X65" s="314"/>
-      <c r="Y65" s="314"/>
-      <c r="Z65" s="314"/>
-      <c r="AA65" s="314"/>
-      <c r="AB65" s="314"/>
-      <c r="AC65" s="314"/>
-      <c r="AD65" s="314"/>
-      <c r="AE65" s="314"/>
-      <c r="AF65" s="314"/>
-      <c r="AG65" s="314"/>
-      <c r="AH65" s="314"/>
-      <c r="AI65" s="314"/>
-      <c r="AJ65" s="314"/>
-      <c r="AK65" s="314"/>
-      <c r="AL65" s="314"/>
-      <c r="AM65" s="314"/>
-      <c r="AN65" s="315"/>
+      <c r="A65" s="177"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="178"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="178"/>
+      <c r="O65" s="178"/>
+      <c r="P65" s="178"/>
+      <c r="Q65" s="178"/>
+      <c r="R65" s="178"/>
+      <c r="S65" s="178"/>
+      <c r="T65" s="178"/>
+      <c r="U65" s="178"/>
+      <c r="V65" s="178"/>
+      <c r="W65" s="178"/>
+      <c r="X65" s="178"/>
+      <c r="Y65" s="178"/>
+      <c r="Z65" s="178"/>
+      <c r="AA65" s="178"/>
+      <c r="AB65" s="178"/>
+      <c r="AC65" s="178"/>
+      <c r="AD65" s="178"/>
+      <c r="AE65" s="178"/>
+      <c r="AF65" s="178"/>
+      <c r="AG65" s="178"/>
+      <c r="AH65" s="178"/>
+      <c r="AI65" s="178"/>
+      <c r="AJ65" s="178"/>
+      <c r="AK65" s="178"/>
+      <c r="AL65" s="178"/>
+      <c r="AM65" s="178"/>
+      <c r="AN65" s="179"/>
     </row>
     <row r="66" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="316" t="s">
+      <c r="A66" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="317"/>
-      <c r="C66" s="317"/>
-      <c r="D66" s="317"/>
-      <c r="E66" s="317"/>
-      <c r="F66" s="317"/>
-      <c r="G66" s="317"/>
-      <c r="H66" s="317"/>
-      <c r="I66" s="317"/>
-      <c r="J66" s="317"/>
-      <c r="K66" s="317"/>
-      <c r="L66" s="317"/>
-      <c r="M66" s="317"/>
-      <c r="N66" s="317"/>
-      <c r="O66" s="317"/>
-      <c r="P66" s="317"/>
-      <c r="Q66" s="317"/>
-      <c r="R66" s="317"/>
-      <c r="S66" s="317"/>
-      <c r="T66" s="317"/>
-      <c r="U66" s="317"/>
-      <c r="V66" s="317"/>
-      <c r="W66" s="317"/>
-      <c r="X66" s="317"/>
-      <c r="Y66" s="317"/>
-      <c r="Z66" s="317"/>
-      <c r="AA66" s="317"/>
-      <c r="AB66" s="317"/>
-      <c r="AC66" s="317"/>
-      <c r="AD66" s="317"/>
-      <c r="AE66" s="317"/>
-      <c r="AF66" s="317"/>
-      <c r="AG66" s="317"/>
-      <c r="AH66" s="317"/>
-      <c r="AI66" s="317"/>
-      <c r="AJ66" s="317"/>
-      <c r="AK66" s="317"/>
-      <c r="AL66" s="317"/>
-      <c r="AM66" s="317"/>
-      <c r="AN66" s="318"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="151"/>
+      <c r="D66" s="151"/>
+      <c r="E66" s="151"/>
+      <c r="F66" s="151"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="151"/>
+      <c r="K66" s="151"/>
+      <c r="L66" s="151"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="151"/>
+      <c r="O66" s="151"/>
+      <c r="P66" s="151"/>
+      <c r="Q66" s="151"/>
+      <c r="R66" s="151"/>
+      <c r="S66" s="151"/>
+      <c r="T66" s="151"/>
+      <c r="U66" s="151"/>
+      <c r="V66" s="151"/>
+      <c r="W66" s="151"/>
+      <c r="X66" s="151"/>
+      <c r="Y66" s="151"/>
+      <c r="Z66" s="151"/>
+      <c r="AA66" s="151"/>
+      <c r="AB66" s="151"/>
+      <c r="AC66" s="151"/>
+      <c r="AD66" s="151"/>
+      <c r="AE66" s="151"/>
+      <c r="AF66" s="151"/>
+      <c r="AG66" s="151"/>
+      <c r="AH66" s="151"/>
+      <c r="AI66" s="151"/>
+      <c r="AJ66" s="151"/>
+      <c r="AK66" s="151"/>
+      <c r="AL66" s="151"/>
+      <c r="AM66" s="151"/>
+      <c r="AN66" s="152"/>
     </row>
     <row r="67" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="319" t="s">
+      <c r="A67" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="320"/>
-      <c r="C67" s="320"/>
-      <c r="D67" s="320"/>
-      <c r="E67" s="320"/>
-      <c r="F67" s="320"/>
-      <c r="G67" s="320"/>
-      <c r="H67" s="320"/>
-      <c r="I67" s="320"/>
-      <c r="J67" s="320"/>
-      <c r="K67" s="320"/>
-      <c r="L67" s="320"/>
-      <c r="M67" s="320"/>
-      <c r="N67" s="320"/>
-      <c r="O67" s="320"/>
-      <c r="P67" s="320"/>
-      <c r="Q67" s="320"/>
-      <c r="R67" s="320"/>
-      <c r="S67" s="320"/>
-      <c r="T67" s="320"/>
-      <c r="U67" s="320"/>
-      <c r="V67" s="320"/>
-      <c r="W67" s="320"/>
-      <c r="X67" s="320"/>
-      <c r="Y67" s="320"/>
-      <c r="Z67" s="320"/>
-      <c r="AA67" s="320"/>
-      <c r="AB67" s="320"/>
-      <c r="AC67" s="320"/>
-      <c r="AD67" s="320"/>
-      <c r="AE67" s="320"/>
-      <c r="AF67" s="320"/>
-      <c r="AG67" s="320"/>
-      <c r="AH67" s="320"/>
-      <c r="AI67" s="320"/>
-      <c r="AJ67" s="320"/>
-      <c r="AK67" s="320"/>
-      <c r="AL67" s="320"/>
-      <c r="AM67" s="320"/>
-      <c r="AN67" s="321"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="154"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
+      <c r="N67" s="154"/>
+      <c r="O67" s="154"/>
+      <c r="P67" s="154"/>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="154"/>
+      <c r="S67" s="154"/>
+      <c r="T67" s="154"/>
+      <c r="U67" s="154"/>
+      <c r="V67" s="154"/>
+      <c r="W67" s="154"/>
+      <c r="X67" s="154"/>
+      <c r="Y67" s="154"/>
+      <c r="Z67" s="154"/>
+      <c r="AA67" s="154"/>
+      <c r="AB67" s="154"/>
+      <c r="AC67" s="154"/>
+      <c r="AD67" s="154"/>
+      <c r="AE67" s="154"/>
+      <c r="AF67" s="154"/>
+      <c r="AG67" s="154"/>
+      <c r="AH67" s="154"/>
+      <c r="AI67" s="154"/>
+      <c r="AJ67" s="154"/>
+      <c r="AK67" s="154"/>
+      <c r="AL67" s="154"/>
+      <c r="AM67" s="154"/>
+      <c r="AN67" s="155"/>
     </row>
     <row r="68" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="298" t="s">
+      <c r="A68" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="299"/>
-      <c r="C68" s="299"/>
-      <c r="D68" s="299"/>
-      <c r="E68" s="299"/>
-      <c r="F68" s="299"/>
-      <c r="G68" s="299"/>
-      <c r="H68" s="299"/>
+      <c r="B68" s="157"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
       <c r="I68" s="26"/>
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
@@ -12560,12 +12560,12 @@
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
       <c r="Q68" s="40"/>
-      <c r="R68" s="302" t="s">
+      <c r="R68" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="S68" s="302"/>
-      <c r="T68" s="302"/>
-      <c r="U68" s="302"/>
+      <c r="S68" s="158"/>
+      <c r="T68" s="158"/>
+      <c r="U68" s="158"/>
       <c r="V68" s="26"/>
       <c r="W68" s="26"/>
       <c r="X68" s="26"/>
@@ -12573,13 +12573,13 @@
       <c r="Z68" s="26"/>
       <c r="AA68" s="26"/>
       <c r="AB68" s="26"/>
-      <c r="AC68" s="296" t="s">
+      <c r="AC68" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="AD68" s="296"/>
-      <c r="AE68" s="296"/>
-      <c r="AF68" s="296"/>
-      <c r="AG68" s="296"/>
+      <c r="AD68" s="160"/>
+      <c r="AE68" s="160"/>
+      <c r="AF68" s="160"/>
+      <c r="AG68" s="160"/>
       <c r="AH68" s="26"/>
       <c r="AI68" s="26"/>
       <c r="AJ68" s="26"/>
@@ -12589,16 +12589,16 @@
       <c r="AN68" s="27"/>
     </row>
     <row r="69" spans="1:40" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="300" t="s">
+      <c r="A69" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="301"/>
-      <c r="C69" s="301"/>
-      <c r="D69" s="301"/>
-      <c r="E69" s="301"/>
-      <c r="F69" s="301"/>
-      <c r="G69" s="301"/>
-      <c r="H69" s="301"/>
+      <c r="B69" s="166"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="166"/>
+      <c r="E69" s="166"/>
+      <c r="F69" s="166"/>
+      <c r="G69" s="166"/>
+      <c r="H69" s="166"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -12608,10 +12608,10 @@
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
-      <c r="R69" s="303"/>
-      <c r="S69" s="303"/>
-      <c r="T69" s="303"/>
-      <c r="U69" s="303"/>
+      <c r="R69" s="167"/>
+      <c r="S69" s="167"/>
+      <c r="T69" s="167"/>
+      <c r="U69" s="167"/>
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
@@ -12619,13 +12619,13 @@
       <c r="Z69" s="15"/>
       <c r="AA69" s="15"/>
       <c r="AB69" s="15"/>
-      <c r="AC69" s="297" t="s">
+      <c r="AC69" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="AD69" s="297"/>
-      <c r="AE69" s="297"/>
-      <c r="AF69" s="297"/>
-      <c r="AG69" s="297"/>
+      <c r="AD69" s="164"/>
+      <c r="AE69" s="164"/>
+      <c r="AF69" s="164"/>
+      <c r="AG69" s="164"/>
       <c r="AH69" s="15"/>
       <c r="AI69" s="15"/>
       <c r="AJ69" s="15"/>
@@ -12635,274 +12635,274 @@
       <c r="AN69" s="16"/>
     </row>
     <row r="70" spans="1:40" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="248" t="s">
+      <c r="A70" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="249"/>
-      <c r="C70" s="249"/>
-      <c r="D70" s="249"/>
-      <c r="E70" s="249"/>
-      <c r="F70" s="249"/>
-      <c r="G70" s="249"/>
-      <c r="H70" s="249"/>
-      <c r="I70" s="249"/>
-      <c r="J70" s="249"/>
-      <c r="K70" s="249"/>
-      <c r="L70" s="249"/>
-      <c r="M70" s="249"/>
-      <c r="N70" s="249"/>
-      <c r="O70" s="249"/>
-      <c r="P70" s="249"/>
-      <c r="Q70" s="249"/>
-      <c r="R70" s="249"/>
-      <c r="S70" s="249"/>
-      <c r="T70" s="249"/>
-      <c r="U70" s="249"/>
-      <c r="V70" s="249"/>
-      <c r="W70" s="249"/>
-      <c r="X70" s="249"/>
-      <c r="Y70" s="249"/>
-      <c r="Z70" s="249"/>
-      <c r="AA70" s="249"/>
-      <c r="AB70" s="249"/>
-      <c r="AC70" s="249"/>
-      <c r="AD70" s="249"/>
-      <c r="AE70" s="249"/>
-      <c r="AF70" s="249"/>
-      <c r="AG70" s="249"/>
-      <c r="AH70" s="249"/>
-      <c r="AI70" s="249"/>
-      <c r="AJ70" s="249"/>
-      <c r="AK70" s="249"/>
-      <c r="AL70" s="249"/>
-      <c r="AM70" s="249"/>
-      <c r="AN70" s="250"/>
+      <c r="B70" s="139"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="139"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="139"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="139"/>
+      <c r="K70" s="139"/>
+      <c r="L70" s="139"/>
+      <c r="M70" s="139"/>
+      <c r="N70" s="139"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
+      <c r="R70" s="139"/>
+      <c r="S70" s="139"/>
+      <c r="T70" s="139"/>
+      <c r="U70" s="139"/>
+      <c r="V70" s="139"/>
+      <c r="W70" s="139"/>
+      <c r="X70" s="139"/>
+      <c r="Y70" s="139"/>
+      <c r="Z70" s="139"/>
+      <c r="AA70" s="139"/>
+      <c r="AB70" s="139"/>
+      <c r="AC70" s="139"/>
+      <c r="AD70" s="139"/>
+      <c r="AE70" s="139"/>
+      <c r="AF70" s="139"/>
+      <c r="AG70" s="139"/>
+      <c r="AH70" s="139"/>
+      <c r="AI70" s="139"/>
+      <c r="AJ70" s="139"/>
+      <c r="AK70" s="139"/>
+      <c r="AL70" s="139"/>
+      <c r="AM70" s="139"/>
+      <c r="AN70" s="140"/>
     </row>
     <row r="71" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="322"/>
-      <c r="B71" s="323"/>
-      <c r="C71" s="323"/>
-      <c r="D71" s="323"/>
-      <c r="E71" s="323"/>
-      <c r="F71" s="323"/>
-      <c r="G71" s="323"/>
-      <c r="H71" s="323"/>
-      <c r="I71" s="323"/>
-      <c r="J71" s="323"/>
-      <c r="K71" s="323"/>
-      <c r="L71" s="323"/>
-      <c r="M71" s="323"/>
-      <c r="N71" s="323"/>
-      <c r="O71" s="323"/>
-      <c r="P71" s="323"/>
-      <c r="Q71" s="323"/>
-      <c r="R71" s="323"/>
-      <c r="S71" s="323"/>
-      <c r="T71" s="323"/>
-      <c r="U71" s="323"/>
-      <c r="V71" s="323"/>
-      <c r="W71" s="323"/>
-      <c r="X71" s="323"/>
-      <c r="Y71" s="323"/>
-      <c r="Z71" s="323"/>
-      <c r="AA71" s="323"/>
-      <c r="AB71" s="323"/>
-      <c r="AC71" s="323"/>
-      <c r="AD71" s="323"/>
-      <c r="AE71" s="323"/>
-      <c r="AF71" s="323"/>
-      <c r="AG71" s="323"/>
-      <c r="AH71" s="323"/>
-      <c r="AI71" s="323"/>
-      <c r="AJ71" s="323"/>
-      <c r="AK71" s="323"/>
-      <c r="AL71" s="323"/>
-      <c r="AM71" s="323"/>
-      <c r="AN71" s="324"/>
+      <c r="A71" s="141"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="142"/>
+      <c r="K71" s="142"/>
+      <c r="L71" s="142"/>
+      <c r="M71" s="142"/>
+      <c r="N71" s="142"/>
+      <c r="O71" s="142"/>
+      <c r="P71" s="142"/>
+      <c r="Q71" s="142"/>
+      <c r="R71" s="142"/>
+      <c r="S71" s="142"/>
+      <c r="T71" s="142"/>
+      <c r="U71" s="142"/>
+      <c r="V71" s="142"/>
+      <c r="W71" s="142"/>
+      <c r="X71" s="142"/>
+      <c r="Y71" s="142"/>
+      <c r="Z71" s="142"/>
+      <c r="AA71" s="142"/>
+      <c r="AB71" s="142"/>
+      <c r="AC71" s="142"/>
+      <c r="AD71" s="142"/>
+      <c r="AE71" s="142"/>
+      <c r="AF71" s="142"/>
+      <c r="AG71" s="142"/>
+      <c r="AH71" s="142"/>
+      <c r="AI71" s="142"/>
+      <c r="AJ71" s="142"/>
+      <c r="AK71" s="142"/>
+      <c r="AL71" s="142"/>
+      <c r="AM71" s="142"/>
+      <c r="AN71" s="143"/>
     </row>
     <row r="72" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="325"/>
-      <c r="B72" s="326"/>
-      <c r="C72" s="326"/>
-      <c r="D72" s="326"/>
-      <c r="E72" s="326"/>
-      <c r="F72" s="326"/>
-      <c r="G72" s="326"/>
-      <c r="H72" s="326"/>
-      <c r="I72" s="326"/>
-      <c r="J72" s="326"/>
-      <c r="K72" s="326"/>
-      <c r="L72" s="326"/>
-      <c r="M72" s="326"/>
-      <c r="N72" s="326"/>
-      <c r="O72" s="326"/>
-      <c r="P72" s="326"/>
-      <c r="Q72" s="326"/>
-      <c r="R72" s="326"/>
-      <c r="S72" s="326"/>
-      <c r="T72" s="326"/>
-      <c r="U72" s="326"/>
-      <c r="V72" s="326"/>
-      <c r="W72" s="326"/>
-      <c r="X72" s="326"/>
-      <c r="Y72" s="326"/>
-      <c r="Z72" s="326"/>
-      <c r="AA72" s="326"/>
-      <c r="AB72" s="326"/>
-      <c r="AC72" s="326"/>
-      <c r="AD72" s="326"/>
-      <c r="AE72" s="326"/>
-      <c r="AF72" s="326"/>
-      <c r="AG72" s="326"/>
-      <c r="AH72" s="326"/>
-      <c r="AI72" s="326"/>
-      <c r="AJ72" s="326"/>
-      <c r="AK72" s="326"/>
-      <c r="AL72" s="326"/>
-      <c r="AM72" s="326"/>
-      <c r="AN72" s="327"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="145"/>
+      <c r="G72" s="145"/>
+      <c r="H72" s="145"/>
+      <c r="I72" s="145"/>
+      <c r="J72" s="145"/>
+      <c r="K72" s="145"/>
+      <c r="L72" s="145"/>
+      <c r="M72" s="145"/>
+      <c r="N72" s="145"/>
+      <c r="O72" s="145"/>
+      <c r="P72" s="145"/>
+      <c r="Q72" s="145"/>
+      <c r="R72" s="145"/>
+      <c r="S72" s="145"/>
+      <c r="T72" s="145"/>
+      <c r="U72" s="145"/>
+      <c r="V72" s="145"/>
+      <c r="W72" s="145"/>
+      <c r="X72" s="145"/>
+      <c r="Y72" s="145"/>
+      <c r="Z72" s="145"/>
+      <c r="AA72" s="145"/>
+      <c r="AB72" s="145"/>
+      <c r="AC72" s="145"/>
+      <c r="AD72" s="145"/>
+      <c r="AE72" s="145"/>
+      <c r="AF72" s="145"/>
+      <c r="AG72" s="145"/>
+      <c r="AH72" s="145"/>
+      <c r="AI72" s="145"/>
+      <c r="AJ72" s="145"/>
+      <c r="AK72" s="145"/>
+      <c r="AL72" s="145"/>
+      <c r="AM72" s="145"/>
+      <c r="AN72" s="146"/>
     </row>
     <row r="73" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="328"/>
-      <c r="B73" s="329"/>
-      <c r="C73" s="329"/>
-      <c r="D73" s="329"/>
-      <c r="E73" s="329"/>
-      <c r="F73" s="329"/>
-      <c r="G73" s="329"/>
-      <c r="H73" s="329"/>
-      <c r="I73" s="329"/>
-      <c r="J73" s="329"/>
-      <c r="K73" s="329"/>
-      <c r="L73" s="329"/>
-      <c r="M73" s="329"/>
-      <c r="N73" s="329"/>
-      <c r="O73" s="329"/>
-      <c r="P73" s="329"/>
-      <c r="Q73" s="329"/>
-      <c r="R73" s="329"/>
-      <c r="S73" s="329"/>
-      <c r="T73" s="329"/>
-      <c r="U73" s="329"/>
-      <c r="V73" s="329"/>
-      <c r="W73" s="329"/>
-      <c r="X73" s="329"/>
-      <c r="Y73" s="329"/>
-      <c r="Z73" s="329"/>
-      <c r="AA73" s="329"/>
-      <c r="AB73" s="329"/>
-      <c r="AC73" s="329"/>
-      <c r="AD73" s="329"/>
-      <c r="AE73" s="329"/>
-      <c r="AF73" s="329"/>
-      <c r="AG73" s="329"/>
-      <c r="AH73" s="329"/>
-      <c r="AI73" s="329"/>
-      <c r="AJ73" s="329"/>
-      <c r="AK73" s="329"/>
-      <c r="AL73" s="329"/>
-      <c r="AM73" s="329"/>
-      <c r="AN73" s="330"/>
+      <c r="A73" s="147"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="148"/>
+      <c r="E73" s="148"/>
+      <c r="F73" s="148"/>
+      <c r="G73" s="148"/>
+      <c r="H73" s="148"/>
+      <c r="I73" s="148"/>
+      <c r="J73" s="148"/>
+      <c r="K73" s="148"/>
+      <c r="L73" s="148"/>
+      <c r="M73" s="148"/>
+      <c r="N73" s="148"/>
+      <c r="O73" s="148"/>
+      <c r="P73" s="148"/>
+      <c r="Q73" s="148"/>
+      <c r="R73" s="148"/>
+      <c r="S73" s="148"/>
+      <c r="T73" s="148"/>
+      <c r="U73" s="148"/>
+      <c r="V73" s="148"/>
+      <c r="W73" s="148"/>
+      <c r="X73" s="148"/>
+      <c r="Y73" s="148"/>
+      <c r="Z73" s="148"/>
+      <c r="AA73" s="148"/>
+      <c r="AB73" s="148"/>
+      <c r="AC73" s="148"/>
+      <c r="AD73" s="148"/>
+      <c r="AE73" s="148"/>
+      <c r="AF73" s="148"/>
+      <c r="AG73" s="148"/>
+      <c r="AH73" s="148"/>
+      <c r="AI73" s="148"/>
+      <c r="AJ73" s="148"/>
+      <c r="AK73" s="148"/>
+      <c r="AL73" s="148"/>
+      <c r="AM73" s="148"/>
+      <c r="AN73" s="149"/>
     </row>
     <row r="74" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="316" t="s">
+      <c r="A74" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="317"/>
-      <c r="C74" s="317"/>
-      <c r="D74" s="317"/>
-      <c r="E74" s="317"/>
-      <c r="F74" s="317"/>
-      <c r="G74" s="317"/>
-      <c r="H74" s="317"/>
-      <c r="I74" s="317"/>
-      <c r="J74" s="317"/>
-      <c r="K74" s="317"/>
-      <c r="L74" s="317"/>
-      <c r="M74" s="317"/>
-      <c r="N74" s="317"/>
-      <c r="O74" s="317"/>
-      <c r="P74" s="317"/>
-      <c r="Q74" s="317"/>
-      <c r="R74" s="317"/>
-      <c r="S74" s="317"/>
-      <c r="T74" s="317"/>
-      <c r="U74" s="317"/>
-      <c r="V74" s="317"/>
-      <c r="W74" s="317"/>
-      <c r="X74" s="317"/>
-      <c r="Y74" s="317"/>
-      <c r="Z74" s="317"/>
-      <c r="AA74" s="317"/>
-      <c r="AB74" s="317"/>
-      <c r="AC74" s="317"/>
-      <c r="AD74" s="317"/>
-      <c r="AE74" s="317"/>
-      <c r="AF74" s="317"/>
-      <c r="AG74" s="317"/>
-      <c r="AH74" s="317"/>
-      <c r="AI74" s="317"/>
-      <c r="AJ74" s="317"/>
-      <c r="AK74" s="317"/>
-      <c r="AL74" s="317"/>
-      <c r="AM74" s="317"/>
-      <c r="AN74" s="318"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="151"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="151"/>
+      <c r="K74" s="151"/>
+      <c r="L74" s="151"/>
+      <c r="M74" s="151"/>
+      <c r="N74" s="151"/>
+      <c r="O74" s="151"/>
+      <c r="P74" s="151"/>
+      <c r="Q74" s="151"/>
+      <c r="R74" s="151"/>
+      <c r="S74" s="151"/>
+      <c r="T74" s="151"/>
+      <c r="U74" s="151"/>
+      <c r="V74" s="151"/>
+      <c r="W74" s="151"/>
+      <c r="X74" s="151"/>
+      <c r="Y74" s="151"/>
+      <c r="Z74" s="151"/>
+      <c r="AA74" s="151"/>
+      <c r="AB74" s="151"/>
+      <c r="AC74" s="151"/>
+      <c r="AD74" s="151"/>
+      <c r="AE74" s="151"/>
+      <c r="AF74" s="151"/>
+      <c r="AG74" s="151"/>
+      <c r="AH74" s="151"/>
+      <c r="AI74" s="151"/>
+      <c r="AJ74" s="151"/>
+      <c r="AK74" s="151"/>
+      <c r="AL74" s="151"/>
+      <c r="AM74" s="151"/>
+      <c r="AN74" s="152"/>
     </row>
     <row r="75" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="319" t="s">
+      <c r="A75" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="320"/>
-      <c r="C75" s="320"/>
-      <c r="D75" s="320"/>
-      <c r="E75" s="320"/>
-      <c r="F75" s="320"/>
-      <c r="G75" s="320"/>
-      <c r="H75" s="320"/>
-      <c r="I75" s="320"/>
-      <c r="J75" s="320"/>
-      <c r="K75" s="320"/>
-      <c r="L75" s="320"/>
-      <c r="M75" s="320"/>
-      <c r="N75" s="320"/>
-      <c r="O75" s="320"/>
-      <c r="P75" s="320"/>
-      <c r="Q75" s="320"/>
-      <c r="R75" s="320"/>
-      <c r="S75" s="320"/>
-      <c r="T75" s="320"/>
-      <c r="U75" s="320"/>
-      <c r="V75" s="320"/>
-      <c r="W75" s="320"/>
-      <c r="X75" s="320"/>
-      <c r="Y75" s="320"/>
-      <c r="Z75" s="320"/>
-      <c r="AA75" s="320"/>
-      <c r="AB75" s="320"/>
-      <c r="AC75" s="320"/>
-      <c r="AD75" s="320"/>
-      <c r="AE75" s="320"/>
-      <c r="AF75" s="320"/>
-      <c r="AG75" s="320"/>
-      <c r="AH75" s="320"/>
-      <c r="AI75" s="320"/>
-      <c r="AJ75" s="320"/>
-      <c r="AK75" s="320"/>
-      <c r="AL75" s="320"/>
-      <c r="AM75" s="320"/>
-      <c r="AN75" s="321"/>
+      <c r="B75" s="154"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="154"/>
+      <c r="F75" s="154"/>
+      <c r="G75" s="154"/>
+      <c r="H75" s="154"/>
+      <c r="I75" s="154"/>
+      <c r="J75" s="154"/>
+      <c r="K75" s="154"/>
+      <c r="L75" s="154"/>
+      <c r="M75" s="154"/>
+      <c r="N75" s="154"/>
+      <c r="O75" s="154"/>
+      <c r="P75" s="154"/>
+      <c r="Q75" s="154"/>
+      <c r="R75" s="154"/>
+      <c r="S75" s="154"/>
+      <c r="T75" s="154"/>
+      <c r="U75" s="154"/>
+      <c r="V75" s="154"/>
+      <c r="W75" s="154"/>
+      <c r="X75" s="154"/>
+      <c r="Y75" s="154"/>
+      <c r="Z75" s="154"/>
+      <c r="AA75" s="154"/>
+      <c r="AB75" s="154"/>
+      <c r="AC75" s="154"/>
+      <c r="AD75" s="154"/>
+      <c r="AE75" s="154"/>
+      <c r="AF75" s="154"/>
+      <c r="AG75" s="154"/>
+      <c r="AH75" s="154"/>
+      <c r="AI75" s="154"/>
+      <c r="AJ75" s="154"/>
+      <c r="AK75" s="154"/>
+      <c r="AL75" s="154"/>
+      <c r="AM75" s="154"/>
+      <c r="AN75" s="155"/>
     </row>
     <row r="76" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="298" t="s">
+      <c r="A76" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="299"/>
-      <c r="C76" s="299"/>
-      <c r="D76" s="299"/>
-      <c r="E76" s="299"/>
-      <c r="F76" s="299"/>
-      <c r="G76" s="299"/>
-      <c r="H76" s="299"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="157"/>
+      <c r="D76" s="157"/>
+      <c r="E76" s="157"/>
+      <c r="F76" s="157"/>
+      <c r="G76" s="157"/>
+      <c r="H76" s="157"/>
       <c r="I76" s="26"/>
       <c r="J76" s="26"/>
       <c r="K76" s="26"/>
@@ -12912,12 +12912,12 @@
       <c r="O76" s="26"/>
       <c r="P76" s="26"/>
       <c r="Q76" s="40"/>
-      <c r="R76" s="302" t="s">
+      <c r="R76" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="S76" s="302"/>
-      <c r="T76" s="302"/>
-      <c r="U76" s="302"/>
+      <c r="S76" s="158"/>
+      <c r="T76" s="158"/>
+      <c r="U76" s="158"/>
       <c r="V76" s="26"/>
       <c r="W76" s="26"/>
       <c r="X76" s="26"/>
@@ -12925,13 +12925,13 @@
       <c r="Z76" s="26"/>
       <c r="AA76" s="26"/>
       <c r="AB76" s="26"/>
-      <c r="AC76" s="296" t="s">
+      <c r="AC76" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="AD76" s="296"/>
-      <c r="AE76" s="296"/>
-      <c r="AF76" s="296"/>
-      <c r="AG76" s="296"/>
+      <c r="AD76" s="160"/>
+      <c r="AE76" s="160"/>
+      <c r="AF76" s="160"/>
+      <c r="AG76" s="160"/>
       <c r="AH76" s="26"/>
       <c r="AI76" s="26"/>
       <c r="AJ76" s="26"/>
@@ -12941,16 +12941,16 @@
       <c r="AN76" s="27"/>
     </row>
     <row r="77" spans="1:40" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="332" t="s">
+      <c r="A77" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="333"/>
-      <c r="C77" s="333"/>
-      <c r="D77" s="333"/>
-      <c r="E77" s="333"/>
-      <c r="F77" s="333"/>
-      <c r="G77" s="333"/>
-      <c r="H77" s="333"/>
+      <c r="B77" s="162"/>
+      <c r="C77" s="162"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="162"/>
+      <c r="F77" s="162"/>
+      <c r="G77" s="162"/>
+      <c r="H77" s="162"/>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
@@ -12960,10 +12960,10 @@
       <c r="O77" s="29"/>
       <c r="P77" s="29"/>
       <c r="Q77" s="29"/>
-      <c r="R77" s="331"/>
-      <c r="S77" s="331"/>
-      <c r="T77" s="331"/>
-      <c r="U77" s="331"/>
+      <c r="R77" s="159"/>
+      <c r="S77" s="159"/>
+      <c r="T77" s="159"/>
+      <c r="U77" s="159"/>
       <c r="V77" s="29"/>
       <c r="W77" s="29"/>
       <c r="X77" s="29"/>
@@ -12971,13 +12971,13 @@
       <c r="Z77" s="29"/>
       <c r="AA77" s="29"/>
       <c r="AB77" s="29"/>
-      <c r="AC77" s="334" t="s">
+      <c r="AC77" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="AD77" s="334"/>
-      <c r="AE77" s="334"/>
-      <c r="AF77" s="334"/>
-      <c r="AG77" s="334"/>
+      <c r="AD77" s="163"/>
+      <c r="AE77" s="163"/>
+      <c r="AF77" s="163"/>
+      <c r="AG77" s="163"/>
       <c r="AH77" s="29"/>
       <c r="AI77" s="29"/>
       <c r="AJ77" s="29"/>
@@ -13115,152 +13115,152 @@
     <row r="81" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:40" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:40" s="42" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="221" t="s">
+      <c r="A83" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="222"/>
-      <c r="C83" s="222"/>
-      <c r="D83" s="222"/>
-      <c r="E83" s="222"/>
-      <c r="F83" s="222"/>
-      <c r="G83" s="222"/>
-      <c r="H83" s="222"/>
-      <c r="I83" s="222"/>
-      <c r="J83" s="222"/>
-      <c r="K83" s="222"/>
-      <c r="L83" s="222"/>
-      <c r="M83" s="222"/>
-      <c r="N83" s="222"/>
-      <c r="O83" s="222"/>
-      <c r="P83" s="222"/>
-      <c r="Q83" s="222"/>
-      <c r="R83" s="222"/>
-      <c r="S83" s="222"/>
-      <c r="T83" s="222"/>
-      <c r="U83" s="222"/>
-      <c r="V83" s="222"/>
-      <c r="W83" s="222"/>
-      <c r="X83" s="222"/>
-      <c r="Y83" s="222"/>
-      <c r="Z83" s="222"/>
-      <c r="AA83" s="222"/>
-      <c r="AB83" s="222"/>
-      <c r="AC83" s="222"/>
-      <c r="AD83" s="222"/>
-      <c r="AE83" s="222"/>
-      <c r="AF83" s="222"/>
-      <c r="AG83" s="222"/>
-      <c r="AH83" s="222"/>
-      <c r="AI83" s="222"/>
-      <c r="AJ83" s="222"/>
-      <c r="AK83" s="222"/>
-      <c r="AL83" s="222"/>
-      <c r="AM83" s="222"/>
-      <c r="AN83" s="223"/>
+      <c r="B83" s="240"/>
+      <c r="C83" s="240"/>
+      <c r="D83" s="240"/>
+      <c r="E83" s="240"/>
+      <c r="F83" s="240"/>
+      <c r="G83" s="240"/>
+      <c r="H83" s="240"/>
+      <c r="I83" s="240"/>
+      <c r="J83" s="240"/>
+      <c r="K83" s="240"/>
+      <c r="L83" s="240"/>
+      <c r="M83" s="240"/>
+      <c r="N83" s="240"/>
+      <c r="O83" s="240"/>
+      <c r="P83" s="240"/>
+      <c r="Q83" s="240"/>
+      <c r="R83" s="240"/>
+      <c r="S83" s="240"/>
+      <c r="T83" s="240"/>
+      <c r="U83" s="240"/>
+      <c r="V83" s="240"/>
+      <c r="W83" s="240"/>
+      <c r="X83" s="240"/>
+      <c r="Y83" s="240"/>
+      <c r="Z83" s="240"/>
+      <c r="AA83" s="240"/>
+      <c r="AB83" s="240"/>
+      <c r="AC83" s="240"/>
+      <c r="AD83" s="240"/>
+      <c r="AE83" s="240"/>
+      <c r="AF83" s="240"/>
+      <c r="AG83" s="240"/>
+      <c r="AH83" s="240"/>
+      <c r="AI83" s="240"/>
+      <c r="AJ83" s="240"/>
+      <c r="AK83" s="240"/>
+      <c r="AL83" s="240"/>
+      <c r="AM83" s="240"/>
+      <c r="AN83" s="241"/>
     </row>
     <row r="84" spans="1:40" s="42" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="224" t="s">
+      <c r="A84" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="226" t="s">
+      <c r="B84" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="227"/>
-      <c r="D84" s="227"/>
-      <c r="E84" s="227"/>
-      <c r="F84" s="227"/>
-      <c r="G84" s="227"/>
-      <c r="H84" s="227"/>
-      <c r="I84" s="227"/>
-      <c r="J84" s="227"/>
-      <c r="K84" s="227"/>
-      <c r="L84" s="227"/>
-      <c r="M84" s="227"/>
-      <c r="N84" s="227"/>
-      <c r="O84" s="230" t="s">
+      <c r="C84" s="244"/>
+      <c r="D84" s="244"/>
+      <c r="E84" s="244"/>
+      <c r="F84" s="244"/>
+      <c r="G84" s="244"/>
+      <c r="H84" s="244"/>
+      <c r="I84" s="244"/>
+      <c r="J84" s="244"/>
+      <c r="K84" s="244"/>
+      <c r="L84" s="244"/>
+      <c r="M84" s="244"/>
+      <c r="N84" s="244"/>
+      <c r="O84" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="P84" s="230"/>
-      <c r="Q84" s="230"/>
-      <c r="R84" s="230"/>
-      <c r="S84" s="230"/>
-      <c r="T84" s="230"/>
-      <c r="U84" s="231" t="s">
+      <c r="P84" s="247"/>
+      <c r="Q84" s="247"/>
+      <c r="R84" s="247"/>
+      <c r="S84" s="247"/>
+      <c r="T84" s="247"/>
+      <c r="U84" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="V84" s="226" t="s">
+      <c r="V84" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="227"/>
-      <c r="X84" s="227"/>
-      <c r="Y84" s="227"/>
-      <c r="Z84" s="227"/>
-      <c r="AA84" s="227"/>
-      <c r="AB84" s="227"/>
-      <c r="AC84" s="227"/>
-      <c r="AD84" s="227"/>
-      <c r="AE84" s="227"/>
-      <c r="AF84" s="227"/>
-      <c r="AG84" s="227"/>
-      <c r="AH84" s="227"/>
-      <c r="AI84" s="230" t="s">
+      <c r="W84" s="244"/>
+      <c r="X84" s="244"/>
+      <c r="Y84" s="244"/>
+      <c r="Z84" s="244"/>
+      <c r="AA84" s="244"/>
+      <c r="AB84" s="244"/>
+      <c r="AC84" s="244"/>
+      <c r="AD84" s="244"/>
+      <c r="AE84" s="244"/>
+      <c r="AF84" s="244"/>
+      <c r="AG84" s="244"/>
+      <c r="AH84" s="244"/>
+      <c r="AI84" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="AJ84" s="230"/>
-      <c r="AK84" s="230"/>
-      <c r="AL84" s="230"/>
-      <c r="AM84" s="230"/>
-      <c r="AN84" s="233"/>
+      <c r="AJ84" s="247"/>
+      <c r="AK84" s="247"/>
+      <c r="AL84" s="247"/>
+      <c r="AM84" s="247"/>
+      <c r="AN84" s="249"/>
     </row>
     <row r="85" spans="1:40" s="42" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="225"/>
-      <c r="B85" s="228"/>
-      <c r="C85" s="229"/>
-      <c r="D85" s="229"/>
-      <c r="E85" s="229"/>
-      <c r="F85" s="229"/>
-      <c r="G85" s="229"/>
-      <c r="H85" s="229"/>
-      <c r="I85" s="229"/>
-      <c r="J85" s="229"/>
-      <c r="K85" s="229"/>
-      <c r="L85" s="229"/>
-      <c r="M85" s="229"/>
-      <c r="N85" s="229"/>
-      <c r="O85" s="234" t="s">
+      <c r="A85" s="242"/>
+      <c r="B85" s="245"/>
+      <c r="C85" s="246"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
+      <c r="H85" s="246"/>
+      <c r="I85" s="246"/>
+      <c r="J85" s="246"/>
+      <c r="K85" s="246"/>
+      <c r="L85" s="246"/>
+      <c r="M85" s="246"/>
+      <c r="N85" s="246"/>
+      <c r="O85" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="P85" s="234"/>
-      <c r="Q85" s="234"/>
-      <c r="R85" s="234" t="s">
+      <c r="P85" s="250"/>
+      <c r="Q85" s="250"/>
+      <c r="R85" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="S85" s="234"/>
-      <c r="T85" s="234"/>
-      <c r="U85" s="232"/>
-      <c r="V85" s="228"/>
-      <c r="W85" s="229"/>
-      <c r="X85" s="229"/>
-      <c r="Y85" s="229"/>
-      <c r="Z85" s="229"/>
-      <c r="AA85" s="229"/>
-      <c r="AB85" s="229"/>
-      <c r="AC85" s="229"/>
-      <c r="AD85" s="229"/>
-      <c r="AE85" s="229"/>
-      <c r="AF85" s="229"/>
-      <c r="AG85" s="229"/>
-      <c r="AH85" s="229"/>
-      <c r="AI85" s="234" t="s">
+      <c r="S85" s="250"/>
+      <c r="T85" s="250"/>
+      <c r="U85" s="248"/>
+      <c r="V85" s="245"/>
+      <c r="W85" s="246"/>
+      <c r="X85" s="246"/>
+      <c r="Y85" s="246"/>
+      <c r="Z85" s="246"/>
+      <c r="AA85" s="246"/>
+      <c r="AB85" s="246"/>
+      <c r="AC85" s="246"/>
+      <c r="AD85" s="246"/>
+      <c r="AE85" s="246"/>
+      <c r="AF85" s="246"/>
+      <c r="AG85" s="246"/>
+      <c r="AH85" s="246"/>
+      <c r="AI85" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="AJ85" s="234"/>
-      <c r="AK85" s="234"/>
-      <c r="AL85" s="234" t="s">
+      <c r="AJ85" s="250"/>
+      <c r="AK85" s="250"/>
+      <c r="AL85" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="AM85" s="234"/>
-      <c r="AN85" s="235"/>
+      <c r="AM85" s="250"/>
+      <c r="AN85" s="251"/>
     </row>
     <row r="86" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="74" t="s">
@@ -13325,11 +13325,11 @@
       <c r="L87" s="52"/>
       <c r="M87" s="52"/>
       <c r="N87" s="53"/>
-      <c r="O87" s="208" t="s">
+      <c r="O87" s="252" t="s">
         <v>148</v>
       </c>
-      <c r="P87" s="209"/>
-      <c r="Q87" s="210"/>
+      <c r="P87" s="253"/>
+      <c r="Q87" s="254"/>
       <c r="R87" s="109"/>
       <c r="S87" s="109"/>
       <c r="T87" s="110"/>
@@ -13349,11 +13349,11 @@
       <c r="AF87" s="56"/>
       <c r="AG87" s="56"/>
       <c r="AH87" s="57"/>
-      <c r="AI87" s="208" t="s">
+      <c r="AI87" s="252" t="s">
         <v>197</v>
       </c>
-      <c r="AJ87" s="209"/>
-      <c r="AK87" s="210"/>
+      <c r="AJ87" s="253"/>
+      <c r="AK87" s="254"/>
       <c r="AL87" s="109"/>
       <c r="AM87" s="109"/>
       <c r="AN87" s="116"/>
@@ -13375,11 +13375,11 @@
       <c r="L88" s="61"/>
       <c r="M88" s="61"/>
       <c r="N88" s="62"/>
-      <c r="O88" s="169" t="s">
+      <c r="O88" s="255" t="s">
         <v>149</v>
       </c>
-      <c r="P88" s="170"/>
-      <c r="Q88" s="211"/>
+      <c r="P88" s="256"/>
+      <c r="Q88" s="257"/>
       <c r="R88" s="111"/>
       <c r="S88" s="111"/>
       <c r="T88" s="112"/>
@@ -13399,11 +13399,11 @@
       <c r="AF88" s="63"/>
       <c r="AG88" s="63"/>
       <c r="AH88" s="73"/>
-      <c r="AI88" s="169" t="s">
+      <c r="AI88" s="255" t="s">
         <v>198</v>
       </c>
-      <c r="AJ88" s="170"/>
-      <c r="AK88" s="211"/>
+      <c r="AJ88" s="256"/>
+      <c r="AK88" s="257"/>
       <c r="AL88" s="111"/>
       <c r="AM88" s="111"/>
       <c r="AN88" s="117"/>
@@ -13447,16 +13447,16 @@
       <c r="AF89" s="67"/>
       <c r="AG89" s="67"/>
       <c r="AH89" s="72"/>
-      <c r="AI89" s="160" t="s">
+      <c r="AI89" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="AJ89" s="161"/>
-      <c r="AK89" s="215"/>
-      <c r="AL89" s="160" t="s">
+      <c r="AJ89" s="259"/>
+      <c r="AK89" s="260"/>
+      <c r="AL89" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="AM89" s="161"/>
-      <c r="AN89" s="162"/>
+      <c r="AM89" s="259"/>
+      <c r="AN89" s="261"/>
     </row>
     <row r="90" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="50"/>
@@ -13475,9 +13475,9 @@
       <c r="L90" s="52"/>
       <c r="M90" s="52"/>
       <c r="N90" s="53"/>
-      <c r="O90" s="172"/>
-      <c r="P90" s="173"/>
-      <c r="Q90" s="174"/>
+      <c r="O90" s="262"/>
+      <c r="P90" s="263"/>
+      <c r="Q90" s="264"/>
       <c r="R90" s="52"/>
       <c r="S90" s="52" t="s">
         <v>150</v>
@@ -13499,11 +13499,11 @@
       <c r="AF90" s="67"/>
       <c r="AG90" s="67"/>
       <c r="AH90" s="72"/>
-      <c r="AI90" s="166" t="s">
+      <c r="AI90" s="265" t="s">
         <v>201</v>
       </c>
-      <c r="AJ90" s="167"/>
-      <c r="AK90" s="219"/>
+      <c r="AJ90" s="266"/>
+      <c r="AK90" s="267"/>
       <c r="AL90" s="118"/>
       <c r="AM90" s="118"/>
       <c r="AN90" s="119"/>
@@ -13525,9 +13525,9 @@
       <c r="L91" s="61"/>
       <c r="M91" s="61"/>
       <c r="N91" s="62"/>
-      <c r="O91" s="202"/>
-      <c r="P91" s="203"/>
-      <c r="Q91" s="204"/>
+      <c r="O91" s="268"/>
+      <c r="P91" s="269"/>
+      <c r="Q91" s="270"/>
       <c r="R91" s="61"/>
       <c r="S91" s="61" t="s">
         <v>151</v>
@@ -13549,9 +13549,9 @@
       <c r="AF91" s="63"/>
       <c r="AG91" s="63"/>
       <c r="AH91" s="73"/>
-      <c r="AI91" s="169"/>
-      <c r="AJ91" s="170"/>
-      <c r="AK91" s="211"/>
+      <c r="AI91" s="255"/>
+      <c r="AJ91" s="256"/>
+      <c r="AK91" s="257"/>
       <c r="AL91" s="111"/>
       <c r="AM91" s="111"/>
       <c r="AN91" s="117"/>
@@ -13595,16 +13595,16 @@
       <c r="AF92" s="67"/>
       <c r="AG92" s="67"/>
       <c r="AH92" s="72"/>
-      <c r="AI92" s="166" t="s">
+      <c r="AI92" s="265" t="s">
         <v>202</v>
       </c>
-      <c r="AJ92" s="167"/>
-      <c r="AK92" s="219"/>
-      <c r="AL92" s="166" t="s">
+      <c r="AJ92" s="266"/>
+      <c r="AK92" s="267"/>
+      <c r="AL92" s="265" t="s">
         <v>203</v>
       </c>
-      <c r="AM92" s="167"/>
-      <c r="AN92" s="168"/>
+      <c r="AM92" s="266"/>
+      <c r="AN92" s="271"/>
     </row>
     <row r="93" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="50" t="s">
@@ -13645,12 +13645,12 @@
       <c r="AF93" s="56"/>
       <c r="AG93" s="56"/>
       <c r="AH93" s="57"/>
-      <c r="AI93" s="208"/>
-      <c r="AJ93" s="209"/>
-      <c r="AK93" s="210"/>
-      <c r="AL93" s="208"/>
-      <c r="AM93" s="209"/>
-      <c r="AN93" s="213"/>
+      <c r="AI93" s="252"/>
+      <c r="AJ93" s="253"/>
+      <c r="AK93" s="254"/>
+      <c r="AL93" s="252"/>
+      <c r="AM93" s="253"/>
+      <c r="AN93" s="272"/>
     </row>
     <row r="94" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="50"/>
@@ -13669,11 +13669,11 @@
       <c r="L94" s="52"/>
       <c r="M94" s="52"/>
       <c r="N94" s="53"/>
-      <c r="O94" s="208" t="s">
+      <c r="O94" s="252" t="s">
         <v>152</v>
       </c>
-      <c r="P94" s="209"/>
-      <c r="Q94" s="210"/>
+      <c r="P94" s="253"/>
+      <c r="Q94" s="254"/>
       <c r="R94" s="109"/>
       <c r="S94" s="109"/>
       <c r="T94" s="110"/>
@@ -13693,12 +13693,12 @@
       <c r="AF94" s="63"/>
       <c r="AG94" s="63"/>
       <c r="AH94" s="73"/>
-      <c r="AI94" s="169"/>
-      <c r="AJ94" s="170"/>
-      <c r="AK94" s="211"/>
-      <c r="AL94" s="169"/>
-      <c r="AM94" s="170"/>
-      <c r="AN94" s="171"/>
+      <c r="AI94" s="255"/>
+      <c r="AJ94" s="256"/>
+      <c r="AK94" s="257"/>
+      <c r="AL94" s="255"/>
+      <c r="AM94" s="256"/>
+      <c r="AN94" s="273"/>
     </row>
     <row r="95" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="59"/>
@@ -13717,11 +13717,11 @@
       <c r="L95" s="61"/>
       <c r="M95" s="61"/>
       <c r="N95" s="62"/>
-      <c r="O95" s="169" t="s">
+      <c r="O95" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="P95" s="170"/>
-      <c r="Q95" s="211"/>
+      <c r="P95" s="256"/>
+      <c r="Q95" s="257"/>
       <c r="R95" s="111"/>
       <c r="S95" s="111"/>
       <c r="T95" s="111"/>
@@ -13741,16 +13741,16 @@
       <c r="AF95" s="67"/>
       <c r="AG95" s="67"/>
       <c r="AH95" s="72"/>
-      <c r="AI95" s="166" t="s">
+      <c r="AI95" s="265" t="s">
         <v>204</v>
       </c>
-      <c r="AJ95" s="167"/>
-      <c r="AK95" s="219"/>
-      <c r="AL95" s="166" t="s">
+      <c r="AJ95" s="266"/>
+      <c r="AK95" s="267"/>
+      <c r="AL95" s="265" t="s">
         <v>205</v>
       </c>
-      <c r="AM95" s="167"/>
-      <c r="AN95" s="168"/>
+      <c r="AM95" s="266"/>
+      <c r="AN95" s="271"/>
     </row>
     <row r="96" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="64" t="s">
@@ -13791,12 +13791,12 @@
       <c r="AF96" s="56"/>
       <c r="AG96" s="56"/>
       <c r="AH96" s="57"/>
-      <c r="AI96" s="208"/>
-      <c r="AJ96" s="209"/>
-      <c r="AK96" s="210"/>
-      <c r="AL96" s="208"/>
-      <c r="AM96" s="209"/>
-      <c r="AN96" s="213"/>
+      <c r="AI96" s="252"/>
+      <c r="AJ96" s="253"/>
+      <c r="AK96" s="254"/>
+      <c r="AL96" s="252"/>
+      <c r="AM96" s="253"/>
+      <c r="AN96" s="272"/>
     </row>
     <row r="97" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
@@ -13837,12 +13837,12 @@
       <c r="AF97" s="63"/>
       <c r="AG97" s="63"/>
       <c r="AH97" s="73"/>
-      <c r="AI97" s="169"/>
-      <c r="AJ97" s="170"/>
-      <c r="AK97" s="211"/>
-      <c r="AL97" s="169"/>
-      <c r="AM97" s="170"/>
-      <c r="AN97" s="171"/>
+      <c r="AI97" s="255"/>
+      <c r="AJ97" s="256"/>
+      <c r="AK97" s="257"/>
+      <c r="AL97" s="255"/>
+      <c r="AM97" s="256"/>
+      <c r="AN97" s="273"/>
     </row>
     <row r="98" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50"/>
@@ -13861,14 +13861,14 @@
       <c r="L98" s="54"/>
       <c r="M98" s="54"/>
       <c r="N98" s="55"/>
-      <c r="O98" s="172"/>
-      <c r="P98" s="173"/>
-      <c r="Q98" s="174"/>
-      <c r="R98" s="208" t="s">
+      <c r="O98" s="262"/>
+      <c r="P98" s="263"/>
+      <c r="Q98" s="264"/>
+      <c r="R98" s="252" t="s">
         <v>154</v>
       </c>
-      <c r="S98" s="209"/>
-      <c r="T98" s="210"/>
+      <c r="S98" s="253"/>
+      <c r="T98" s="254"/>
       <c r="U98" s="80" t="s">
         <v>93</v>
       </c>
@@ -13885,16 +13885,16 @@
       <c r="AF98" s="67"/>
       <c r="AG98" s="67"/>
       <c r="AH98" s="72"/>
-      <c r="AI98" s="166" t="s">
+      <c r="AI98" s="265" t="s">
         <v>206</v>
       </c>
-      <c r="AJ98" s="167"/>
-      <c r="AK98" s="219"/>
-      <c r="AL98" s="166" t="s">
+      <c r="AJ98" s="266"/>
+      <c r="AK98" s="267"/>
+      <c r="AL98" s="265" t="s">
         <v>207</v>
       </c>
-      <c r="AM98" s="167"/>
-      <c r="AN98" s="168"/>
+      <c r="AM98" s="266"/>
+      <c r="AN98" s="271"/>
     </row>
     <row r="99" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="59"/>
@@ -13913,14 +13913,14 @@
       <c r="L99" s="70"/>
       <c r="M99" s="70"/>
       <c r="N99" s="71"/>
-      <c r="O99" s="202"/>
-      <c r="P99" s="203"/>
-      <c r="Q99" s="204"/>
-      <c r="R99" s="169" t="s">
+      <c r="O99" s="268"/>
+      <c r="P99" s="269"/>
+      <c r="Q99" s="270"/>
+      <c r="R99" s="255" t="s">
         <v>155</v>
       </c>
-      <c r="S99" s="170"/>
-      <c r="T99" s="211"/>
+      <c r="S99" s="256"/>
+      <c r="T99" s="257"/>
       <c r="U99" s="79" t="s">
         <v>94</v>
       </c>
@@ -13937,12 +13937,12 @@
       <c r="AF99" s="63"/>
       <c r="AG99" s="63"/>
       <c r="AH99" s="73"/>
-      <c r="AI99" s="169"/>
-      <c r="AJ99" s="170"/>
-      <c r="AK99" s="211"/>
-      <c r="AL99" s="169"/>
-      <c r="AM99" s="170"/>
-      <c r="AN99" s="171"/>
+      <c r="AI99" s="255"/>
+      <c r="AJ99" s="256"/>
+      <c r="AK99" s="257"/>
+      <c r="AL99" s="255"/>
+      <c r="AM99" s="256"/>
+      <c r="AN99" s="273"/>
     </row>
     <row r="100" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="64" t="s">
@@ -13983,16 +13983,16 @@
       <c r="AF100" s="67"/>
       <c r="AG100" s="67"/>
       <c r="AH100" s="72"/>
-      <c r="AI100" s="166" t="s">
+      <c r="AI100" s="265" t="s">
         <v>208</v>
       </c>
-      <c r="AJ100" s="167"/>
-      <c r="AK100" s="219"/>
-      <c r="AL100" s="166" t="s">
+      <c r="AJ100" s="266"/>
+      <c r="AK100" s="267"/>
+      <c r="AL100" s="265" t="s">
         <v>209</v>
       </c>
-      <c r="AM100" s="167"/>
-      <c r="AN100" s="168"/>
+      <c r="AM100" s="266"/>
+      <c r="AN100" s="271"/>
     </row>
     <row r="101" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
@@ -14011,11 +14011,11 @@
       <c r="L101" s="54"/>
       <c r="M101" s="54"/>
       <c r="N101" s="55"/>
-      <c r="O101" s="208" t="s">
+      <c r="O101" s="252" t="s">
         <v>156</v>
       </c>
-      <c r="P101" s="209"/>
-      <c r="Q101" s="210"/>
+      <c r="P101" s="253"/>
+      <c r="Q101" s="254"/>
       <c r="R101" s="109"/>
       <c r="S101" s="109"/>
       <c r="T101" s="109"/>
@@ -14035,12 +14035,12 @@
       <c r="AF101" s="63"/>
       <c r="AG101" s="63"/>
       <c r="AH101" s="73"/>
-      <c r="AI101" s="169"/>
-      <c r="AJ101" s="170"/>
-      <c r="AK101" s="211"/>
-      <c r="AL101" s="169"/>
-      <c r="AM101" s="170"/>
-      <c r="AN101" s="171"/>
+      <c r="AI101" s="255"/>
+      <c r="AJ101" s="256"/>
+      <c r="AK101" s="257"/>
+      <c r="AL101" s="255"/>
+      <c r="AM101" s="256"/>
+      <c r="AN101" s="273"/>
     </row>
     <row r="102" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="59"/>
@@ -14059,11 +14059,11 @@
       <c r="L102" s="70"/>
       <c r="M102" s="70"/>
       <c r="N102" s="71"/>
-      <c r="O102" s="169" t="s">
+      <c r="O102" s="255" t="s">
         <v>157</v>
       </c>
-      <c r="P102" s="170"/>
-      <c r="Q102" s="211"/>
+      <c r="P102" s="256"/>
+      <c r="Q102" s="257"/>
       <c r="R102" s="111"/>
       <c r="S102" s="111"/>
       <c r="T102" s="111"/>
@@ -14153,14 +14153,14 @@
       <c r="L104" s="54"/>
       <c r="M104" s="54"/>
       <c r="N104" s="55"/>
-      <c r="O104" s="172"/>
-      <c r="P104" s="173"/>
-      <c r="Q104" s="174"/>
-      <c r="R104" s="208" t="s">
+      <c r="O104" s="262"/>
+      <c r="P104" s="263"/>
+      <c r="Q104" s="264"/>
+      <c r="R104" s="252" t="s">
         <v>158</v>
       </c>
-      <c r="S104" s="209"/>
-      <c r="T104" s="210"/>
+      <c r="S104" s="253"/>
+      <c r="T104" s="254"/>
       <c r="U104" s="76" t="s">
         <v>98</v>
       </c>
@@ -14201,14 +14201,14 @@
       <c r="L105" s="70"/>
       <c r="M105" s="70"/>
       <c r="N105" s="71"/>
-      <c r="O105" s="202"/>
-      <c r="P105" s="203"/>
-      <c r="Q105" s="204"/>
-      <c r="R105" s="169" t="s">
+      <c r="O105" s="268"/>
+      <c r="P105" s="269"/>
+      <c r="Q105" s="270"/>
+      <c r="R105" s="255" t="s">
         <v>159</v>
       </c>
-      <c r="S105" s="170"/>
-      <c r="T105" s="211"/>
+      <c r="S105" s="256"/>
+      <c r="T105" s="257"/>
       <c r="U105" s="76"/>
       <c r="V105" s="52" t="s">
         <v>47</v>
@@ -14225,11 +14225,11 @@
       <c r="AF105" s="56"/>
       <c r="AG105" s="56"/>
       <c r="AH105" s="57"/>
-      <c r="AI105" s="208" t="s">
+      <c r="AI105" s="252" t="s">
         <v>210</v>
       </c>
-      <c r="AJ105" s="209"/>
-      <c r="AK105" s="210"/>
+      <c r="AJ105" s="253"/>
+      <c r="AK105" s="254"/>
       <c r="AL105" s="15"/>
       <c r="AM105" s="15"/>
       <c r="AN105" s="16"/>
@@ -14273,11 +14273,11 @@
       <c r="AF106" s="63"/>
       <c r="AG106" s="63"/>
       <c r="AH106" s="73"/>
-      <c r="AI106" s="169" t="s">
+      <c r="AI106" s="255" t="s">
         <v>211</v>
       </c>
-      <c r="AJ106" s="170"/>
-      <c r="AK106" s="211"/>
+      <c r="AJ106" s="256"/>
+      <c r="AK106" s="257"/>
       <c r="AL106" s="17"/>
       <c r="AM106" s="17"/>
       <c r="AN106" s="18"/>
@@ -14345,11 +14345,11 @@
       <c r="L108" s="54"/>
       <c r="M108" s="54"/>
       <c r="N108" s="55"/>
-      <c r="O108" s="208" t="s">
+      <c r="O108" s="252" t="s">
         <v>160</v>
       </c>
-      <c r="P108" s="209"/>
-      <c r="Q108" s="210"/>
+      <c r="P108" s="253"/>
+      <c r="Q108" s="254"/>
       <c r="R108" s="109"/>
       <c r="S108" s="109"/>
       <c r="T108" s="109"/>
@@ -14393,11 +14393,11 @@
       <c r="L109" s="54"/>
       <c r="M109" s="54"/>
       <c r="N109" s="55"/>
-      <c r="O109" s="169" t="s">
+      <c r="O109" s="255" t="s">
         <v>161</v>
       </c>
-      <c r="P109" s="170"/>
-      <c r="Q109" s="211"/>
+      <c r="P109" s="256"/>
+      <c r="Q109" s="257"/>
       <c r="R109" s="109"/>
       <c r="S109" s="109"/>
       <c r="T109" s="109"/>
@@ -14463,14 +14463,14 @@
       <c r="AF110" s="56"/>
       <c r="AG110" s="56"/>
       <c r="AH110" s="57"/>
-      <c r="AI110" s="172"/>
-      <c r="AJ110" s="173"/>
-      <c r="AK110" s="174"/>
-      <c r="AL110" s="208" t="s">
+      <c r="AI110" s="262"/>
+      <c r="AJ110" s="263"/>
+      <c r="AK110" s="264"/>
+      <c r="AL110" s="252" t="s">
         <v>212</v>
       </c>
-      <c r="AM110" s="209"/>
-      <c r="AN110" s="213"/>
+      <c r="AM110" s="253"/>
+      <c r="AN110" s="272"/>
     </row>
     <row r="111" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="50" t="s">
@@ -14511,14 +14511,14 @@
       <c r="AF111" s="63"/>
       <c r="AG111" s="63"/>
       <c r="AH111" s="73"/>
-      <c r="AI111" s="202"/>
-      <c r="AJ111" s="203"/>
-      <c r="AK111" s="204"/>
-      <c r="AL111" s="169" t="s">
+      <c r="AI111" s="268"/>
+      <c r="AJ111" s="269"/>
+      <c r="AK111" s="270"/>
+      <c r="AL111" s="255" t="s">
         <v>213</v>
       </c>
-      <c r="AM111" s="170"/>
-      <c r="AN111" s="171"/>
+      <c r="AM111" s="256"/>
+      <c r="AN111" s="273"/>
     </row>
     <row r="112" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="50"/>
@@ -14540,11 +14540,11 @@
       <c r="O112" s="113"/>
       <c r="P112" s="109"/>
       <c r="Q112" s="110"/>
-      <c r="R112" s="208" t="s">
+      <c r="R112" s="252" t="s">
         <v>162</v>
       </c>
-      <c r="S112" s="209"/>
-      <c r="T112" s="210"/>
+      <c r="S112" s="253"/>
+      <c r="T112" s="254"/>
       <c r="U112" s="81" t="s">
         <v>102</v>
       </c>
@@ -14561,11 +14561,11 @@
       <c r="AF112" s="98"/>
       <c r="AG112" s="98"/>
       <c r="AH112" s="99"/>
-      <c r="AI112" s="160" t="s">
+      <c r="AI112" s="258" t="s">
         <v>214</v>
       </c>
-      <c r="AJ112" s="161"/>
-      <c r="AK112" s="215"/>
+      <c r="AJ112" s="259"/>
+      <c r="AK112" s="260"/>
       <c r="AL112" s="125"/>
       <c r="AM112" s="125"/>
       <c r="AN112" s="137"/>
@@ -14590,11 +14590,11 @@
       <c r="O113" s="114"/>
       <c r="P113" s="111"/>
       <c r="Q113" s="112"/>
-      <c r="R113" s="169" t="s">
+      <c r="R113" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="S113" s="170"/>
-      <c r="T113" s="211"/>
+      <c r="S113" s="256"/>
+      <c r="T113" s="257"/>
       <c r="U113" s="81" t="s">
         <v>103</v>
       </c>
@@ -14611,16 +14611,16 @@
       <c r="AF113" s="98"/>
       <c r="AG113" s="98"/>
       <c r="AH113" s="99"/>
-      <c r="AI113" s="160" t="s">
+      <c r="AI113" s="258" t="s">
         <v>215</v>
       </c>
-      <c r="AJ113" s="161"/>
-      <c r="AK113" s="215"/>
-      <c r="AL113" s="160" t="s">
+      <c r="AJ113" s="259"/>
+      <c r="AK113" s="260"/>
+      <c r="AL113" s="258" t="s">
         <v>216</v>
       </c>
-      <c r="AM113" s="161"/>
-      <c r="AN113" s="162"/>
+      <c r="AM113" s="259"/>
+      <c r="AN113" s="261"/>
     </row>
     <row r="114" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="64" t="s">
@@ -14661,16 +14661,16 @@
       <c r="AF114" s="98"/>
       <c r="AG114" s="98"/>
       <c r="AH114" s="99"/>
-      <c r="AI114" s="160" t="s">
+      <c r="AI114" s="258" t="s">
         <v>217</v>
       </c>
-      <c r="AJ114" s="161"/>
-      <c r="AK114" s="215"/>
-      <c r="AL114" s="160" t="s">
+      <c r="AJ114" s="259"/>
+      <c r="AK114" s="260"/>
+      <c r="AL114" s="258" t="s">
         <v>218</v>
       </c>
-      <c r="AM114" s="161"/>
-      <c r="AN114" s="162"/>
+      <c r="AM114" s="259"/>
+      <c r="AN114" s="261"/>
     </row>
     <row r="115" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="50"/>
@@ -14689,11 +14689,11 @@
       <c r="L115" s="54"/>
       <c r="M115" s="54"/>
       <c r="N115" s="55"/>
-      <c r="O115" s="208" t="s">
+      <c r="O115" s="252" t="s">
         <v>164</v>
       </c>
-      <c r="P115" s="209"/>
-      <c r="Q115" s="210"/>
+      <c r="P115" s="253"/>
+      <c r="Q115" s="254"/>
       <c r="R115" s="109"/>
       <c r="S115" s="109"/>
       <c r="T115" s="109"/>
@@ -14713,16 +14713,16 @@
       <c r="AF115" s="67"/>
       <c r="AG115" s="67"/>
       <c r="AH115" s="72"/>
-      <c r="AI115" s="166" t="s">
+      <c r="AI115" s="265" t="s">
         <v>219</v>
       </c>
-      <c r="AJ115" s="167"/>
-      <c r="AK115" s="219"/>
-      <c r="AL115" s="166" t="s">
+      <c r="AJ115" s="266"/>
+      <c r="AK115" s="267"/>
+      <c r="AL115" s="265" t="s">
         <v>220</v>
       </c>
-      <c r="AM115" s="167"/>
-      <c r="AN115" s="168"/>
+      <c r="AM115" s="266"/>
+      <c r="AN115" s="271"/>
     </row>
     <row r="116" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="59"/>
@@ -14741,11 +14741,11 @@
       <c r="L116" s="70"/>
       <c r="M116" s="70"/>
       <c r="N116" s="71"/>
-      <c r="O116" s="169" t="s">
+      <c r="O116" s="255" t="s">
         <v>165</v>
       </c>
-      <c r="P116" s="170"/>
-      <c r="Q116" s="211"/>
+      <c r="P116" s="256"/>
+      <c r="Q116" s="257"/>
       <c r="R116" s="111"/>
       <c r="S116" s="111"/>
       <c r="T116" s="111"/>
@@ -14765,12 +14765,12 @@
       <c r="AF116" s="63"/>
       <c r="AG116" s="63"/>
       <c r="AH116" s="73"/>
-      <c r="AI116" s="169"/>
-      <c r="AJ116" s="170"/>
-      <c r="AK116" s="211"/>
-      <c r="AL116" s="169"/>
-      <c r="AM116" s="170"/>
-      <c r="AN116" s="171"/>
+      <c r="AI116" s="255"/>
+      <c r="AJ116" s="256"/>
+      <c r="AK116" s="257"/>
+      <c r="AL116" s="255"/>
+      <c r="AM116" s="256"/>
+      <c r="AN116" s="273"/>
     </row>
     <row r="117" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="64" t="s">
@@ -14811,16 +14811,16 @@
       <c r="AF117" s="67"/>
       <c r="AG117" s="67"/>
       <c r="AH117" s="72"/>
-      <c r="AI117" s="166" t="s">
+      <c r="AI117" s="265" t="s">
         <v>221</v>
       </c>
-      <c r="AJ117" s="167"/>
-      <c r="AK117" s="219"/>
-      <c r="AL117" s="166" t="s">
+      <c r="AJ117" s="266"/>
+      <c r="AK117" s="267"/>
+      <c r="AL117" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="AM117" s="167"/>
-      <c r="AN117" s="168"/>
+      <c r="AM117" s="266"/>
+      <c r="AN117" s="271"/>
     </row>
     <row r="118" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="50"/>
@@ -14842,11 +14842,11 @@
       <c r="O118" s="113"/>
       <c r="P118" s="109"/>
       <c r="Q118" s="110"/>
-      <c r="R118" s="208" t="s">
+      <c r="R118" s="252" t="s">
         <v>166</v>
       </c>
-      <c r="S118" s="209"/>
-      <c r="T118" s="210"/>
+      <c r="S118" s="253"/>
+      <c r="T118" s="254"/>
       <c r="U118" s="76" t="s">
         <v>115</v>
       </c>
@@ -14863,12 +14863,12 @@
       <c r="AF118" s="56"/>
       <c r="AG118" s="56"/>
       <c r="AH118" s="57"/>
-      <c r="AI118" s="208"/>
-      <c r="AJ118" s="209"/>
-      <c r="AK118" s="210"/>
-      <c r="AL118" s="208"/>
-      <c r="AM118" s="209"/>
-      <c r="AN118" s="213"/>
+      <c r="AI118" s="252"/>
+      <c r="AJ118" s="253"/>
+      <c r="AK118" s="254"/>
+      <c r="AL118" s="252"/>
+      <c r="AM118" s="253"/>
+      <c r="AN118" s="272"/>
     </row>
     <row r="119" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="59"/>
@@ -14890,11 +14890,11 @@
       <c r="O119" s="114"/>
       <c r="P119" s="111"/>
       <c r="Q119" s="112"/>
-      <c r="R119" s="169" t="s">
+      <c r="R119" s="255" t="s">
         <v>167</v>
       </c>
-      <c r="S119" s="170"/>
-      <c r="T119" s="211"/>
+      <c r="S119" s="256"/>
+      <c r="T119" s="257"/>
       <c r="U119" s="79" t="s">
         <v>116</v>
       </c>
@@ -14911,12 +14911,12 @@
       <c r="AF119" s="63"/>
       <c r="AG119" s="63"/>
       <c r="AH119" s="73"/>
-      <c r="AI119" s="169"/>
-      <c r="AJ119" s="170"/>
-      <c r="AK119" s="211"/>
-      <c r="AL119" s="169"/>
-      <c r="AM119" s="170"/>
-      <c r="AN119" s="171"/>
+      <c r="AI119" s="255"/>
+      <c r="AJ119" s="256"/>
+      <c r="AK119" s="257"/>
+      <c r="AL119" s="255"/>
+      <c r="AM119" s="256"/>
+      <c r="AN119" s="273"/>
     </row>
     <row r="120" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="64" t="s">
@@ -14957,16 +14957,16 @@
       <c r="AF120" s="67"/>
       <c r="AG120" s="67"/>
       <c r="AH120" s="72"/>
-      <c r="AI120" s="166" t="s">
+      <c r="AI120" s="265" t="s">
         <v>223</v>
       </c>
-      <c r="AJ120" s="167"/>
-      <c r="AK120" s="219"/>
-      <c r="AL120" s="166" t="s">
+      <c r="AJ120" s="266"/>
+      <c r="AK120" s="267"/>
+      <c r="AL120" s="265" t="s">
         <v>224</v>
       </c>
-      <c r="AM120" s="167"/>
-      <c r="AN120" s="168"/>
+      <c r="AM120" s="266"/>
+      <c r="AN120" s="271"/>
     </row>
     <row r="121" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="50"/>
@@ -14985,11 +14985,11 @@
       <c r="L121" s="54"/>
       <c r="M121" s="54"/>
       <c r="N121" s="55"/>
-      <c r="O121" s="208" t="s">
+      <c r="O121" s="252" t="s">
         <v>168</v>
       </c>
-      <c r="P121" s="209"/>
-      <c r="Q121" s="210"/>
+      <c r="P121" s="253"/>
+      <c r="Q121" s="254"/>
       <c r="R121" s="109"/>
       <c r="S121" s="109"/>
       <c r="T121" s="109"/>
@@ -15009,12 +15009,12 @@
       <c r="AF121" s="56"/>
       <c r="AG121" s="56"/>
       <c r="AH121" s="57"/>
-      <c r="AI121" s="208"/>
-      <c r="AJ121" s="209"/>
-      <c r="AK121" s="210"/>
-      <c r="AL121" s="208"/>
-      <c r="AM121" s="209"/>
-      <c r="AN121" s="213"/>
+      <c r="AI121" s="252"/>
+      <c r="AJ121" s="253"/>
+      <c r="AK121" s="254"/>
+      <c r="AL121" s="252"/>
+      <c r="AM121" s="253"/>
+      <c r="AN121" s="272"/>
     </row>
     <row r="122" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="59"/>
@@ -15033,11 +15033,11 @@
       <c r="L122" s="70"/>
       <c r="M122" s="70"/>
       <c r="N122" s="71"/>
-      <c r="O122" s="169" t="s">
+      <c r="O122" s="255" t="s">
         <v>169</v>
       </c>
-      <c r="P122" s="170"/>
-      <c r="Q122" s="211"/>
+      <c r="P122" s="256"/>
+      <c r="Q122" s="257"/>
       <c r="R122" s="111"/>
       <c r="S122" s="111"/>
       <c r="T122" s="111"/>
@@ -15057,12 +15057,12 @@
       <c r="AF122" s="63"/>
       <c r="AG122" s="63"/>
       <c r="AH122" s="73"/>
-      <c r="AI122" s="169"/>
-      <c r="AJ122" s="170"/>
-      <c r="AK122" s="211"/>
-      <c r="AL122" s="169"/>
-      <c r="AM122" s="170"/>
-      <c r="AN122" s="171"/>
+      <c r="AI122" s="255"/>
+      <c r="AJ122" s="256"/>
+      <c r="AK122" s="257"/>
+      <c r="AL122" s="255"/>
+      <c r="AM122" s="256"/>
+      <c r="AN122" s="273"/>
     </row>
     <row r="123" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="64" t="s">
@@ -15103,16 +15103,16 @@
       <c r="AF123" s="67"/>
       <c r="AG123" s="67"/>
       <c r="AH123" s="72"/>
-      <c r="AI123" s="166" t="s">
+      <c r="AI123" s="265" t="s">
         <v>225</v>
       </c>
-      <c r="AJ123" s="167"/>
-      <c r="AK123" s="219"/>
-      <c r="AL123" s="166" t="s">
+      <c r="AJ123" s="266"/>
+      <c r="AK123" s="267"/>
+      <c r="AL123" s="265" t="s">
         <v>226</v>
       </c>
-      <c r="AM123" s="167"/>
-      <c r="AN123" s="168"/>
+      <c r="AM123" s="266"/>
+      <c r="AN123" s="271"/>
     </row>
     <row r="124" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="50"/>
@@ -15134,11 +15134,11 @@
       <c r="O124" s="113"/>
       <c r="P124" s="109"/>
       <c r="Q124" s="110"/>
-      <c r="R124" s="208" t="s">
+      <c r="R124" s="252" t="s">
         <v>170</v>
       </c>
-      <c r="S124" s="209"/>
-      <c r="T124" s="210"/>
+      <c r="S124" s="253"/>
+      <c r="T124" s="254"/>
       <c r="U124" s="79" t="s">
         <v>108</v>
       </c>
@@ -15155,12 +15155,12 @@
       <c r="AF124" s="63"/>
       <c r="AG124" s="63"/>
       <c r="AH124" s="73"/>
-      <c r="AI124" s="169"/>
-      <c r="AJ124" s="170"/>
-      <c r="AK124" s="211"/>
-      <c r="AL124" s="169"/>
-      <c r="AM124" s="170"/>
-      <c r="AN124" s="171"/>
+      <c r="AI124" s="255"/>
+      <c r="AJ124" s="256"/>
+      <c r="AK124" s="257"/>
+      <c r="AL124" s="255"/>
+      <c r="AM124" s="256"/>
+      <c r="AN124" s="273"/>
     </row>
     <row r="125" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="59"/>
@@ -15182,11 +15182,11 @@
       <c r="O125" s="114"/>
       <c r="P125" s="111"/>
       <c r="Q125" s="112"/>
-      <c r="R125" s="169" t="s">
+      <c r="R125" s="255" t="s">
         <v>171</v>
       </c>
-      <c r="S125" s="170"/>
-      <c r="T125" s="211"/>
+      <c r="S125" s="256"/>
+      <c r="T125" s="257"/>
       <c r="U125" s="80" t="s">
         <v>107</v>
       </c>
@@ -15203,16 +15203,16 @@
       <c r="AF125" s="67"/>
       <c r="AG125" s="67"/>
       <c r="AH125" s="72"/>
-      <c r="AI125" s="166" t="s">
+      <c r="AI125" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="AJ125" s="167"/>
-      <c r="AK125" s="219"/>
-      <c r="AL125" s="166" t="s">
+      <c r="AJ125" s="266"/>
+      <c r="AK125" s="267"/>
+      <c r="AL125" s="265" t="s">
         <v>228</v>
       </c>
-      <c r="AM125" s="167"/>
-      <c r="AN125" s="168"/>
+      <c r="AM125" s="266"/>
+      <c r="AN125" s="271"/>
     </row>
     <row r="126" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="50" t="s">
@@ -15253,12 +15253,12 @@
       <c r="AF126" s="63"/>
       <c r="AG126" s="63"/>
       <c r="AH126" s="73"/>
-      <c r="AI126" s="169"/>
-      <c r="AJ126" s="170"/>
-      <c r="AK126" s="211"/>
-      <c r="AL126" s="169"/>
-      <c r="AM126" s="170"/>
-      <c r="AN126" s="171"/>
+      <c r="AI126" s="255"/>
+      <c r="AJ126" s="256"/>
+      <c r="AK126" s="257"/>
+      <c r="AL126" s="255"/>
+      <c r="AM126" s="256"/>
+      <c r="AN126" s="273"/>
     </row>
     <row r="127" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="50"/>
@@ -15277,11 +15277,11 @@
       <c r="L127" s="54"/>
       <c r="M127" s="54"/>
       <c r="N127" s="55"/>
-      <c r="O127" s="208" t="s">
+      <c r="O127" s="252" t="s">
         <v>172</v>
       </c>
-      <c r="P127" s="209"/>
-      <c r="Q127" s="210"/>
+      <c r="P127" s="253"/>
+      <c r="Q127" s="254"/>
       <c r="R127" s="109"/>
       <c r="S127" s="109"/>
       <c r="T127" s="109"/>
@@ -15301,16 +15301,16 @@
       <c r="AF127" s="67"/>
       <c r="AG127" s="67"/>
       <c r="AH127" s="72"/>
-      <c r="AI127" s="166" t="s">
+      <c r="AI127" s="265" t="s">
         <v>229</v>
       </c>
-      <c r="AJ127" s="167"/>
-      <c r="AK127" s="219"/>
-      <c r="AL127" s="166" t="s">
+      <c r="AJ127" s="266"/>
+      <c r="AK127" s="267"/>
+      <c r="AL127" s="265" t="s">
         <v>230</v>
       </c>
-      <c r="AM127" s="167"/>
-      <c r="AN127" s="168"/>
+      <c r="AM127" s="266"/>
+      <c r="AN127" s="271"/>
     </row>
     <row r="128" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="59"/>
@@ -15329,11 +15329,11 @@
       <c r="L128" s="70"/>
       <c r="M128" s="70"/>
       <c r="N128" s="71"/>
-      <c r="O128" s="169" t="s">
+      <c r="O128" s="255" t="s">
         <v>173</v>
       </c>
-      <c r="P128" s="170"/>
-      <c r="Q128" s="211"/>
+      <c r="P128" s="256"/>
+      <c r="Q128" s="257"/>
       <c r="R128" s="111"/>
       <c r="S128" s="111"/>
       <c r="T128" s="111"/>
@@ -15353,12 +15353,12 @@
       <c r="AF128" s="56"/>
       <c r="AG128" s="56"/>
       <c r="AH128" s="57"/>
-      <c r="AI128" s="208"/>
-      <c r="AJ128" s="209"/>
-      <c r="AK128" s="210"/>
-      <c r="AL128" s="208"/>
-      <c r="AM128" s="209"/>
-      <c r="AN128" s="213"/>
+      <c r="AI128" s="252"/>
+      <c r="AJ128" s="253"/>
+      <c r="AK128" s="254"/>
+      <c r="AL128" s="252"/>
+      <c r="AM128" s="253"/>
+      <c r="AN128" s="272"/>
     </row>
     <row r="129" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="50" t="s">
@@ -15399,12 +15399,12 @@
       <c r="AF129" s="56"/>
       <c r="AG129" s="56"/>
       <c r="AH129" s="57"/>
-      <c r="AI129" s="208"/>
-      <c r="AJ129" s="209"/>
-      <c r="AK129" s="210"/>
-      <c r="AL129" s="208"/>
-      <c r="AM129" s="209"/>
-      <c r="AN129" s="213"/>
+      <c r="AI129" s="252"/>
+      <c r="AJ129" s="253"/>
+      <c r="AK129" s="254"/>
+      <c r="AL129" s="252"/>
+      <c r="AM129" s="253"/>
+      <c r="AN129" s="272"/>
     </row>
     <row r="130" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="50"/>
@@ -15426,11 +15426,11 @@
       <c r="O130" s="113"/>
       <c r="P130" s="109"/>
       <c r="Q130" s="110"/>
-      <c r="R130" s="208" t="s">
+      <c r="R130" s="252" t="s">
         <v>174</v>
       </c>
-      <c r="S130" s="209"/>
-      <c r="T130" s="210"/>
+      <c r="S130" s="253"/>
+      <c r="T130" s="254"/>
       <c r="U130" s="79" t="s">
         <v>122</v>
       </c>
@@ -15447,12 +15447,12 @@
       <c r="AF130" s="63"/>
       <c r="AG130" s="63"/>
       <c r="AH130" s="73"/>
-      <c r="AI130" s="169"/>
-      <c r="AJ130" s="170"/>
-      <c r="AK130" s="211"/>
-      <c r="AL130" s="169"/>
-      <c r="AM130" s="170"/>
-      <c r="AN130" s="171"/>
+      <c r="AI130" s="255"/>
+      <c r="AJ130" s="256"/>
+      <c r="AK130" s="257"/>
+      <c r="AL130" s="255"/>
+      <c r="AM130" s="256"/>
+      <c r="AN130" s="273"/>
     </row>
     <row r="131" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="59"/>
@@ -15474,11 +15474,11 @@
       <c r="O131" s="114"/>
       <c r="P131" s="111"/>
       <c r="Q131" s="112"/>
-      <c r="R131" s="169" t="s">
+      <c r="R131" s="255" t="s">
         <v>175</v>
       </c>
-      <c r="S131" s="170"/>
-      <c r="T131" s="211"/>
+      <c r="S131" s="256"/>
+      <c r="T131" s="257"/>
       <c r="U131" s="80" t="s">
         <v>119</v>
       </c>
@@ -15495,16 +15495,16 @@
       <c r="AF131" s="67"/>
       <c r="AG131" s="67"/>
       <c r="AH131" s="72"/>
-      <c r="AI131" s="166" t="s">
+      <c r="AI131" s="265" t="s">
         <v>231</v>
       </c>
-      <c r="AJ131" s="167"/>
-      <c r="AK131" s="219"/>
-      <c r="AL131" s="166" t="s">
+      <c r="AJ131" s="266"/>
+      <c r="AK131" s="267"/>
+      <c r="AL131" s="265" t="s">
         <v>232</v>
       </c>
-      <c r="AM131" s="167"/>
-      <c r="AN131" s="168"/>
+      <c r="AM131" s="266"/>
+      <c r="AN131" s="271"/>
     </row>
     <row r="132" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="50" t="s">
@@ -15545,12 +15545,12 @@
       <c r="AF132" s="56"/>
       <c r="AG132" s="56"/>
       <c r="AH132" s="57"/>
-      <c r="AI132" s="208"/>
-      <c r="AJ132" s="209"/>
-      <c r="AK132" s="210"/>
-      <c r="AL132" s="208"/>
-      <c r="AM132" s="209"/>
-      <c r="AN132" s="213"/>
+      <c r="AI132" s="252"/>
+      <c r="AJ132" s="253"/>
+      <c r="AK132" s="254"/>
+      <c r="AL132" s="252"/>
+      <c r="AM132" s="253"/>
+      <c r="AN132" s="272"/>
     </row>
     <row r="133" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="50"/>
@@ -15569,11 +15569,11 @@
       <c r="L133" s="54"/>
       <c r="M133" s="54"/>
       <c r="N133" s="55"/>
-      <c r="O133" s="208" t="s">
+      <c r="O133" s="252" t="s">
         <v>176</v>
       </c>
-      <c r="P133" s="209"/>
-      <c r="Q133" s="210"/>
+      <c r="P133" s="253"/>
+      <c r="Q133" s="254"/>
       <c r="R133" s="109"/>
       <c r="S133" s="109"/>
       <c r="T133" s="109"/>
@@ -15593,12 +15593,12 @@
       <c r="AF133" s="56"/>
       <c r="AG133" s="56"/>
       <c r="AH133" s="57"/>
-      <c r="AI133" s="208"/>
-      <c r="AJ133" s="209"/>
-      <c r="AK133" s="210"/>
-      <c r="AL133" s="208"/>
-      <c r="AM133" s="209"/>
-      <c r="AN133" s="213"/>
+      <c r="AI133" s="252"/>
+      <c r="AJ133" s="253"/>
+      <c r="AK133" s="254"/>
+      <c r="AL133" s="252"/>
+      <c r="AM133" s="253"/>
+      <c r="AN133" s="272"/>
     </row>
     <row r="134" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="59"/>
@@ -15617,11 +15617,11 @@
       <c r="L134" s="70"/>
       <c r="M134" s="70"/>
       <c r="N134" s="71"/>
-      <c r="O134" s="169" t="s">
+      <c r="O134" s="255" t="s">
         <v>177</v>
       </c>
-      <c r="P134" s="170"/>
-      <c r="Q134" s="211"/>
+      <c r="P134" s="256"/>
+      <c r="Q134" s="257"/>
       <c r="R134" s="111"/>
       <c r="S134" s="111"/>
       <c r="T134" s="111"/>
@@ -15641,12 +15641,12 @@
       <c r="AF134" s="63"/>
       <c r="AG134" s="63"/>
       <c r="AH134" s="73"/>
-      <c r="AI134" s="169"/>
-      <c r="AJ134" s="170"/>
-      <c r="AK134" s="211"/>
-      <c r="AL134" s="169"/>
-      <c r="AM134" s="170"/>
-      <c r="AN134" s="171"/>
+      <c r="AI134" s="255"/>
+      <c r="AJ134" s="256"/>
+      <c r="AK134" s="257"/>
+      <c r="AL134" s="255"/>
+      <c r="AM134" s="256"/>
+      <c r="AN134" s="273"/>
     </row>
     <row r="135" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="50" t="s">
@@ -15687,16 +15687,16 @@
       <c r="AF135" s="67"/>
       <c r="AG135" s="67"/>
       <c r="AH135" s="72"/>
-      <c r="AI135" s="166" t="s">
+      <c r="AI135" s="265" t="s">
         <v>233</v>
       </c>
-      <c r="AJ135" s="167"/>
-      <c r="AK135" s="219"/>
-      <c r="AL135" s="166" t="s">
+      <c r="AJ135" s="266"/>
+      <c r="AK135" s="267"/>
+      <c r="AL135" s="265" t="s">
         <v>234</v>
       </c>
-      <c r="AM135" s="167"/>
-      <c r="AN135" s="168"/>
+      <c r="AM135" s="266"/>
+      <c r="AN135" s="271"/>
     </row>
     <row r="136" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="50"/>
@@ -15718,11 +15718,11 @@
       <c r="O136" s="113"/>
       <c r="P136" s="109"/>
       <c r="Q136" s="110"/>
-      <c r="R136" s="208" t="s">
+      <c r="R136" s="252" t="s">
         <v>178</v>
       </c>
-      <c r="S136" s="209"/>
-      <c r="T136" s="210"/>
+      <c r="S136" s="253"/>
+      <c r="T136" s="254"/>
       <c r="U136" s="76" t="s">
         <v>120</v>
       </c>
@@ -15739,12 +15739,12 @@
       <c r="AF136" s="56"/>
       <c r="AG136" s="56"/>
       <c r="AH136" s="57"/>
-      <c r="AI136" s="208"/>
-      <c r="AJ136" s="209"/>
-      <c r="AK136" s="210"/>
-      <c r="AL136" s="208"/>
-      <c r="AM136" s="209"/>
-      <c r="AN136" s="213"/>
+      <c r="AI136" s="252"/>
+      <c r="AJ136" s="253"/>
+      <c r="AK136" s="254"/>
+      <c r="AL136" s="252"/>
+      <c r="AM136" s="253"/>
+      <c r="AN136" s="272"/>
     </row>
     <row r="137" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="59"/>
@@ -15766,11 +15766,11 @@
       <c r="O137" s="114"/>
       <c r="P137" s="111"/>
       <c r="Q137" s="112"/>
-      <c r="R137" s="169" t="s">
+      <c r="R137" s="255" t="s">
         <v>179</v>
       </c>
-      <c r="S137" s="170"/>
-      <c r="T137" s="211"/>
+      <c r="S137" s="256"/>
+      <c r="T137" s="257"/>
       <c r="U137" s="76" t="s">
         <v>121</v>
       </c>
@@ -15787,12 +15787,12 @@
       <c r="AF137" s="56"/>
       <c r="AG137" s="56"/>
       <c r="AH137" s="57"/>
-      <c r="AI137" s="208"/>
-      <c r="AJ137" s="209"/>
-      <c r="AK137" s="210"/>
-      <c r="AL137" s="208"/>
-      <c r="AM137" s="209"/>
-      <c r="AN137" s="213"/>
+      <c r="AI137" s="252"/>
+      <c r="AJ137" s="253"/>
+      <c r="AK137" s="254"/>
+      <c r="AL137" s="252"/>
+      <c r="AM137" s="253"/>
+      <c r="AN137" s="272"/>
     </row>
     <row r="138" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="50" t="s">
@@ -15833,12 +15833,12 @@
       <c r="AF138" s="63"/>
       <c r="AG138" s="63"/>
       <c r="AH138" s="73"/>
-      <c r="AI138" s="169"/>
-      <c r="AJ138" s="170"/>
-      <c r="AK138" s="211"/>
-      <c r="AL138" s="169"/>
-      <c r="AM138" s="170"/>
-      <c r="AN138" s="171"/>
+      <c r="AI138" s="255"/>
+      <c r="AJ138" s="256"/>
+      <c r="AK138" s="257"/>
+      <c r="AL138" s="255"/>
+      <c r="AM138" s="256"/>
+      <c r="AN138" s="273"/>
     </row>
     <row r="139" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="50"/>
@@ -15857,11 +15857,11 @@
       <c r="L139" s="54"/>
       <c r="M139" s="54"/>
       <c r="N139" s="55"/>
-      <c r="O139" s="208" t="s">
+      <c r="O139" s="252" t="s">
         <v>180</v>
       </c>
-      <c r="P139" s="209"/>
-      <c r="Q139" s="210"/>
+      <c r="P139" s="253"/>
+      <c r="Q139" s="254"/>
       <c r="R139" s="109"/>
       <c r="S139" s="109"/>
       <c r="T139" s="109"/>
@@ -15881,16 +15881,16 @@
       <c r="AF139" s="67"/>
       <c r="AG139" s="67"/>
       <c r="AH139" s="72"/>
-      <c r="AI139" s="166" t="s">
+      <c r="AI139" s="265" t="s">
         <v>235</v>
       </c>
-      <c r="AJ139" s="167"/>
-      <c r="AK139" s="219"/>
-      <c r="AL139" s="166" t="s">
+      <c r="AJ139" s="266"/>
+      <c r="AK139" s="267"/>
+      <c r="AL139" s="265" t="s">
         <v>236</v>
       </c>
-      <c r="AM139" s="167"/>
-      <c r="AN139" s="168"/>
+      <c r="AM139" s="266"/>
+      <c r="AN139" s="271"/>
     </row>
     <row r="140" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="59"/>
@@ -15909,11 +15909,11 @@
       <c r="L140" s="70"/>
       <c r="M140" s="70"/>
       <c r="N140" s="71"/>
-      <c r="O140" s="169" t="s">
+      <c r="O140" s="255" t="s">
         <v>181</v>
       </c>
-      <c r="P140" s="170"/>
-      <c r="Q140" s="211"/>
+      <c r="P140" s="256"/>
+      <c r="Q140" s="257"/>
       <c r="R140" s="111"/>
       <c r="S140" s="111"/>
       <c r="T140" s="111"/>
@@ -15933,12 +15933,12 @@
       <c r="AF140" s="56"/>
       <c r="AG140" s="56"/>
       <c r="AH140" s="57"/>
-      <c r="AI140" s="208"/>
-      <c r="AJ140" s="209"/>
-      <c r="AK140" s="210"/>
-      <c r="AL140" s="208"/>
-      <c r="AM140" s="209"/>
-      <c r="AN140" s="213"/>
+      <c r="AI140" s="252"/>
+      <c r="AJ140" s="253"/>
+      <c r="AK140" s="254"/>
+      <c r="AL140" s="252"/>
+      <c r="AM140" s="253"/>
+      <c r="AN140" s="272"/>
     </row>
     <row r="141" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="50" t="s">
@@ -15957,16 +15957,16 @@
       <c r="L141" s="54"/>
       <c r="M141" s="54"/>
       <c r="N141" s="55"/>
-      <c r="O141" s="166" t="s">
+      <c r="O141" s="265" t="s">
         <v>182</v>
       </c>
-      <c r="P141" s="167"/>
-      <c r="Q141" s="219"/>
-      <c r="R141" s="166" t="s">
+      <c r="P141" s="266"/>
+      <c r="Q141" s="267"/>
+      <c r="R141" s="265" t="s">
         <v>183</v>
       </c>
-      <c r="S141" s="167"/>
-      <c r="T141" s="219"/>
+      <c r="S141" s="266"/>
+      <c r="T141" s="267"/>
       <c r="U141" s="76" t="s">
         <v>128</v>
       </c>
@@ -15983,12 +15983,12 @@
       <c r="AF141" s="56"/>
       <c r="AG141" s="56"/>
       <c r="AH141" s="57"/>
-      <c r="AI141" s="208"/>
-      <c r="AJ141" s="209"/>
-      <c r="AK141" s="210"/>
-      <c r="AL141" s="208"/>
-      <c r="AM141" s="209"/>
-      <c r="AN141" s="213"/>
+      <c r="AI141" s="252"/>
+      <c r="AJ141" s="253"/>
+      <c r="AK141" s="254"/>
+      <c r="AL141" s="252"/>
+      <c r="AM141" s="253"/>
+      <c r="AN141" s="272"/>
     </row>
     <row r="142" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="50" t="s">
@@ -16007,12 +16007,12 @@
       <c r="L142" s="54"/>
       <c r="M142" s="54"/>
       <c r="N142" s="55"/>
-      <c r="O142" s="208"/>
-      <c r="P142" s="209"/>
-      <c r="Q142" s="210"/>
-      <c r="R142" s="208"/>
-      <c r="S142" s="209"/>
-      <c r="T142" s="210"/>
+      <c r="O142" s="252"/>
+      <c r="P142" s="253"/>
+      <c r="Q142" s="254"/>
+      <c r="R142" s="252"/>
+      <c r="S142" s="253"/>
+      <c r="T142" s="254"/>
       <c r="U142" s="79" t="s">
         <v>129</v>
       </c>
@@ -16029,12 +16029,12 @@
       <c r="AF142" s="63"/>
       <c r="AG142" s="63"/>
       <c r="AH142" s="73"/>
-      <c r="AI142" s="169"/>
-      <c r="AJ142" s="170"/>
-      <c r="AK142" s="211"/>
-      <c r="AL142" s="169"/>
-      <c r="AM142" s="170"/>
-      <c r="AN142" s="171"/>
+      <c r="AI142" s="255"/>
+      <c r="AJ142" s="256"/>
+      <c r="AK142" s="257"/>
+      <c r="AL142" s="255"/>
+      <c r="AM142" s="256"/>
+      <c r="AN142" s="273"/>
     </row>
     <row r="143" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="50" t="s">
@@ -16053,12 +16053,12 @@
       <c r="L143" s="54"/>
       <c r="M143" s="54"/>
       <c r="N143" s="55"/>
-      <c r="O143" s="208"/>
-      <c r="P143" s="209"/>
-      <c r="Q143" s="210"/>
-      <c r="R143" s="208"/>
-      <c r="S143" s="209"/>
-      <c r="T143" s="210"/>
+      <c r="O143" s="252"/>
+      <c r="P143" s="253"/>
+      <c r="Q143" s="254"/>
+      <c r="R143" s="252"/>
+      <c r="S143" s="253"/>
+      <c r="T143" s="254"/>
       <c r="U143" s="80" t="s">
         <v>130</v>
       </c>
@@ -16075,16 +16075,16 @@
       <c r="AF143" s="67"/>
       <c r="AG143" s="67"/>
       <c r="AH143" s="72"/>
-      <c r="AI143" s="166" t="s">
+      <c r="AI143" s="265" t="s">
         <v>237</v>
       </c>
-      <c r="AJ143" s="167"/>
-      <c r="AK143" s="219"/>
-      <c r="AL143" s="166" t="s">
+      <c r="AJ143" s="266"/>
+      <c r="AK143" s="267"/>
+      <c r="AL143" s="265" t="s">
         <v>238</v>
       </c>
-      <c r="AM143" s="167"/>
-      <c r="AN143" s="168"/>
+      <c r="AM143" s="266"/>
+      <c r="AN143" s="271"/>
     </row>
     <row r="144" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="59" t="s">
@@ -16103,12 +16103,12 @@
       <c r="L144" s="70"/>
       <c r="M144" s="70"/>
       <c r="N144" s="71"/>
-      <c r="O144" s="169"/>
-      <c r="P144" s="170"/>
-      <c r="Q144" s="211"/>
-      <c r="R144" s="169"/>
-      <c r="S144" s="170"/>
-      <c r="T144" s="211"/>
+      <c r="O144" s="255"/>
+      <c r="P144" s="256"/>
+      <c r="Q144" s="257"/>
+      <c r="R144" s="255"/>
+      <c r="S144" s="256"/>
+      <c r="T144" s="257"/>
       <c r="U144" s="76" t="s">
         <v>131</v>
       </c>
@@ -16125,12 +16125,12 @@
       <c r="AF144" s="56"/>
       <c r="AG144" s="56"/>
       <c r="AH144" s="57"/>
-      <c r="AI144" s="208"/>
-      <c r="AJ144" s="209"/>
-      <c r="AK144" s="210"/>
-      <c r="AL144" s="208"/>
-      <c r="AM144" s="209"/>
-      <c r="AN144" s="213"/>
+      <c r="AI144" s="252"/>
+      <c r="AJ144" s="253"/>
+      <c r="AK144" s="254"/>
+      <c r="AL144" s="252"/>
+      <c r="AM144" s="253"/>
+      <c r="AN144" s="272"/>
     </row>
     <row r="145" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="64" t="s">
@@ -16149,16 +16149,16 @@
       <c r="L145" s="68"/>
       <c r="M145" s="68"/>
       <c r="N145" s="69"/>
-      <c r="O145" s="166" t="s">
+      <c r="O145" s="265" t="s">
         <v>184</v>
       </c>
-      <c r="P145" s="167"/>
-      <c r="Q145" s="219"/>
-      <c r="R145" s="166" t="s">
+      <c r="P145" s="266"/>
+      <c r="Q145" s="267"/>
+      <c r="R145" s="265" t="s">
         <v>185</v>
       </c>
-      <c r="S145" s="167"/>
-      <c r="T145" s="219"/>
+      <c r="S145" s="266"/>
+      <c r="T145" s="267"/>
       <c r="U145" s="76" t="s">
         <v>132</v>
       </c>
@@ -16175,12 +16175,12 @@
       <c r="AF145" s="56"/>
       <c r="AG145" s="56"/>
       <c r="AH145" s="57"/>
-      <c r="AI145" s="208"/>
-      <c r="AJ145" s="209"/>
-      <c r="AK145" s="210"/>
-      <c r="AL145" s="208"/>
-      <c r="AM145" s="209"/>
-      <c r="AN145" s="213"/>
+      <c r="AI145" s="252"/>
+      <c r="AJ145" s="253"/>
+      <c r="AK145" s="254"/>
+      <c r="AL145" s="252"/>
+      <c r="AM145" s="253"/>
+      <c r="AN145" s="272"/>
     </row>
     <row r="146" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="59" t="s">
@@ -16199,12 +16199,12 @@
       <c r="L146" s="70"/>
       <c r="M146" s="70"/>
       <c r="N146" s="71"/>
-      <c r="O146" s="169"/>
-      <c r="P146" s="170"/>
-      <c r="Q146" s="211"/>
-      <c r="R146" s="169"/>
-      <c r="S146" s="170"/>
-      <c r="T146" s="211"/>
+      <c r="O146" s="255"/>
+      <c r="P146" s="256"/>
+      <c r="Q146" s="257"/>
+      <c r="R146" s="255"/>
+      <c r="S146" s="256"/>
+      <c r="T146" s="257"/>
       <c r="U146" s="76" t="s">
         <v>133</v>
       </c>
@@ -16221,12 +16221,12 @@
       <c r="AF146" s="56"/>
       <c r="AG146" s="56"/>
       <c r="AH146" s="57"/>
-      <c r="AI146" s="208"/>
-      <c r="AJ146" s="209"/>
-      <c r="AK146" s="210"/>
-      <c r="AL146" s="208"/>
-      <c r="AM146" s="209"/>
-      <c r="AN146" s="213"/>
+      <c r="AI146" s="252"/>
+      <c r="AJ146" s="253"/>
+      <c r="AK146" s="254"/>
+      <c r="AL146" s="252"/>
+      <c r="AM146" s="253"/>
+      <c r="AN146" s="272"/>
     </row>
     <row r="147" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="100" t="s">
@@ -16245,16 +16245,16 @@
       <c r="L147" s="102"/>
       <c r="M147" s="102"/>
       <c r="N147" s="103"/>
-      <c r="O147" s="160" t="s">
+      <c r="O147" s="258" t="s">
         <v>186</v>
       </c>
-      <c r="P147" s="161"/>
-      <c r="Q147" s="215"/>
-      <c r="R147" s="160" t="s">
+      <c r="P147" s="259"/>
+      <c r="Q147" s="260"/>
+      <c r="R147" s="258" t="s">
         <v>187</v>
       </c>
-      <c r="S147" s="161"/>
-      <c r="T147" s="215"/>
+      <c r="S147" s="259"/>
+      <c r="T147" s="260"/>
       <c r="U147" s="79" t="s">
         <v>134</v>
       </c>
@@ -16271,12 +16271,12 @@
       <c r="AF147" s="63"/>
       <c r="AG147" s="63"/>
       <c r="AH147" s="73"/>
-      <c r="AI147" s="169"/>
-      <c r="AJ147" s="170"/>
-      <c r="AK147" s="211"/>
-      <c r="AL147" s="169"/>
-      <c r="AM147" s="170"/>
-      <c r="AN147" s="171"/>
+      <c r="AI147" s="255"/>
+      <c r="AJ147" s="256"/>
+      <c r="AK147" s="257"/>
+      <c r="AL147" s="255"/>
+      <c r="AM147" s="256"/>
+      <c r="AN147" s="273"/>
     </row>
     <row r="148" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="100" t="s">
@@ -16295,11 +16295,11 @@
       <c r="L148" s="102"/>
       <c r="M148" s="102"/>
       <c r="N148" s="103"/>
-      <c r="O148" s="160" t="s">
+      <c r="O148" s="258" t="s">
         <v>188</v>
       </c>
-      <c r="P148" s="161"/>
-      <c r="Q148" s="215"/>
+      <c r="P148" s="259"/>
+      <c r="Q148" s="260"/>
       <c r="R148" s="125"/>
       <c r="S148" s="125"/>
       <c r="T148" s="125"/>
@@ -16319,14 +16319,14 @@
       <c r="AF148" s="98"/>
       <c r="AG148" s="98"/>
       <c r="AH148" s="99"/>
-      <c r="AI148" s="216"/>
-      <c r="AJ148" s="217"/>
-      <c r="AK148" s="218"/>
-      <c r="AL148" s="160" t="s">
+      <c r="AI148" s="274"/>
+      <c r="AJ148" s="275"/>
+      <c r="AK148" s="276"/>
+      <c r="AL148" s="258" t="s">
         <v>239</v>
       </c>
-      <c r="AM148" s="161"/>
-      <c r="AN148" s="162"/>
+      <c r="AM148" s="259"/>
+      <c r="AN148" s="261"/>
     </row>
     <row r="149" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="64" t="s">
@@ -16367,16 +16367,16 @@
       <c r="AF149" s="67"/>
       <c r="AG149" s="67"/>
       <c r="AH149" s="72"/>
-      <c r="AI149" s="166" t="s">
+      <c r="AI149" s="265" t="s">
         <v>240</v>
       </c>
-      <c r="AJ149" s="167"/>
-      <c r="AK149" s="219"/>
-      <c r="AL149" s="166" t="s">
+      <c r="AJ149" s="266"/>
+      <c r="AK149" s="267"/>
+      <c r="AL149" s="265" t="s">
         <v>241</v>
       </c>
-      <c r="AM149" s="167"/>
-      <c r="AN149" s="168"/>
+      <c r="AM149" s="266"/>
+      <c r="AN149" s="271"/>
     </row>
     <row r="150" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="50" t="s">
@@ -16417,12 +16417,12 @@
       <c r="AF150" s="63"/>
       <c r="AG150" s="63"/>
       <c r="AH150" s="73"/>
-      <c r="AI150" s="169"/>
-      <c r="AJ150" s="170"/>
-      <c r="AK150" s="211"/>
-      <c r="AL150" s="169"/>
-      <c r="AM150" s="170"/>
-      <c r="AN150" s="171"/>
+      <c r="AI150" s="255"/>
+      <c r="AJ150" s="256"/>
+      <c r="AK150" s="257"/>
+      <c r="AL150" s="255"/>
+      <c r="AM150" s="256"/>
+      <c r="AN150" s="273"/>
     </row>
     <row r="151" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="50" t="s">
@@ -16463,16 +16463,16 @@
       <c r="AF151" s="98"/>
       <c r="AG151" s="98"/>
       <c r="AH151" s="99"/>
-      <c r="AI151" s="160" t="s">
+      <c r="AI151" s="258" t="s">
         <v>242</v>
       </c>
-      <c r="AJ151" s="161"/>
-      <c r="AK151" s="215"/>
-      <c r="AL151" s="160" t="s">
+      <c r="AJ151" s="259"/>
+      <c r="AK151" s="260"/>
+      <c r="AL151" s="258" t="s">
         <v>243</v>
       </c>
-      <c r="AM151" s="161"/>
-      <c r="AN151" s="162"/>
+      <c r="AM151" s="259"/>
+      <c r="AN151" s="261"/>
     </row>
     <row r="152" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="50" t="s">
@@ -16507,24 +16507,24 @@
       <c r="Z152" s="56"/>
       <c r="AA152" s="56"/>
       <c r="AB152" s="56"/>
-      <c r="AC152" s="220">
+      <c r="AC152" s="277">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD152" s="220"/>
+      <c r="AD152" s="277"/>
       <c r="AE152" s="56"/>
       <c r="AF152" s="56"/>
       <c r="AG152" s="56"/>
       <c r="AH152" s="57"/>
-      <c r="AI152" s="208" t="s">
+      <c r="AI152" s="252" t="s">
         <v>244</v>
       </c>
-      <c r="AJ152" s="209"/>
-      <c r="AK152" s="210"/>
-      <c r="AL152" s="208" t="s">
+      <c r="AJ152" s="253"/>
+      <c r="AK152" s="254"/>
+      <c r="AL152" s="252" t="s">
         <v>248</v>
       </c>
-      <c r="AM152" s="209"/>
-      <c r="AN152" s="213"/>
+      <c r="AM152" s="253"/>
+      <c r="AN152" s="272"/>
     </row>
     <row r="153" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="50"/>
@@ -16543,11 +16543,11 @@
       <c r="L153" s="54"/>
       <c r="M153" s="54"/>
       <c r="N153" s="55"/>
-      <c r="O153" s="208" t="s">
+      <c r="O153" s="252" t="s">
         <v>189</v>
       </c>
-      <c r="P153" s="209"/>
-      <c r="Q153" s="210"/>
+      <c r="P153" s="253"/>
+      <c r="Q153" s="254"/>
       <c r="R153" s="109"/>
       <c r="S153" s="109"/>
       <c r="T153" s="109"/>
@@ -16559,24 +16559,24 @@
       <c r="Z153" s="56"/>
       <c r="AA153" s="56"/>
       <c r="AB153" s="56"/>
-      <c r="AC153" s="212">
+      <c r="AC153" s="278">
         <v>0.03</v>
       </c>
-      <c r="AD153" s="212"/>
+      <c r="AD153" s="278"/>
       <c r="AE153" s="56"/>
       <c r="AF153" s="56"/>
       <c r="AG153" s="56"/>
       <c r="AH153" s="57"/>
-      <c r="AI153" s="208" t="s">
+      <c r="AI153" s="252" t="s">
         <v>245</v>
       </c>
-      <c r="AJ153" s="209"/>
-      <c r="AK153" s="210"/>
-      <c r="AL153" s="208" t="s">
+      <c r="AJ153" s="253"/>
+      <c r="AK153" s="254"/>
+      <c r="AL153" s="252" t="s">
         <v>249</v>
       </c>
-      <c r="AM153" s="209"/>
-      <c r="AN153" s="213"/>
+      <c r="AM153" s="253"/>
+      <c r="AN153" s="272"/>
     </row>
     <row r="154" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="59"/>
@@ -16595,11 +16595,11 @@
       <c r="L154" s="70"/>
       <c r="M154" s="70"/>
       <c r="N154" s="71"/>
-      <c r="O154" s="169" t="s">
+      <c r="O154" s="255" t="s">
         <v>190</v>
       </c>
-      <c r="P154" s="170"/>
-      <c r="Q154" s="211"/>
+      <c r="P154" s="256"/>
+      <c r="Q154" s="257"/>
       <c r="R154" s="111"/>
       <c r="S154" s="111"/>
       <c r="T154" s="111"/>
@@ -16611,24 +16611,24 @@
       <c r="Z154" s="56"/>
       <c r="AA154" s="56"/>
       <c r="AB154" s="56"/>
-      <c r="AC154" s="212">
+      <c r="AC154" s="278">
         <v>0.05</v>
       </c>
-      <c r="AD154" s="209"/>
+      <c r="AD154" s="253"/>
       <c r="AE154" s="56"/>
       <c r="AF154" s="56"/>
       <c r="AG154" s="56"/>
       <c r="AH154" s="57"/>
-      <c r="AI154" s="208" t="s">
+      <c r="AI154" s="252" t="s">
         <v>246</v>
       </c>
-      <c r="AJ154" s="209"/>
-      <c r="AK154" s="210"/>
-      <c r="AL154" s="208" t="s">
+      <c r="AJ154" s="253"/>
+      <c r="AK154" s="254"/>
+      <c r="AL154" s="252" t="s">
         <v>250</v>
       </c>
-      <c r="AM154" s="209"/>
-      <c r="AN154" s="213"/>
+      <c r="AM154" s="253"/>
+      <c r="AN154" s="272"/>
     </row>
     <row r="155" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="64" t="s">
@@ -16661,24 +16661,24 @@
       <c r="Z155" s="63"/>
       <c r="AA155" s="63"/>
       <c r="AB155" s="63"/>
-      <c r="AC155" s="214">
+      <c r="AC155" s="279">
         <v>0.06</v>
       </c>
-      <c r="AD155" s="170"/>
+      <c r="AD155" s="256"/>
       <c r="AE155" s="63"/>
       <c r="AF155" s="63"/>
       <c r="AG155" s="63"/>
       <c r="AH155" s="73"/>
-      <c r="AI155" s="169" t="s">
+      <c r="AI155" s="255" t="s">
         <v>247</v>
       </c>
-      <c r="AJ155" s="170"/>
-      <c r="AK155" s="211"/>
-      <c r="AL155" s="169" t="s">
+      <c r="AJ155" s="256"/>
+      <c r="AK155" s="257"/>
+      <c r="AL155" s="255" t="s">
         <v>251</v>
       </c>
-      <c r="AM155" s="170"/>
-      <c r="AN155" s="171"/>
+      <c r="AM155" s="256"/>
+      <c r="AN155" s="273"/>
     </row>
     <row r="156" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="50" t="s">
@@ -16703,28 +16703,28 @@
       <c r="R156" s="52"/>
       <c r="S156" s="52"/>
       <c r="T156" s="53"/>
-      <c r="U156" s="196" t="s">
+      <c r="U156" s="280" t="s">
         <v>136</v>
       </c>
-      <c r="V156" s="197"/>
-      <c r="W156" s="197"/>
-      <c r="X156" s="197"/>
-      <c r="Y156" s="197"/>
-      <c r="Z156" s="197"/>
-      <c r="AA156" s="197"/>
-      <c r="AB156" s="197"/>
-      <c r="AC156" s="197"/>
-      <c r="AD156" s="197"/>
-      <c r="AE156" s="197"/>
-      <c r="AF156" s="197"/>
-      <c r="AG156" s="197"/>
-      <c r="AH156" s="197"/>
-      <c r="AI156" s="197"/>
-      <c r="AJ156" s="197"/>
-      <c r="AK156" s="197"/>
-      <c r="AL156" s="197"/>
-      <c r="AM156" s="197"/>
-      <c r="AN156" s="198"/>
+      <c r="V156" s="281"/>
+      <c r="W156" s="281"/>
+      <c r="X156" s="281"/>
+      <c r="Y156" s="281"/>
+      <c r="Z156" s="281"/>
+      <c r="AA156" s="281"/>
+      <c r="AB156" s="281"/>
+      <c r="AC156" s="281"/>
+      <c r="AD156" s="281"/>
+      <c r="AE156" s="281"/>
+      <c r="AF156" s="281"/>
+      <c r="AG156" s="281"/>
+      <c r="AH156" s="281"/>
+      <c r="AI156" s="281"/>
+      <c r="AJ156" s="281"/>
+      <c r="AK156" s="281"/>
+      <c r="AL156" s="281"/>
+      <c r="AM156" s="281"/>
+      <c r="AN156" s="282"/>
     </row>
     <row r="157" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="50" t="s">
@@ -16749,26 +16749,26 @@
       <c r="R157" s="52"/>
       <c r="S157" s="52"/>
       <c r="T157" s="53"/>
-      <c r="U157" s="199"/>
-      <c r="V157" s="200"/>
-      <c r="W157" s="200"/>
-      <c r="X157" s="200"/>
-      <c r="Y157" s="200"/>
-      <c r="Z157" s="200"/>
-      <c r="AA157" s="200"/>
-      <c r="AB157" s="200"/>
-      <c r="AC157" s="200"/>
-      <c r="AD157" s="200"/>
-      <c r="AE157" s="200"/>
-      <c r="AF157" s="200"/>
-      <c r="AG157" s="200"/>
-      <c r="AH157" s="200"/>
-      <c r="AI157" s="200"/>
-      <c r="AJ157" s="200"/>
-      <c r="AK157" s="200"/>
-      <c r="AL157" s="200"/>
-      <c r="AM157" s="200"/>
-      <c r="AN157" s="201"/>
+      <c r="U157" s="283"/>
+      <c r="V157" s="284"/>
+      <c r="W157" s="284"/>
+      <c r="X157" s="284"/>
+      <c r="Y157" s="284"/>
+      <c r="Z157" s="284"/>
+      <c r="AA157" s="284"/>
+      <c r="AB157" s="284"/>
+      <c r="AC157" s="284"/>
+      <c r="AD157" s="284"/>
+      <c r="AE157" s="284"/>
+      <c r="AF157" s="284"/>
+      <c r="AG157" s="284"/>
+      <c r="AH157" s="284"/>
+      <c r="AI157" s="284"/>
+      <c r="AJ157" s="284"/>
+      <c r="AK157" s="284"/>
+      <c r="AL157" s="284"/>
+      <c r="AM157" s="284"/>
+      <c r="AN157" s="285"/>
     </row>
     <row r="158" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="50" t="s">
@@ -16809,14 +16809,14 @@
       <c r="AF158" s="67"/>
       <c r="AG158" s="67"/>
       <c r="AH158" s="72"/>
-      <c r="AI158" s="166" t="s">
+      <c r="AI158" s="265" t="s">
         <v>144</v>
       </c>
-      <c r="AJ158" s="167"/>
-      <c r="AK158" s="167"/>
-      <c r="AL158" s="167"/>
-      <c r="AM158" s="167"/>
-      <c r="AN158" s="168"/>
+      <c r="AJ158" s="266"/>
+      <c r="AK158" s="266"/>
+      <c r="AL158" s="266"/>
+      <c r="AM158" s="266"/>
+      <c r="AN158" s="271"/>
     </row>
     <row r="159" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="50"/>
@@ -16835,14 +16835,14 @@
       <c r="L159" s="54"/>
       <c r="M159" s="54"/>
       <c r="N159" s="55"/>
-      <c r="O159" s="172"/>
-      <c r="P159" s="173"/>
-      <c r="Q159" s="174"/>
-      <c r="R159" s="175" t="s">
+      <c r="O159" s="262"/>
+      <c r="P159" s="263"/>
+      <c r="Q159" s="264"/>
+      <c r="R159" s="286" t="s">
         <v>191</v>
       </c>
-      <c r="S159" s="176"/>
-      <c r="T159" s="177"/>
+      <c r="S159" s="287"/>
+      <c r="T159" s="288"/>
       <c r="U159" s="91" t="s">
         <v>138</v>
       </c>
@@ -16859,12 +16859,12 @@
       <c r="AF159" s="63"/>
       <c r="AG159" s="63"/>
       <c r="AH159" s="73"/>
-      <c r="AI159" s="169"/>
-      <c r="AJ159" s="170"/>
-      <c r="AK159" s="170"/>
-      <c r="AL159" s="170"/>
-      <c r="AM159" s="170"/>
-      <c r="AN159" s="171"/>
+      <c r="AI159" s="255"/>
+      <c r="AJ159" s="256"/>
+      <c r="AK159" s="256"/>
+      <c r="AL159" s="256"/>
+      <c r="AM159" s="256"/>
+      <c r="AN159" s="273"/>
     </row>
     <row r="160" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="59"/>
@@ -16883,14 +16883,14 @@
       <c r="L160" s="70"/>
       <c r="M160" s="70"/>
       <c r="N160" s="71"/>
-      <c r="O160" s="202"/>
-      <c r="P160" s="203"/>
-      <c r="Q160" s="204"/>
-      <c r="R160" s="205" t="s">
+      <c r="O160" s="268"/>
+      <c r="P160" s="269"/>
+      <c r="Q160" s="270"/>
+      <c r="R160" s="289" t="s">
         <v>192</v>
       </c>
-      <c r="S160" s="206"/>
-      <c r="T160" s="207"/>
+      <c r="S160" s="290"/>
+      <c r="T160" s="291"/>
       <c r="U160" s="93" t="s">
         <v>143</v>
       </c>
@@ -16907,14 +16907,14 @@
       <c r="AF160" s="67"/>
       <c r="AG160" s="67"/>
       <c r="AH160" s="72"/>
-      <c r="AI160" s="166" t="s">
+      <c r="AI160" s="265" t="s">
         <v>147</v>
       </c>
-      <c r="AJ160" s="167"/>
-      <c r="AK160" s="167"/>
-      <c r="AL160" s="167"/>
-      <c r="AM160" s="167"/>
-      <c r="AN160" s="168"/>
+      <c r="AJ160" s="266"/>
+      <c r="AK160" s="266"/>
+      <c r="AL160" s="266"/>
+      <c r="AM160" s="266"/>
+      <c r="AN160" s="271"/>
     </row>
     <row r="161" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="64" t="s">
@@ -16955,12 +16955,12 @@
       <c r="AF161" s="63"/>
       <c r="AG161" s="63"/>
       <c r="AH161" s="73"/>
-      <c r="AI161" s="169"/>
-      <c r="AJ161" s="170"/>
-      <c r="AK161" s="170"/>
-      <c r="AL161" s="170"/>
-      <c r="AM161" s="170"/>
-      <c r="AN161" s="171"/>
+      <c r="AI161" s="255"/>
+      <c r="AJ161" s="256"/>
+      <c r="AK161" s="256"/>
+      <c r="AL161" s="256"/>
+      <c r="AM161" s="256"/>
+      <c r="AN161" s="273"/>
     </row>
     <row r="162" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="50" t="s">
@@ -17001,14 +17001,14 @@
       <c r="AF162" s="67"/>
       <c r="AG162" s="67"/>
       <c r="AH162" s="72"/>
-      <c r="AI162" s="166" t="s">
+      <c r="AI162" s="265" t="s">
         <v>145</v>
       </c>
-      <c r="AJ162" s="167"/>
-      <c r="AK162" s="167"/>
-      <c r="AL162" s="167"/>
-      <c r="AM162" s="167"/>
-      <c r="AN162" s="168"/>
+      <c r="AJ162" s="266"/>
+      <c r="AK162" s="266"/>
+      <c r="AL162" s="266"/>
+      <c r="AM162" s="266"/>
+      <c r="AN162" s="271"/>
     </row>
     <row r="163" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="50" t="s">
@@ -17049,12 +17049,12 @@
       <c r="AF163" s="63"/>
       <c r="AG163" s="63"/>
       <c r="AH163" s="73"/>
-      <c r="AI163" s="169"/>
-      <c r="AJ163" s="170"/>
-      <c r="AK163" s="170"/>
-      <c r="AL163" s="170"/>
-      <c r="AM163" s="170"/>
-      <c r="AN163" s="171"/>
+      <c r="AI163" s="255"/>
+      <c r="AJ163" s="256"/>
+      <c r="AK163" s="256"/>
+      <c r="AL163" s="256"/>
+      <c r="AM163" s="256"/>
+      <c r="AN163" s="273"/>
     </row>
     <row r="164" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="50"/>
@@ -17073,11 +17073,11 @@
       <c r="L164" s="54"/>
       <c r="M164" s="54"/>
       <c r="N164" s="55"/>
-      <c r="O164" s="208" t="s">
+      <c r="O164" s="252" t="s">
         <v>193</v>
       </c>
-      <c r="P164" s="209"/>
-      <c r="Q164" s="210"/>
+      <c r="P164" s="253"/>
+      <c r="Q164" s="254"/>
       <c r="R164" s="109"/>
       <c r="S164" s="109"/>
       <c r="T164" s="110"/>
@@ -17097,14 +17097,14 @@
       <c r="AF164" s="67"/>
       <c r="AG164" s="67"/>
       <c r="AH164" s="72"/>
-      <c r="AI164" s="166" t="s">
+      <c r="AI164" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="AJ164" s="167"/>
-      <c r="AK164" s="167"/>
-      <c r="AL164" s="167"/>
-      <c r="AM164" s="167"/>
-      <c r="AN164" s="168"/>
+      <c r="AJ164" s="266"/>
+      <c r="AK164" s="266"/>
+      <c r="AL164" s="266"/>
+      <c r="AM164" s="266"/>
+      <c r="AN164" s="271"/>
     </row>
     <row r="165" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="59"/>
@@ -17123,11 +17123,11 @@
       <c r="L165" s="70"/>
       <c r="M165" s="70"/>
       <c r="N165" s="71"/>
-      <c r="O165" s="169" t="s">
+      <c r="O165" s="255" t="s">
         <v>194</v>
       </c>
-      <c r="P165" s="170"/>
-      <c r="Q165" s="211"/>
+      <c r="P165" s="256"/>
+      <c r="Q165" s="257"/>
       <c r="R165" s="111"/>
       <c r="S165" s="111"/>
       <c r="T165" s="112"/>
@@ -17147,12 +17147,12 @@
       <c r="AF165" s="63"/>
       <c r="AG165" s="63"/>
       <c r="AH165" s="73"/>
-      <c r="AI165" s="169"/>
-      <c r="AJ165" s="170"/>
-      <c r="AK165" s="170"/>
-      <c r="AL165" s="170"/>
-      <c r="AM165" s="170"/>
-      <c r="AN165" s="171"/>
+      <c r="AI165" s="255"/>
+      <c r="AJ165" s="256"/>
+      <c r="AK165" s="256"/>
+      <c r="AL165" s="256"/>
+      <c r="AM165" s="256"/>
+      <c r="AN165" s="273"/>
     </row>
     <row r="166" spans="1:40" s="75" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="64" t="s">
@@ -17303,14 +17303,14 @@
       <c r="L169" s="54"/>
       <c r="M169" s="54"/>
       <c r="N169" s="55"/>
-      <c r="O169" s="172"/>
-      <c r="P169" s="173"/>
-      <c r="Q169" s="174"/>
-      <c r="R169" s="175" t="s">
+      <c r="O169" s="262"/>
+      <c r="P169" s="263"/>
+      <c r="Q169" s="264"/>
+      <c r="R169" s="286" t="s">
         <v>195</v>
       </c>
-      <c r="S169" s="176"/>
-      <c r="T169" s="177"/>
+      <c r="S169" s="287"/>
+      <c r="T169" s="288"/>
       <c r="U169" s="120"/>
       <c r="V169" s="121"/>
       <c r="W169" s="121"/>
@@ -17349,14 +17349,14 @@
       <c r="L170" s="106"/>
       <c r="M170" s="106"/>
       <c r="N170" s="107"/>
-      <c r="O170" s="178"/>
-      <c r="P170" s="179"/>
-      <c r="Q170" s="180"/>
-      <c r="R170" s="181" t="s">
+      <c r="O170" s="292"/>
+      <c r="P170" s="293"/>
+      <c r="Q170" s="294"/>
+      <c r="R170" s="295" t="s">
         <v>196</v>
       </c>
-      <c r="S170" s="182"/>
-      <c r="T170" s="183"/>
+      <c r="S170" s="296"/>
+      <c r="T170" s="297"/>
       <c r="U170" s="124"/>
       <c r="V170" s="29"/>
       <c r="W170" s="29"/>
@@ -17379,48 +17379,48 @@
       <c r="AN170" s="30"/>
     </row>
     <row r="171" spans="1:40" s="42" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="184" t="s">
+      <c r="A171" s="298" t="s">
         <v>84</v>
       </c>
-      <c r="B171" s="185"/>
-      <c r="C171" s="185"/>
-      <c r="D171" s="185"/>
-      <c r="E171" s="185"/>
-      <c r="F171" s="185"/>
-      <c r="G171" s="185"/>
-      <c r="H171" s="185"/>
-      <c r="I171" s="185"/>
-      <c r="J171" s="185"/>
-      <c r="K171" s="185"/>
-      <c r="L171" s="185"/>
-      <c r="M171" s="185"/>
-      <c r="N171" s="185"/>
-      <c r="O171" s="185"/>
-      <c r="P171" s="185"/>
-      <c r="Q171" s="185"/>
-      <c r="R171" s="185"/>
-      <c r="S171" s="185"/>
-      <c r="T171" s="185"/>
-      <c r="U171" s="185"/>
-      <c r="V171" s="185"/>
-      <c r="W171" s="185"/>
-      <c r="X171" s="185"/>
-      <c r="Y171" s="185"/>
-      <c r="Z171" s="185"/>
-      <c r="AA171" s="185"/>
-      <c r="AB171" s="185"/>
-      <c r="AC171" s="185"/>
-      <c r="AD171" s="185"/>
-      <c r="AE171" s="185"/>
-      <c r="AF171" s="185"/>
-      <c r="AG171" s="185"/>
-      <c r="AH171" s="185"/>
-      <c r="AI171" s="185"/>
-      <c r="AJ171" s="185"/>
-      <c r="AK171" s="185"/>
-      <c r="AL171" s="185"/>
-      <c r="AM171" s="185"/>
-      <c r="AN171" s="186"/>
+      <c r="B171" s="299"/>
+      <c r="C171" s="299"/>
+      <c r="D171" s="299"/>
+      <c r="E171" s="299"/>
+      <c r="F171" s="299"/>
+      <c r="G171" s="299"/>
+      <c r="H171" s="299"/>
+      <c r="I171" s="299"/>
+      <c r="J171" s="299"/>
+      <c r="K171" s="299"/>
+      <c r="L171" s="299"/>
+      <c r="M171" s="299"/>
+      <c r="N171" s="299"/>
+      <c r="O171" s="299"/>
+      <c r="P171" s="299"/>
+      <c r="Q171" s="299"/>
+      <c r="R171" s="299"/>
+      <c r="S171" s="299"/>
+      <c r="T171" s="299"/>
+      <c r="U171" s="299"/>
+      <c r="V171" s="299"/>
+      <c r="W171" s="299"/>
+      <c r="X171" s="299"/>
+      <c r="Y171" s="299"/>
+      <c r="Z171" s="299"/>
+      <c r="AA171" s="299"/>
+      <c r="AB171" s="299"/>
+      <c r="AC171" s="299"/>
+      <c r="AD171" s="299"/>
+      <c r="AE171" s="299"/>
+      <c r="AF171" s="299"/>
+      <c r="AG171" s="299"/>
+      <c r="AH171" s="299"/>
+      <c r="AI171" s="299"/>
+      <c r="AJ171" s="299"/>
+      <c r="AK171" s="299"/>
+      <c r="AL171" s="299"/>
+      <c r="AM171" s="299"/>
+      <c r="AN171" s="300"/>
     </row>
     <row r="172" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="126" t="s">
@@ -17442,11 +17442,11 @@
       <c r="O172" s="128"/>
       <c r="P172" s="128"/>
       <c r="Q172" s="129"/>
-      <c r="R172" s="187" t="s">
+      <c r="R172" s="301" t="s">
         <v>253</v>
       </c>
-      <c r="S172" s="188"/>
-      <c r="T172" s="189"/>
+      <c r="S172" s="302"/>
+      <c r="T172" s="303"/>
       <c r="U172" s="83" t="s">
         <v>281</v>
       </c>
@@ -17490,11 +17490,11 @@
       <c r="O173" s="102"/>
       <c r="P173" s="102"/>
       <c r="Q173" s="103"/>
-      <c r="R173" s="138" t="s">
+      <c r="R173" s="304" t="s">
         <v>255</v>
       </c>
-      <c r="S173" s="139"/>
-      <c r="T173" s="140"/>
+      <c r="S173" s="305"/>
+      <c r="T173" s="306"/>
       <c r="U173" s="88" t="s">
         <v>282</v>
       </c>
@@ -17538,11 +17538,11 @@
       <c r="O174" s="68"/>
       <c r="P174" s="68"/>
       <c r="Q174" s="69"/>
-      <c r="R174" s="190" t="s">
+      <c r="R174" s="307" t="s">
         <v>256</v>
       </c>
-      <c r="S174" s="191"/>
-      <c r="T174" s="192"/>
+      <c r="S174" s="308"/>
+      <c r="T174" s="309"/>
       <c r="U174" s="88" t="s">
         <v>283</v>
       </c>
@@ -17588,9 +17588,9 @@
       <c r="O175" s="70"/>
       <c r="P175" s="70"/>
       <c r="Q175" s="71"/>
-      <c r="R175" s="193"/>
-      <c r="S175" s="194"/>
-      <c r="T175" s="195"/>
+      <c r="R175" s="310"/>
+      <c r="S175" s="311"/>
+      <c r="T175" s="312"/>
       <c r="U175" s="88" t="s">
         <v>285</v>
       </c>
@@ -17634,11 +17634,11 @@
       <c r="O176" s="102"/>
       <c r="P176" s="102"/>
       <c r="Q176" s="103"/>
-      <c r="R176" s="138" t="s">
+      <c r="R176" s="304" t="s">
         <v>258</v>
       </c>
-      <c r="S176" s="139"/>
-      <c r="T176" s="140"/>
+      <c r="S176" s="305"/>
+      <c r="T176" s="306"/>
       <c r="U176" s="88" t="s">
         <v>286</v>
       </c>
@@ -17682,11 +17682,11 @@
       <c r="O177" s="102"/>
       <c r="P177" s="102"/>
       <c r="Q177" s="103"/>
-      <c r="R177" s="153" t="s">
+      <c r="R177" s="313" t="s">
         <v>260</v>
       </c>
-      <c r="S177" s="153"/>
-      <c r="T177" s="159"/>
+      <c r="S177" s="313"/>
+      <c r="T177" s="314"/>
       <c r="U177" s="133" t="s">
         <v>264</v>
       </c>
@@ -17710,11 +17710,11 @@
       <c r="AI177" s="56"/>
       <c r="AJ177" s="56"/>
       <c r="AK177" s="57"/>
-      <c r="AL177" s="153" t="s">
+      <c r="AL177" s="313" t="s">
         <v>312</v>
       </c>
-      <c r="AM177" s="153"/>
-      <c r="AN177" s="154"/>
+      <c r="AM177" s="313"/>
+      <c r="AN177" s="315"/>
     </row>
     <row r="178" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="64" t="s">
@@ -17762,11 +17762,11 @@
       <c r="AI178" s="56"/>
       <c r="AJ178" s="56"/>
       <c r="AK178" s="57"/>
-      <c r="AL178" s="153" t="s">
+      <c r="AL178" s="313" t="s">
         <v>313</v>
       </c>
-      <c r="AM178" s="153"/>
-      <c r="AN178" s="154"/>
+      <c r="AM178" s="313"/>
+      <c r="AN178" s="315"/>
     </row>
     <row r="179" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="50" t="s">
@@ -17814,11 +17814,11 @@
       <c r="AI179" s="63"/>
       <c r="AJ179" s="63"/>
       <c r="AK179" s="73"/>
-      <c r="AL179" s="153" t="s">
+      <c r="AL179" s="313" t="s">
         <v>314</v>
       </c>
-      <c r="AM179" s="153"/>
-      <c r="AN179" s="154"/>
+      <c r="AM179" s="313"/>
+      <c r="AN179" s="315"/>
     </row>
     <row r="180" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="50" t="s">
@@ -17862,11 +17862,11 @@
       <c r="AI180" s="63"/>
       <c r="AJ180" s="63"/>
       <c r="AK180" s="73"/>
-      <c r="AL180" s="160" t="s">
+      <c r="AL180" s="258" t="s">
         <v>315</v>
       </c>
-      <c r="AM180" s="161"/>
-      <c r="AN180" s="162"/>
+      <c r="AM180" s="259"/>
+      <c r="AN180" s="261"/>
     </row>
     <row r="181" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="130" t="s">
@@ -17892,11 +17892,11 @@
       </c>
       <c r="P181" s="54"/>
       <c r="Q181" s="55"/>
-      <c r="R181" s="163" t="s">
+      <c r="R181" s="316" t="s">
         <v>265</v>
       </c>
-      <c r="S181" s="164"/>
-      <c r="T181" s="165"/>
+      <c r="S181" s="317"/>
+      <c r="T181" s="318"/>
       <c r="U181" s="88" t="s">
         <v>295</v>
       </c>
@@ -17916,11 +17916,11 @@
       <c r="AI181" s="56"/>
       <c r="AJ181" s="56"/>
       <c r="AK181" s="57"/>
-      <c r="AL181" s="166" t="s">
+      <c r="AL181" s="265" t="s">
         <v>316</v>
       </c>
-      <c r="AM181" s="167"/>
-      <c r="AN181" s="168"/>
+      <c r="AM181" s="266"/>
+      <c r="AN181" s="271"/>
     </row>
     <row r="182" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="130" t="s">
@@ -17946,11 +17946,11 @@
       </c>
       <c r="P182" s="54"/>
       <c r="Q182" s="55"/>
-      <c r="R182" s="138" t="s">
+      <c r="R182" s="304" t="s">
         <v>266</v>
       </c>
-      <c r="S182" s="139"/>
-      <c r="T182" s="140"/>
+      <c r="S182" s="305"/>
+      <c r="T182" s="306"/>
       <c r="U182" s="88" t="s">
         <v>296</v>
       </c>
@@ -17970,9 +17970,9 @@
       <c r="AI182" s="56"/>
       <c r="AJ182" s="56"/>
       <c r="AK182" s="57"/>
-      <c r="AL182" s="169"/>
-      <c r="AM182" s="170"/>
-      <c r="AN182" s="171"/>
+      <c r="AL182" s="255"/>
+      <c r="AM182" s="256"/>
+      <c r="AN182" s="273"/>
     </row>
     <row r="183" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="50" t="s">
@@ -17996,11 +17996,11 @@
       </c>
       <c r="P183" s="54"/>
       <c r="Q183" s="55"/>
-      <c r="R183" s="138" t="s">
+      <c r="R183" s="304" t="s">
         <v>267</v>
       </c>
-      <c r="S183" s="139"/>
-      <c r="T183" s="140"/>
+      <c r="S183" s="305"/>
+      <c r="T183" s="306"/>
       <c r="U183" s="108" t="s">
         <v>297</v>
       </c>
@@ -18020,11 +18020,11 @@
       <c r="AI183" s="98"/>
       <c r="AJ183" s="98"/>
       <c r="AK183" s="99"/>
-      <c r="AL183" s="138" t="s">
+      <c r="AL183" s="304" t="s">
         <v>308</v>
       </c>
-      <c r="AM183" s="139"/>
-      <c r="AN183" s="152"/>
+      <c r="AM183" s="305"/>
+      <c r="AN183" s="319"/>
     </row>
     <row r="184" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="50" t="s">
@@ -18046,11 +18046,11 @@
       <c r="O184" s="52"/>
       <c r="P184" s="54"/>
       <c r="Q184" s="55"/>
-      <c r="R184" s="146" t="s">
+      <c r="R184" s="325" t="s">
         <v>269</v>
       </c>
-      <c r="S184" s="147"/>
-      <c r="T184" s="148"/>
+      <c r="S184" s="326"/>
+      <c r="T184" s="327"/>
       <c r="U184" s="108" t="s">
         <v>298</v>
       </c>
@@ -18070,11 +18070,11 @@
       <c r="AI184" s="98"/>
       <c r="AJ184" s="98"/>
       <c r="AK184" s="99"/>
-      <c r="AL184" s="138" t="s">
+      <c r="AL184" s="304" t="s">
         <v>309</v>
       </c>
-      <c r="AM184" s="139"/>
-      <c r="AN184" s="152"/>
+      <c r="AM184" s="305"/>
+      <c r="AN184" s="319"/>
     </row>
     <row r="185" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="50" t="s">
@@ -18098,9 +18098,9 @@
       </c>
       <c r="P185" s="54"/>
       <c r="Q185" s="55"/>
-      <c r="R185" s="149"/>
-      <c r="S185" s="150"/>
-      <c r="T185" s="151"/>
+      <c r="R185" s="328"/>
+      <c r="S185" s="329"/>
+      <c r="T185" s="330"/>
       <c r="U185" s="108" t="s">
         <v>299</v>
       </c>
@@ -18120,11 +18120,11 @@
       <c r="AI185" s="98"/>
       <c r="AJ185" s="98"/>
       <c r="AK185" s="99"/>
-      <c r="AL185" s="138" t="s">
+      <c r="AL185" s="304" t="s">
         <v>310</v>
       </c>
-      <c r="AM185" s="139"/>
-      <c r="AN185" s="152"/>
+      <c r="AM185" s="305"/>
+      <c r="AN185" s="319"/>
     </row>
     <row r="186" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="50" t="s">
@@ -18146,11 +18146,11 @@
       <c r="O186" s="52"/>
       <c r="P186" s="54"/>
       <c r="Q186" s="55"/>
-      <c r="R186" s="146" t="s">
+      <c r="R186" s="325" t="s">
         <v>271</v>
       </c>
-      <c r="S186" s="147"/>
-      <c r="T186" s="148"/>
+      <c r="S186" s="326"/>
+      <c r="T186" s="327"/>
       <c r="U186" s="108" t="s">
         <v>300</v>
       </c>
@@ -18170,11 +18170,11 @@
       <c r="AI186" s="98"/>
       <c r="AJ186" s="98"/>
       <c r="AK186" s="99"/>
-      <c r="AL186" s="153" t="s">
+      <c r="AL186" s="313" t="s">
         <v>311</v>
       </c>
-      <c r="AM186" s="153"/>
-      <c r="AN186" s="154"/>
+      <c r="AM186" s="313"/>
+      <c r="AN186" s="315"/>
     </row>
     <row r="187" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="59" t="s">
@@ -18198,9 +18198,9 @@
       </c>
       <c r="P187" s="70"/>
       <c r="Q187" s="71"/>
-      <c r="R187" s="149"/>
-      <c r="S187" s="150"/>
-      <c r="T187" s="151"/>
+      <c r="R187" s="328"/>
+      <c r="S187" s="329"/>
+      <c r="T187" s="330"/>
       <c r="U187" s="93" t="s">
         <v>301</v>
       </c>
@@ -18244,11 +18244,11 @@
       <c r="O188" s="102"/>
       <c r="P188" s="102"/>
       <c r="Q188" s="103"/>
-      <c r="R188" s="138" t="s">
+      <c r="R188" s="304" t="s">
         <v>273</v>
       </c>
-      <c r="S188" s="139"/>
-      <c r="T188" s="140"/>
+      <c r="S188" s="305"/>
+      <c r="T188" s="306"/>
       <c r="U188" s="133" t="s">
         <v>264</v>
       </c>
@@ -18272,11 +18272,11 @@
       <c r="AI188" s="56"/>
       <c r="AJ188" s="56"/>
       <c r="AK188" s="57"/>
-      <c r="AL188" s="155" t="s">
+      <c r="AL188" s="331" t="s">
         <v>305</v>
       </c>
-      <c r="AM188" s="153"/>
-      <c r="AN188" s="154"/>
+      <c r="AM188" s="313"/>
+      <c r="AN188" s="315"/>
     </row>
     <row r="189" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="100" t="s">
@@ -18298,11 +18298,11 @@
       <c r="O189" s="102"/>
       <c r="P189" s="102"/>
       <c r="Q189" s="103"/>
-      <c r="R189" s="138" t="s">
+      <c r="R189" s="304" t="s">
         <v>274</v>
       </c>
-      <c r="S189" s="139"/>
-      <c r="T189" s="140"/>
+      <c r="S189" s="305"/>
+      <c r="T189" s="306"/>
       <c r="U189" s="133" t="s">
         <v>264</v>
       </c>
@@ -18326,11 +18326,11 @@
       <c r="AI189" s="56"/>
       <c r="AJ189" s="56"/>
       <c r="AK189" s="57"/>
-      <c r="AL189" s="156" t="s">
+      <c r="AL189" s="332" t="s">
         <v>306</v>
       </c>
-      <c r="AM189" s="157"/>
-      <c r="AN189" s="158"/>
+      <c r="AM189" s="333"/>
+      <c r="AN189" s="334"/>
     </row>
     <row r="190" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="100" t="s">
@@ -18352,11 +18352,11 @@
       <c r="O190" s="102"/>
       <c r="P190" s="102"/>
       <c r="Q190" s="103"/>
-      <c r="R190" s="138" t="s">
+      <c r="R190" s="304" t="s">
         <v>276</v>
       </c>
-      <c r="S190" s="139"/>
-      <c r="T190" s="140"/>
+      <c r="S190" s="305"/>
+      <c r="T190" s="306"/>
       <c r="U190" s="135" t="s">
         <v>264</v>
       </c>
@@ -18380,11 +18380,11 @@
       <c r="AI190" s="63"/>
       <c r="AJ190" s="63"/>
       <c r="AK190" s="73"/>
-      <c r="AL190" s="141" t="s">
+      <c r="AL190" s="320" t="s">
         <v>307</v>
       </c>
-      <c r="AM190" s="142"/>
-      <c r="AN190" s="143"/>
+      <c r="AM190" s="321"/>
+      <c r="AN190" s="322"/>
     </row>
     <row r="191" spans="1:40" s="42" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="100" t="s">
@@ -18406,11 +18406,11 @@
       <c r="O191" s="102"/>
       <c r="P191" s="102"/>
       <c r="Q191" s="103"/>
-      <c r="R191" s="138" t="s">
+      <c r="R191" s="304" t="s">
         <v>273</v>
       </c>
-      <c r="S191" s="139"/>
-      <c r="T191" s="140"/>
+      <c r="S191" s="305"/>
+      <c r="T191" s="306"/>
       <c r="U191" s="114"/>
       <c r="V191" s="111"/>
       <c r="W191" s="17"/>
@@ -18452,11 +18452,11 @@
       <c r="O192" s="106"/>
       <c r="P192" s="106"/>
       <c r="Q192" s="107"/>
-      <c r="R192" s="144" t="s">
+      <c r="R192" s="323" t="s">
         <v>274</v>
       </c>
-      <c r="S192" s="144"/>
-      <c r="T192" s="145"/>
+      <c r="S192" s="323"/>
+      <c r="T192" s="324"/>
       <c r="U192" s="134"/>
       <c r="V192" s="115"/>
       <c r="W192" s="29"/>
@@ -18510,24 +18510,325 @@
     <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="361">
-    <mergeCell ref="A70:AN70"/>
-    <mergeCell ref="A71:AN73"/>
-    <mergeCell ref="A74:AN74"/>
-    <mergeCell ref="A75:AN75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="R76:U77"/>
-    <mergeCell ref="AC76:AG76"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="AC77:AG77"/>
-    <mergeCell ref="AC68:AG68"/>
-    <mergeCell ref="AC69:AG69"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="R68:U69"/>
-    <mergeCell ref="A62:AN62"/>
-    <mergeCell ref="A63:AN65"/>
-    <mergeCell ref="A66:AN66"/>
-    <mergeCell ref="A67:AN67"/>
+    <mergeCell ref="R190:T190"/>
+    <mergeCell ref="AL190:AN190"/>
+    <mergeCell ref="R191:T191"/>
+    <mergeCell ref="R192:T192"/>
+    <mergeCell ref="R184:T185"/>
+    <mergeCell ref="AL184:AN184"/>
+    <mergeCell ref="AL185:AN185"/>
+    <mergeCell ref="R186:T187"/>
+    <mergeCell ref="AL186:AN186"/>
+    <mergeCell ref="R188:T188"/>
+    <mergeCell ref="AL188:AN188"/>
+    <mergeCell ref="R189:T189"/>
+    <mergeCell ref="AL189:AN189"/>
+    <mergeCell ref="R177:T177"/>
+    <mergeCell ref="AL177:AN177"/>
+    <mergeCell ref="AL178:AN178"/>
+    <mergeCell ref="AL179:AN179"/>
+    <mergeCell ref="AL180:AN180"/>
+    <mergeCell ref="R181:T181"/>
+    <mergeCell ref="AL181:AN182"/>
+    <mergeCell ref="R182:T182"/>
+    <mergeCell ref="R183:T183"/>
+    <mergeCell ref="AL183:AN183"/>
+    <mergeCell ref="O169:Q169"/>
+    <mergeCell ref="R169:T169"/>
+    <mergeCell ref="O170:Q170"/>
+    <mergeCell ref="R170:T170"/>
+    <mergeCell ref="A171:AN171"/>
+    <mergeCell ref="R172:T172"/>
+    <mergeCell ref="R173:T173"/>
+    <mergeCell ref="R174:T175"/>
+    <mergeCell ref="R176:T176"/>
+    <mergeCell ref="U156:AN157"/>
+    <mergeCell ref="AI158:AN159"/>
+    <mergeCell ref="O159:Q159"/>
+    <mergeCell ref="R159:T159"/>
+    <mergeCell ref="O160:Q160"/>
+    <mergeCell ref="R160:T160"/>
+    <mergeCell ref="AI160:AN161"/>
+    <mergeCell ref="AI162:AN163"/>
+    <mergeCell ref="O164:Q164"/>
+    <mergeCell ref="AI164:AN165"/>
+    <mergeCell ref="O165:Q165"/>
+    <mergeCell ref="O153:Q153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="AI153:AK153"/>
+    <mergeCell ref="AL153:AN153"/>
+    <mergeCell ref="O154:Q154"/>
+    <mergeCell ref="AC154:AD154"/>
+    <mergeCell ref="AI154:AK154"/>
+    <mergeCell ref="AL154:AN154"/>
+    <mergeCell ref="AC155:AD155"/>
+    <mergeCell ref="AI155:AK155"/>
+    <mergeCell ref="AL155:AN155"/>
+    <mergeCell ref="O148:Q148"/>
+    <mergeCell ref="AI148:AK148"/>
+    <mergeCell ref="AL148:AN148"/>
+    <mergeCell ref="AI149:AK150"/>
+    <mergeCell ref="AL149:AN150"/>
+    <mergeCell ref="AI151:AK151"/>
+    <mergeCell ref="AL151:AN151"/>
+    <mergeCell ref="AC152:AD152"/>
+    <mergeCell ref="AI152:AK152"/>
+    <mergeCell ref="AL152:AN152"/>
+    <mergeCell ref="AI135:AK138"/>
+    <mergeCell ref="AL135:AN138"/>
+    <mergeCell ref="R136:T136"/>
+    <mergeCell ref="R137:T137"/>
+    <mergeCell ref="O139:Q139"/>
+    <mergeCell ref="AI139:AK142"/>
+    <mergeCell ref="AL139:AN142"/>
+    <mergeCell ref="O140:Q140"/>
+    <mergeCell ref="O141:Q144"/>
+    <mergeCell ref="R141:T144"/>
+    <mergeCell ref="AI143:AK147"/>
+    <mergeCell ref="AL143:AN147"/>
+    <mergeCell ref="O145:Q146"/>
+    <mergeCell ref="R145:T146"/>
+    <mergeCell ref="O147:Q147"/>
+    <mergeCell ref="R147:T147"/>
+    <mergeCell ref="R125:T125"/>
+    <mergeCell ref="AI125:AK126"/>
+    <mergeCell ref="AL125:AN126"/>
+    <mergeCell ref="O127:Q127"/>
+    <mergeCell ref="AI127:AK130"/>
+    <mergeCell ref="AL127:AN130"/>
+    <mergeCell ref="O128:Q128"/>
+    <mergeCell ref="R130:T130"/>
+    <mergeCell ref="R131:T131"/>
+    <mergeCell ref="AI131:AK134"/>
+    <mergeCell ref="AL131:AN134"/>
+    <mergeCell ref="O133:Q133"/>
+    <mergeCell ref="O134:Q134"/>
+    <mergeCell ref="AI117:AK119"/>
+    <mergeCell ref="AL117:AN119"/>
+    <mergeCell ref="R118:T118"/>
+    <mergeCell ref="R119:T119"/>
+    <mergeCell ref="AI120:AK122"/>
+    <mergeCell ref="AL120:AN122"/>
+    <mergeCell ref="O121:Q121"/>
+    <mergeCell ref="O122:Q122"/>
+    <mergeCell ref="AI123:AK124"/>
+    <mergeCell ref="AL123:AN124"/>
+    <mergeCell ref="R124:T124"/>
+    <mergeCell ref="R113:T113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="AI114:AK114"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="O115:Q115"/>
+    <mergeCell ref="AI115:AK116"/>
+    <mergeCell ref="AL115:AN116"/>
+    <mergeCell ref="O116:Q116"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="O108:Q108"/>
+    <mergeCell ref="O109:Q109"/>
+    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="AL110:AN110"/>
+    <mergeCell ref="AI111:AK111"/>
+    <mergeCell ref="AL111:AN111"/>
+    <mergeCell ref="R112:T112"/>
+    <mergeCell ref="AI112:AK112"/>
+    <mergeCell ref="AI100:AK101"/>
+    <mergeCell ref="AL100:AN101"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="O105:Q105"/>
+    <mergeCell ref="R105:T105"/>
+    <mergeCell ref="AI105:AK105"/>
+    <mergeCell ref="AI92:AK94"/>
+    <mergeCell ref="AL92:AN94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="AI95:AK97"/>
+    <mergeCell ref="AL95:AN97"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="AI98:AK99"/>
+    <mergeCell ref="AL98:AN99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="AI87:AK87"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="AI88:AK88"/>
+    <mergeCell ref="AI89:AK89"/>
+    <mergeCell ref="AL89:AN89"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="AI90:AK91"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="A83:AN83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:N85"/>
+    <mergeCell ref="O84:T84"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:AH85"/>
+    <mergeCell ref="AI84:AN84"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="AI85:AK85"/>
+    <mergeCell ref="AL85:AN85"/>
+    <mergeCell ref="L5:AB9"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A2:AN2"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="A4:AN4"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:M15"/>
+    <mergeCell ref="A25:AN25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:M27"/>
+    <mergeCell ref="AI11:AN12"/>
+    <mergeCell ref="Y11:AA12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="R11:U12"/>
+    <mergeCell ref="A13:AN13"/>
+    <mergeCell ref="A34:AN34"/>
+    <mergeCell ref="AI35:AN37"/>
+    <mergeCell ref="L35:N37"/>
+    <mergeCell ref="A35:K37"/>
+    <mergeCell ref="O35:AH35"/>
+    <mergeCell ref="O36:S37"/>
+    <mergeCell ref="T36:X37"/>
+    <mergeCell ref="Y36:AC37"/>
+    <mergeCell ref="AD36:AH37"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="AI38:AN38"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="AI48:AN48"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="AI39:AN39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AC40"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="AD40:AH40"/>
+    <mergeCell ref="AI40:AN40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AD41:AH41"/>
+    <mergeCell ref="AI41:AN41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AD42:AH42"/>
+    <mergeCell ref="AI42:AN42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="AI43:AN43"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="AI44:AN44"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="Y45:AC45"/>
+    <mergeCell ref="AD45:AH45"/>
+    <mergeCell ref="AI45:AN45"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="AI47:AN47"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="T51:X51"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AD51:AH51"/>
+    <mergeCell ref="AI51:AN51"/>
+    <mergeCell ref="A49:K50"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="AD52:AH52"/>
+    <mergeCell ref="AI52:AN52"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="AI53:AN53"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:S52"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="Y52:AC52"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="AI54:AN54"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="O55:S55"/>
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="AI55:AN55"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="Y54:AC54"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="AI56:AN56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="Y57:AC57"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="AI57:AN57"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:S60"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="Y60:AC60"/>
+    <mergeCell ref="AD60:AH60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="Y58:AC58"/>
     <mergeCell ref="AD46:AH46"/>
     <mergeCell ref="AI46:AN46"/>
     <mergeCell ref="A61:K61"/>
@@ -18552,328 +18853,27 @@
     <mergeCell ref="AD58:AH58"/>
     <mergeCell ref="AI58:AN58"/>
     <mergeCell ref="A60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O60:S60"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="Y60:AC60"/>
-    <mergeCell ref="AD60:AH60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="Y58:AC58"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="AI56:AN56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="O57:S57"/>
-    <mergeCell ref="T57:X57"/>
-    <mergeCell ref="Y57:AC57"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="AI57:AN57"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="O56:S56"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="AI54:AN54"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="O55:S55"/>
-    <mergeCell ref="T55:X55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="AI55:AN55"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="Y54:AC54"/>
-    <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="AI52:AN52"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="O53:S53"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="AI53:AN53"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:S52"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="Y52:AC52"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="AI47:AN47"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="T51:X51"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AD51:AH51"/>
-    <mergeCell ref="AI51:AN51"/>
-    <mergeCell ref="A49:K50"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:S45"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AD45:AH45"/>
-    <mergeCell ref="AI45:AN45"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="AI43:AN43"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="Y44:AC44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="AI44:AN44"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="AD40:AH40"/>
-    <mergeCell ref="AI40:AN40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="AI41:AN41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AD42:AH42"/>
-    <mergeCell ref="AI42:AN42"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="AI38:AN38"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="O48:S48"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="AI48:AN48"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="Y39:AC39"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="AI39:AN39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="Y40:AC40"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:M27"/>
-    <mergeCell ref="AI11:AN12"/>
-    <mergeCell ref="Y11:AA12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="R11:U12"/>
-    <mergeCell ref="A13:AN13"/>
-    <mergeCell ref="A34:AN34"/>
-    <mergeCell ref="AI35:AN37"/>
-    <mergeCell ref="L35:N37"/>
-    <mergeCell ref="A35:K37"/>
-    <mergeCell ref="O35:AH35"/>
-    <mergeCell ref="O36:S37"/>
-    <mergeCell ref="T36:X37"/>
-    <mergeCell ref="Y36:AC37"/>
-    <mergeCell ref="AD36:AH37"/>
-    <mergeCell ref="L5:AB9"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A2:AN2"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="A4:AN4"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:M15"/>
-    <mergeCell ref="A25:AN25"/>
-    <mergeCell ref="A83:AN83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:N85"/>
-    <mergeCell ref="O84:T84"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:AH85"/>
-    <mergeCell ref="AI84:AN84"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="AI85:AK85"/>
-    <mergeCell ref="AL85:AN85"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="AI87:AK87"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="AI88:AK88"/>
-    <mergeCell ref="AI89:AK89"/>
-    <mergeCell ref="AL89:AN89"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="AI90:AK91"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="AI92:AK94"/>
-    <mergeCell ref="AL92:AN94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="AI95:AK97"/>
-    <mergeCell ref="AL95:AN97"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="AI98:AK99"/>
-    <mergeCell ref="AL98:AN99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="AI100:AK101"/>
-    <mergeCell ref="AL100:AN101"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="O105:Q105"/>
-    <mergeCell ref="R105:T105"/>
-    <mergeCell ref="AI105:AK105"/>
-    <mergeCell ref="AI106:AK106"/>
-    <mergeCell ref="O108:Q108"/>
-    <mergeCell ref="O109:Q109"/>
-    <mergeCell ref="AI110:AK110"/>
-    <mergeCell ref="AL110:AN110"/>
-    <mergeCell ref="AI111:AK111"/>
-    <mergeCell ref="AL111:AN111"/>
-    <mergeCell ref="R112:T112"/>
-    <mergeCell ref="AI112:AK112"/>
-    <mergeCell ref="R113:T113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="O115:Q115"/>
-    <mergeCell ref="AI115:AK116"/>
-    <mergeCell ref="AL115:AN116"/>
-    <mergeCell ref="O116:Q116"/>
-    <mergeCell ref="AI117:AK119"/>
-    <mergeCell ref="AL117:AN119"/>
-    <mergeCell ref="R118:T118"/>
-    <mergeCell ref="R119:T119"/>
-    <mergeCell ref="AI120:AK122"/>
-    <mergeCell ref="AL120:AN122"/>
-    <mergeCell ref="O121:Q121"/>
-    <mergeCell ref="O122:Q122"/>
-    <mergeCell ref="AI123:AK124"/>
-    <mergeCell ref="AL123:AN124"/>
-    <mergeCell ref="R124:T124"/>
-    <mergeCell ref="R125:T125"/>
-    <mergeCell ref="AI125:AK126"/>
-    <mergeCell ref="AL125:AN126"/>
-    <mergeCell ref="O127:Q127"/>
-    <mergeCell ref="AI127:AK130"/>
-    <mergeCell ref="AL127:AN130"/>
-    <mergeCell ref="O128:Q128"/>
-    <mergeCell ref="R130:T130"/>
-    <mergeCell ref="R131:T131"/>
-    <mergeCell ref="AI131:AK134"/>
-    <mergeCell ref="AL131:AN134"/>
-    <mergeCell ref="O133:Q133"/>
-    <mergeCell ref="O134:Q134"/>
-    <mergeCell ref="AI135:AK138"/>
-    <mergeCell ref="AL135:AN138"/>
-    <mergeCell ref="R136:T136"/>
-    <mergeCell ref="R137:T137"/>
-    <mergeCell ref="O139:Q139"/>
-    <mergeCell ref="AI139:AK142"/>
-    <mergeCell ref="AL139:AN142"/>
-    <mergeCell ref="O140:Q140"/>
-    <mergeCell ref="O141:Q144"/>
-    <mergeCell ref="R141:T144"/>
-    <mergeCell ref="AI143:AK147"/>
-    <mergeCell ref="AL143:AN147"/>
-    <mergeCell ref="O145:Q146"/>
-    <mergeCell ref="R145:T146"/>
-    <mergeCell ref="O147:Q147"/>
-    <mergeCell ref="R147:T147"/>
-    <mergeCell ref="O148:Q148"/>
-    <mergeCell ref="AI148:AK148"/>
-    <mergeCell ref="AL148:AN148"/>
-    <mergeCell ref="AI149:AK150"/>
-    <mergeCell ref="AL149:AN150"/>
-    <mergeCell ref="AI151:AK151"/>
-    <mergeCell ref="AL151:AN151"/>
-    <mergeCell ref="AC152:AD152"/>
-    <mergeCell ref="AI152:AK152"/>
-    <mergeCell ref="AL152:AN152"/>
-    <mergeCell ref="O153:Q153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="AI153:AK153"/>
-    <mergeCell ref="AL153:AN153"/>
-    <mergeCell ref="O154:Q154"/>
-    <mergeCell ref="AC154:AD154"/>
-    <mergeCell ref="AI154:AK154"/>
-    <mergeCell ref="AL154:AN154"/>
-    <mergeCell ref="AC155:AD155"/>
-    <mergeCell ref="AI155:AK155"/>
-    <mergeCell ref="AL155:AN155"/>
-    <mergeCell ref="U156:AN157"/>
-    <mergeCell ref="AI158:AN159"/>
-    <mergeCell ref="O159:Q159"/>
-    <mergeCell ref="R159:T159"/>
-    <mergeCell ref="O160:Q160"/>
-    <mergeCell ref="R160:T160"/>
-    <mergeCell ref="AI160:AN161"/>
-    <mergeCell ref="AI162:AN163"/>
-    <mergeCell ref="O164:Q164"/>
-    <mergeCell ref="AI164:AN165"/>
-    <mergeCell ref="O165:Q165"/>
-    <mergeCell ref="O169:Q169"/>
-    <mergeCell ref="R169:T169"/>
-    <mergeCell ref="O170:Q170"/>
-    <mergeCell ref="R170:T170"/>
-    <mergeCell ref="A171:AN171"/>
-    <mergeCell ref="R172:T172"/>
-    <mergeCell ref="R173:T173"/>
-    <mergeCell ref="R174:T175"/>
-    <mergeCell ref="R176:T176"/>
-    <mergeCell ref="R177:T177"/>
-    <mergeCell ref="AL177:AN177"/>
-    <mergeCell ref="AL178:AN178"/>
-    <mergeCell ref="AL179:AN179"/>
-    <mergeCell ref="AL180:AN180"/>
-    <mergeCell ref="R181:T181"/>
-    <mergeCell ref="AL181:AN182"/>
-    <mergeCell ref="R182:T182"/>
-    <mergeCell ref="R183:T183"/>
-    <mergeCell ref="AL183:AN183"/>
-    <mergeCell ref="R190:T190"/>
-    <mergeCell ref="AL190:AN190"/>
-    <mergeCell ref="R191:T191"/>
-    <mergeCell ref="R192:T192"/>
-    <mergeCell ref="R184:T185"/>
-    <mergeCell ref="AL184:AN184"/>
-    <mergeCell ref="AL185:AN185"/>
-    <mergeCell ref="R186:T187"/>
-    <mergeCell ref="AL186:AN186"/>
-    <mergeCell ref="R188:T188"/>
-    <mergeCell ref="AL188:AN188"/>
-    <mergeCell ref="R189:T189"/>
-    <mergeCell ref="AL189:AN189"/>
+    <mergeCell ref="AC68:AG68"/>
+    <mergeCell ref="AC69:AG69"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="R68:U69"/>
+    <mergeCell ref="A62:AN62"/>
+    <mergeCell ref="A63:AN65"/>
+    <mergeCell ref="A66:AN66"/>
+    <mergeCell ref="A67:AN67"/>
+    <mergeCell ref="A70:AN70"/>
+    <mergeCell ref="A71:AN73"/>
+    <mergeCell ref="A74:AN74"/>
+    <mergeCell ref="A75:AN75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="R76:U77"/>
+    <mergeCell ref="AC76:AG76"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="AC77:AG77"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.15" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="94" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="79" max="39" man="1"/>
   </rowBreaks>

--- a/src/main/resources/excel/form2307b.xlsx
+++ b/src/main/resources/excel/form2307b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\git\jchs-pos\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2496B37-9F6A-4322-ABB3-C5B1E8648B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A202A40-22B6-45E5-858A-58940E027694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3815,7 +3815,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="77276" y="530530"/>
+          <a:off x="77276" y="542722"/>
           <a:ext cx="1200714" cy="584331"/>
           <a:chOff x="7327" y="521368"/>
           <a:chExt cx="1179635" cy="669862"/>
@@ -4121,7 +4121,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1867584" y="1432450"/>
+          <a:off x="1867584" y="1446166"/>
           <a:ext cx="1014068" cy="86812"/>
           <a:chOff x="358563" y="3799299"/>
           <a:chExt cx="994293" cy="91452"/>
@@ -4407,8 +4407,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4840747" y="1291110"/>
-          <a:ext cx="1177758" cy="224059"/>
+          <a:off x="4840747" y="1301778"/>
+          <a:ext cx="1177758" cy="227107"/>
           <a:chOff x="198045" y="3663821"/>
           <a:chExt cx="1154811" cy="227822"/>
         </a:xfrm>
@@ -4889,8 +4889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6806519" y="2610676"/>
-          <a:ext cx="338155" cy="91405"/>
+          <a:off x="6806519" y="2619820"/>
+          <a:ext cx="338155" cy="89881"/>
           <a:chOff x="3108781" y="2630100"/>
           <a:chExt cx="308840" cy="95725"/>
         </a:xfrm>
@@ -5334,7 +5334,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6806519" y="4180379"/>
-          <a:ext cx="338155" cy="91405"/>
+          <a:ext cx="338155" cy="89881"/>
           <a:chOff x="3108781" y="2630100"/>
           <a:chExt cx="308840" cy="95725"/>
         </a:xfrm>
@@ -5497,8 +5497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5960342" y="10474048"/>
-          <a:ext cx="1336748" cy="218615"/>
+          <a:off x="5960342" y="10422232"/>
+          <a:ext cx="1336748" cy="221663"/>
           <a:chOff x="198045" y="3663821"/>
           <a:chExt cx="1310870" cy="227822"/>
         </a:xfrm>
@@ -5932,8 +5932,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3797687" y="10474045"/>
-          <a:ext cx="1332431" cy="218616"/>
+          <a:off x="3797687" y="10422229"/>
+          <a:ext cx="1332431" cy="221664"/>
           <a:chOff x="198045" y="3663821"/>
           <a:chExt cx="1310870" cy="227822"/>
         </a:xfrm>
@@ -6437,8 +6437,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5961468" y="11525606"/>
-          <a:ext cx="1336748" cy="218617"/>
+          <a:off x="5961468" y="11470742"/>
+          <a:ext cx="1336748" cy="221665"/>
           <a:chOff x="198045" y="3663821"/>
           <a:chExt cx="1310870" cy="227822"/>
         </a:xfrm>
@@ -6872,8 +6872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3798813" y="11525605"/>
-          <a:ext cx="1332431" cy="218617"/>
+          <a:off x="3798813" y="11470741"/>
+          <a:ext cx="1332431" cy="221665"/>
           <a:chOff x="198045" y="3663821"/>
           <a:chExt cx="1310870" cy="227822"/>
         </a:xfrm>
@@ -7378,7 +7378,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2910481" y="3301722"/>
-          <a:ext cx="2228837" cy="218454"/>
+          <a:ext cx="2228837" cy="221502"/>
           <a:chOff x="919351" y="1740146"/>
           <a:chExt cx="2229707" cy="228603"/>
         </a:xfrm>
@@ -8052,7 +8052,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2556076" y="1718222"/>
+          <a:off x="2556076" y="1733462"/>
           <a:ext cx="2573322" cy="218749"/>
           <a:chOff x="2512808" y="1728429"/>
           <a:chExt cx="2529252" cy="217312"/>
@@ -9061,13 +9061,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>55387</xdr:colOff>
+      <xdr:colOff>36577</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>33814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>19456</xdr:colOff>
+      <xdr:colOff>19457</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>120713</xdr:rowOff>
     </xdr:to>
@@ -9086,8 +9086,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4808970" y="1298410"/>
-          <a:ext cx="327235" cy="223086"/>
+          <a:off x="4821937" y="1301782"/>
+          <a:ext cx="348640" cy="227107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9201,13 +9201,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>34804</xdr:colOff>
+      <xdr:colOff>22612</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>30453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>34804</xdr:colOff>
+      <xdr:colOff>22612</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>116178</xdr:rowOff>
     </xdr:to>
@@ -9224,7 +9224,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5025904" y="1419982"/>
+          <a:off x="4990852" y="1438629"/>
           <a:ext cx="0" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9655,8 +9655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
